--- a/aFullReport.xlsx
+++ b/aFullReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_tpp\code-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D66FA09-7A69-4928-A305-979B743503F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B2851A-6A7D-439E-A57C-B8A1BD27137B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27510" yWindow="780" windowWidth="26130" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27810" yWindow="870" windowWidth="26130" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4514" uniqueCount="2054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4513" uniqueCount="2054">
   <si>
     <t>DocumentName</t>
   </si>
@@ -6800,21 +6800,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="167">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6848,342 +6834,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
@@ -7192,1000 +6842,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8559,7 +7215,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8567,8 +7223,8 @@
     <col min="1" max="2" width="9.109375" style="8"/>
     <col min="3" max="3" width="22.44140625" customWidth="1"/>
     <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="56.6640625" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
     <col min="12" max="12" width="9.109375" style="2"/>
@@ -8716,9 +7372,6 @@
       <c r="G3" t="s">
         <v>68</v>
       </c>
-      <c r="H3" t="s">
-        <v>68</v>
-      </c>
       <c r="I3" t="s">
         <v>68</v>
       </c>
@@ -54644,55 +53297,55 @@
     <sortCondition ref="C2:C930"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="21" priority="6" stopIfTrue="1" operator="containsText" text="DONE">
+    <cfRule type="containsText" dxfId="10" priority="6" stopIfTrue="1" operator="containsText" text="DONE">
       <formula>NOT(ISERROR(SEARCH("DONE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B930">
-    <cfRule type="containsText" dxfId="20" priority="7" stopIfTrue="1" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="9" priority="7" stopIfTrue="1" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="8" stopIfTrue="1" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="8" priority="8" stopIfTrue="1" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",B2)))</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="18" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="9">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:I1048576">
-    <cfRule type="containsBlanks" dxfId="16" priority="2">
+    <cfRule type="containsBlanks" dxfId="5" priority="2">
       <formula>LEN(TRIM(E1))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F999">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$F2&lt;&gt;$H2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G999">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$G2&lt;&gt;$I2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J1:P1048576">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="between">
       <formula>1</formula>
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F999">
-    <cfRule type="expression" dxfId="11" priority="1">
-      <formula>$F2&lt;&gt;$H2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G999">
-    <cfRule type="expression" dxfId="12" priority="4">
-      <formula>$G2&lt;&gt;$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aFullReport.xlsx
+++ b/aFullReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_tpp\code-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB06C8E-5E1B-4562-9634-4D29C63D1879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0568F01-3583-4AF5-9E39-4601B713AF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2655" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1068" windowWidth="21600" windowHeight="12732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4570" uniqueCount="2068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4594" uniqueCount="2074">
   <si>
     <t>DocumentName</t>
   </si>
@@ -6229,7 +6229,26 @@
     <t>Added some VNEXT_TARGETS.</t>
   </si>
   <si>
-    <t>No change. Contains a few NS changes compared to V1.</t>
+    <t xml:space="preserve">Contains a few NS changes compared to V1. No change. </t>
+  </si>
+  <si>
+    <t>Appartment. Rhino.</t>
+  </si>
+  <si>
+    <t>Short in V1 was changed to Int16. Rhino.</t>
+  </si>
+  <si>
+    <t>Appartment. ClearServices(). Rhino.</t>
+  </si>
+  <si>
+    <t>Appartment. ClearServices(). 
+No Rhino.</t>
+  </si>
+  <si>
+    <t>Excluded with VNEXT_TARGETS. Rhino.</t>
+  </si>
+  <si>
+    <t>Excluded with VNEXT_TARGETS.  Small NS change.</t>
   </si>
 </sst>
 </file>
@@ -6877,264 +6896,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E6B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E6B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7585,8 +7351,8 @@
   <dimension ref="A1:V931"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B256" sqref="B256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7595,10 +7361,10 @@
     <col min="2" max="2" width="10.7109375" style="8" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" style="10" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="53.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="80.5703125" customWidth="1"/>
+    <col min="8" max="8" width="68.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="2"/>
     <col min="21" max="21" width="30.7109375" customWidth="1"/>
@@ -10510,7 +10276,10 @@
         <v>6</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>2056</v>
       </c>
       <c r="D50" t="s">
         <v>32</v>
@@ -10566,7 +10335,10 @@
         <v>12</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>2056</v>
       </c>
       <c r="D51" t="s">
         <v>44</v>
@@ -10622,7 +10394,10 @@
         <v>13</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>2068</v>
       </c>
       <c r="D52" t="s">
         <v>46</v>
@@ -10673,12 +10448,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>17</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>2069</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
@@ -10729,12 +10507,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>24</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>2070</v>
       </c>
       <c r="D54" t="s">
         <v>69</v>
@@ -10790,7 +10571,10 @@
         <v>7</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>2056</v>
       </c>
       <c r="D55" t="s">
         <v>34</v>
@@ -10846,7 +10630,10 @@
         <v>20</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>2056</v>
       </c>
       <c r="D56" t="s">
         <v>61</v>
@@ -10897,12 +10684,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>25</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>2071</v>
       </c>
       <c r="D57" t="s">
         <v>71</v>
@@ -10958,7 +10748,10 @@
         <v>27</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>2056</v>
       </c>
       <c r="D58" t="s">
         <v>75</v>
@@ -11014,7 +10807,10 @@
         <v>41</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>2056</v>
       </c>
       <c r="D59" t="s">
         <v>103</v>
@@ -11070,7 +10866,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>2056</v>
       </c>
       <c r="D60" t="s">
         <v>136</v>
@@ -11126,7 +10925,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>2056</v>
       </c>
       <c r="D61" t="s">
         <v>138</v>
@@ -11182,7 +10984,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>2056</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -11238,7 +11043,10 @@
         <v>33</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>2056</v>
       </c>
       <c r="D63" t="s">
         <v>87</v>
@@ -11294,7 +11102,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>2056</v>
       </c>
       <c r="D64" t="s">
         <v>113</v>
@@ -11350,7 +11161,10 @@
         <v>47</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>2056</v>
       </c>
       <c r="D65" t="s">
         <v>115</v>
@@ -11406,7 +11220,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>2061</v>
       </c>
       <c r="D66" t="s">
         <v>148</v>
@@ -11462,7 +11279,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>2061</v>
       </c>
       <c r="D67" t="s">
         <v>152</v>
@@ -11518,7 +11338,10 @@
         <v>65</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>2056</v>
       </c>
       <c r="D68" t="s">
         <v>150</v>
@@ -11574,7 +11397,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>2053</v>
+        <v>2055</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>2056</v>
       </c>
       <c r="D69" t="s">
         <v>156</v>
@@ -21259,9 +21085,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
         <v>242</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>2073</v>
       </c>
       <c r="D255" t="s">
         <v>513</v>
@@ -22126,9 +21958,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>233</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>2072</v>
       </c>
       <c r="D273" t="s">
         <v>495</v>
@@ -53834,75 +53672,75 @@
     <sortCondition ref="D2:D930"/>
   </sortState>
   <conditionalFormatting sqref="B73:B1048576 B1:B69">
-    <cfRule type="containsText" dxfId="31" priority="2" stopIfTrue="1" operator="containsText" text="Issue">
+    <cfRule type="containsText" dxfId="15" priority="2" stopIfTrue="1" operator="containsText" text="Issue">
       <formula>NOT(ISERROR(SEARCH("Issue",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="11" stopIfTrue="1" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="14" priority="11" stopIfTrue="1" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B930 B2:B69">
-    <cfRule type="containsText" dxfId="29" priority="12" stopIfTrue="1" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="13" priority="12" stopIfTrue="1" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="13" stopIfTrue="1" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="12" priority="13" stopIfTrue="1" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",B2)))</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="27" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="14">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsBlanks" dxfId="26" priority="5">
+    <cfRule type="containsBlanks" dxfId="10" priority="5">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C999">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="20">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="NO CHANGE">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="NO CHANGE">
       <formula>NOT(ISERROR(SEARCH("NO CHANGE",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="1" stopIfTrue="1" operator="containsText" text="NOTE:">
+    <cfRule type="containsText" dxfId="0" priority="1" stopIfTrue="1" operator="containsText" text="NOTE:">
       <formula>NOT(ISERROR(SEARCH("NOTE:",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:J1048576">
-    <cfRule type="containsBlanks" dxfId="22" priority="7">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G999">
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$G2&lt;&gt;$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H999">
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>$H2&lt;&gt;$J2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:Q1048576">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="between">
       <formula>1</formula>
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/aFullReport.xlsx
+++ b/aFullReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_tpp\code-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0568F01-3583-4AF5-9E39-4601B713AF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1587929-CCF9-47BF-87BB-688F593913E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1116" yWindow="1068" windowWidth="21600" windowHeight="12732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6197,10 +6197,6 @@
     <t>No change</t>
   </si>
   <si>
-    <t>Contains additional test in V1.
-Related to bug 19101, but this test is removed in commit f10c683b607 as 'not relevant'.</t>
-  </si>
-  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -6249,6 +6245,11 @@
   </si>
   <si>
     <t>Excluded with VNEXT_TARGETS.  Small NS change.</t>
+  </si>
+  <si>
+    <t>See ln 45.
+Contains additional test in V1.
+Related to bug 19101, but this test is removed in commit f10c683b607 as 'not relevant'.</t>
   </si>
 </sst>
 </file>
@@ -6900,7 +6901,28 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC5E6B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6970,27 +6992,6 @@
           <color rgb="FF9C0006"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E6B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -7351,27 +7352,27 @@
   <dimension ref="A1:V931"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B256" sqref="B256"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="80.5703125" customWidth="1"/>
-    <col min="8" max="8" width="68.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="2"/>
-    <col min="21" max="21" width="30.7109375" customWidth="1"/>
-    <col min="22" max="22" width="196.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="80.5546875" customWidth="1"/>
+    <col min="8" max="8" width="68.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="2"/>
+    <col min="21" max="21" width="30.6640625" customWidth="1"/>
+    <col min="22" max="22" width="196.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>2051</v>
       </c>
@@ -7439,7 +7440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>15</v>
       </c>
@@ -7498,7 +7499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>23</v>
       </c>
@@ -7557,7 +7558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>26</v>
       </c>
@@ -7616,7 +7617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>40</v>
       </c>
@@ -7675,15 +7676,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>2057</v>
+        <v>2073</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
@@ -7734,7 +7735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>32</v>
       </c>
@@ -7793,7 +7794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>35</v>
       </c>
@@ -7852,7 +7853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>51</v>
       </c>
@@ -7911,7 +7912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>60</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>67</v>
       </c>
@@ -8029,7 +8030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -8088,7 +8089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>21</v>
       </c>
@@ -8147,15 +8148,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>18</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -8206,7 +8207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>19</v>
       </c>
@@ -8214,7 +8215,7 @@
         <v>2055</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -8265,7 +8266,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>28</v>
       </c>
@@ -8273,7 +8274,7 @@
         <v>2055</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
@@ -8324,7 +8325,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>29</v>
       </c>
@@ -8332,7 +8333,7 @@
         <v>2055</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D17" t="s">
         <v>79</v>
@@ -8383,7 +8384,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>48</v>
       </c>
@@ -8442,7 +8443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>49</v>
       </c>
@@ -8501,7 +8502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>52</v>
       </c>
@@ -8509,7 +8510,7 @@
         <v>2055</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D20" t="s">
         <v>124</v>
@@ -8560,7 +8561,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>53</v>
       </c>
@@ -8619,7 +8620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>22</v>
       </c>
@@ -8678,7 +8679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>30</v>
       </c>
@@ -8686,7 +8687,7 @@
         <v>2055</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
@@ -8737,7 +8738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>44</v>
       </c>
@@ -8796,7 +8797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>45</v>
       </c>
@@ -8804,7 +8805,7 @@
         <v>2055</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D25" t="s">
         <v>111</v>
@@ -8855,7 +8856,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>1</v>
       </c>
@@ -8914,7 +8915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>39</v>
       </c>
@@ -8973,7 +8974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>38</v>
       </c>
@@ -9032,7 +9033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>31</v>
       </c>
@@ -9091,7 +9092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>62</v>
       </c>
@@ -9150,7 +9151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>11</v>
       </c>
@@ -9209,7 +9210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>34</v>
       </c>
@@ -9217,7 +9218,7 @@
         <v>2055</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D32" t="s">
         <v>89</v>
@@ -9268,7 +9269,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>2</v>
       </c>
@@ -9276,7 +9277,7 @@
         <v>2055</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
@@ -9327,7 +9328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>5</v>
       </c>
@@ -9335,7 +9336,7 @@
         <v>2055</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D34" t="s">
         <v>30</v>
@@ -9386,7 +9387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>43</v>
       </c>
@@ -9394,7 +9395,7 @@
         <v>2055</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D35" t="s">
         <v>107</v>
@@ -9445,7 +9446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>3</v>
       </c>
@@ -9504,7 +9505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>63</v>
       </c>
@@ -9563,7 +9564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>50</v>
       </c>
@@ -9622,7 +9623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>14</v>
       </c>
@@ -9630,7 +9631,7 @@
         <v>2055</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D39" t="s">
         <v>49</v>
@@ -9681,7 +9682,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>36</v>
       </c>
@@ -9689,7 +9690,7 @@
         <v>2055</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D40" t="s">
         <v>93</v>
@@ -9740,7 +9741,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>57</v>
       </c>
@@ -9748,7 +9749,7 @@
         <v>2055</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D41" t="s">
         <v>134</v>
@@ -9799,7 +9800,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>54</v>
       </c>
@@ -9858,7 +9859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>55</v>
       </c>
@@ -9917,7 +9918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>56</v>
       </c>
@@ -9976,7 +9977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>37</v>
       </c>
@@ -10035,7 +10036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>42</v>
       </c>
@@ -10094,7 +10095,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>9</v>
       </c>
@@ -10153,7 +10154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>16</v>
       </c>
@@ -10212,7 +10213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>4</v>
       </c>
@@ -10220,7 +10221,7 @@
         <v>2055</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D49" t="s">
         <v>28</v>
@@ -10271,7 +10272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>6</v>
       </c>
@@ -10330,7 +10331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>12</v>
       </c>
@@ -10389,7 +10390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>13</v>
       </c>
@@ -10397,7 +10398,7 @@
         <v>2055</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D52" t="s">
         <v>46</v>
@@ -10448,7 +10449,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>17</v>
       </c>
@@ -10456,7 +10457,7 @@
         <v>2055</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
@@ -10507,7 +10508,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>24</v>
       </c>
@@ -10515,7 +10516,7 @@
         <v>2055</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D54" t="s">
         <v>69</v>
@@ -10566,7 +10567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>7</v>
       </c>
@@ -10625,7 +10626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>20</v>
       </c>
@@ -10684,7 +10685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>25</v>
       </c>
@@ -10692,7 +10693,7 @@
         <v>2055</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D57" t="s">
         <v>71</v>
@@ -10743,7 +10744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>27</v>
       </c>
@@ -10802,7 +10803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>41</v>
       </c>
@@ -10861,7 +10862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -10920,7 +10921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -10979,7 +10980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -11038,7 +11039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>33</v>
       </c>
@@ -11097,7 +11098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>46</v>
       </c>
@@ -11156,7 +11157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>47</v>
       </c>
@@ -11215,7 +11216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>64</v>
       </c>
@@ -11223,7 +11224,7 @@
         <v>2055</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D66" t="s">
         <v>148</v>
@@ -11274,7 +11275,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -11282,7 +11283,7 @@
         <v>2055</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D67" t="s">
         <v>152</v>
@@ -11333,7 +11334,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>65</v>
       </c>
@@ -11392,7 +11393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -11451,7 +11452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>91</v>
       </c>
@@ -11501,7 +11502,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>101</v>
       </c>
@@ -11551,7 +11552,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>69</v>
       </c>
@@ -11604,7 +11605,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>92</v>
       </c>
@@ -11657,7 +11658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>117</v>
       </c>
@@ -11710,7 +11711,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>118</v>
       </c>
@@ -11763,7 +11764,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>119</v>
       </c>
@@ -11816,7 +11817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>120</v>
       </c>
@@ -11869,7 +11870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>72</v>
       </c>
@@ -11922,7 +11923,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>73</v>
       </c>
@@ -11975,7 +11976,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>80</v>
       </c>
@@ -12028,7 +12029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>82</v>
       </c>
@@ -12081,7 +12082,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>84</v>
       </c>
@@ -12134,7 +12135,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>85</v>
       </c>
@@ -12187,7 +12188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>86</v>
       </c>
@@ -12240,7 +12241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>87</v>
       </c>
@@ -12293,7 +12294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>88</v>
       </c>
@@ -12346,7 +12347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>89</v>
       </c>
@@ -12399,7 +12400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>95</v>
       </c>
@@ -12452,7 +12453,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>96</v>
       </c>
@@ -12505,7 +12506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>97</v>
       </c>
@@ -12558,7 +12559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>98</v>
       </c>
@@ -12611,7 +12612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>99</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>102</v>
       </c>
@@ -12717,7 +12718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>103</v>
       </c>
@@ -12770,7 +12771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>105</v>
       </c>
@@ -12823,7 +12824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>110</v>
       </c>
@@ -12876,7 +12877,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>112</v>
       </c>
@@ -12929,7 +12930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>70</v>
       </c>
@@ -12982,7 +12983,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>71</v>
       </c>
@@ -13035,7 +13036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>111</v>
       </c>
@@ -13088,7 +13089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>126</v>
       </c>
@@ -13141,7 +13142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>83</v>
       </c>
@@ -13194,7 +13195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>79</v>
       </c>
@@ -13250,7 +13251,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>75</v>
       </c>
@@ -13303,7 +13304,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>76</v>
       </c>
@@ -13356,7 +13357,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>77</v>
       </c>
@@ -13409,7 +13410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>81</v>
       </c>
@@ -13462,7 +13463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>93</v>
       </c>
@@ -13515,7 +13516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>94</v>
       </c>
@@ -13568,7 +13569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>113</v>
       </c>
@@ -13621,7 +13622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>104</v>
       </c>
@@ -13674,7 +13675,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>107</v>
       </c>
@@ -13727,7 +13728,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>108</v>
       </c>
@@ -13780,7 +13781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>90</v>
       </c>
@@ -13833,7 +13834,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>100</v>
       </c>
@@ -13883,7 +13884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>106</v>
       </c>
@@ -13936,7 +13937,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>109</v>
       </c>
@@ -13989,7 +13990,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>78</v>
       </c>
@@ -14042,7 +14043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>74</v>
       </c>
@@ -14095,7 +14096,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>114</v>
       </c>
@@ -14148,7 +14149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>115</v>
       </c>
@@ -14201,7 +14202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>116</v>
       </c>
@@ -14254,7 +14255,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>121</v>
       </c>
@@ -14307,7 +14308,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>122</v>
       </c>
@@ -14360,7 +14361,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>123</v>
       </c>
@@ -14413,7 +14414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>124</v>
       </c>
@@ -14466,7 +14467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>125</v>
       </c>
@@ -14519,7 +14520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>127</v>
       </c>
@@ -14572,7 +14573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>129</v>
       </c>
@@ -14625,7 +14626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>128</v>
       </c>
@@ -14678,7 +14679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>130</v>
       </c>
@@ -14731,7 +14732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>131</v>
       </c>
@@ -14784,7 +14785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>143</v>
       </c>
@@ -14837,7 +14838,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>133</v>
       </c>
@@ -14890,7 +14891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>134</v>
       </c>
@@ -14943,7 +14944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>150</v>
       </c>
@@ -14996,7 +14997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>135</v>
       </c>
@@ -15049,7 +15050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>136</v>
       </c>
@@ -15102,7 +15103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>137</v>
       </c>
@@ -15155,7 +15156,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>138</v>
       </c>
@@ -15208,7 +15209,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>139</v>
       </c>
@@ -15261,7 +15262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>140</v>
       </c>
@@ -15314,7 +15315,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>141</v>
       </c>
@@ -15367,7 +15368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>142</v>
       </c>
@@ -15420,7 +15421,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>160</v>
       </c>
@@ -15473,7 +15474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>185</v>
       </c>
@@ -15526,7 +15527,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>218</v>
       </c>
@@ -15579,7 +15580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>184</v>
       </c>
@@ -15632,7 +15633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>192</v>
       </c>
@@ -15685,7 +15686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>145</v>
       </c>
@@ -15738,7 +15739,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>146</v>
       </c>
@@ -15791,7 +15792,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>221</v>
       </c>
@@ -15844,7 +15845,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <v>154</v>
       </c>
@@ -15897,7 +15898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>155</v>
       </c>
@@ -15950,7 +15951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>159</v>
       </c>
@@ -16003,7 +16004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>217</v>
       </c>
@@ -16056,7 +16057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>162</v>
       </c>
@@ -16109,7 +16110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>166</v>
       </c>
@@ -16156,7 +16157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>171</v>
       </c>
@@ -16209,7 +16210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>167</v>
       </c>
@@ -16262,7 +16263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>172</v>
       </c>
@@ -16315,7 +16316,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>191</v>
       </c>
@@ -16368,7 +16369,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>220</v>
       </c>
@@ -16421,7 +16422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>132</v>
       </c>
@@ -16474,7 +16475,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>147</v>
       </c>
@@ -16527,7 +16528,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>212</v>
       </c>
@@ -16580,7 +16581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>213</v>
       </c>
@@ -16633,7 +16634,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>149</v>
       </c>
@@ -16686,7 +16687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>153</v>
       </c>
@@ -16739,7 +16740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>156</v>
       </c>
@@ -16792,7 +16793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>157</v>
       </c>
@@ -16845,7 +16846,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>158</v>
       </c>
@@ -16898,7 +16899,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>164</v>
       </c>
@@ -16951,7 +16952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
         <v>165</v>
       </c>
@@ -17004,7 +17005,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>168</v>
       </c>
@@ -17057,7 +17058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <v>214</v>
       </c>
@@ -17110,7 +17111,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
         <v>210</v>
       </c>
@@ -17163,7 +17164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
         <v>222</v>
       </c>
@@ -17216,7 +17217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
         <v>199</v>
       </c>
@@ -17269,7 +17270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>174</v>
       </c>
@@ -17322,7 +17323,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
         <v>175</v>
       </c>
@@ -17375,7 +17376,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>178</v>
       </c>
@@ -17428,7 +17429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>179</v>
       </c>
@@ -17481,7 +17482,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A184" s="8">
         <v>144</v>
       </c>
@@ -17537,7 +17538,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>181</v>
       </c>
@@ -17590,7 +17591,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
         <v>182</v>
       </c>
@@ -17643,7 +17644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
         <v>183</v>
       </c>
@@ -17693,7 +17694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
         <v>161</v>
       </c>
@@ -17746,7 +17747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>163</v>
       </c>
@@ -17799,7 +17800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
         <v>186</v>
       </c>
@@ -17852,7 +17853,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
         <v>205</v>
       </c>
@@ -17905,7 +17906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>187</v>
       </c>
@@ -17958,7 +17959,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193" s="8">
         <v>188</v>
       </c>
@@ -18011,7 +18012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
         <v>189</v>
       </c>
@@ -18064,7 +18065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
         <v>190</v>
       </c>
@@ -18117,7 +18118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" s="8">
         <v>193</v>
       </c>
@@ -18170,7 +18171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>194</v>
       </c>
@@ -18223,7 +18224,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
         <v>195</v>
       </c>
@@ -18276,7 +18277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
         <v>196</v>
       </c>
@@ -18329,7 +18330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
         <v>169</v>
       </c>
@@ -18382,7 +18383,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
         <v>170</v>
       </c>
@@ -18435,7 +18436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
         <v>173</v>
       </c>
@@ -18488,7 +18489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
         <v>180</v>
       </c>
@@ -18541,7 +18542,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204" s="8">
         <v>197</v>
       </c>
@@ -18594,7 +18595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205" s="8">
         <v>198</v>
       </c>
@@ -18647,7 +18648,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
         <v>176</v>
       </c>
@@ -18700,7 +18701,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
         <v>177</v>
       </c>
@@ -18753,7 +18754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208" s="8">
         <v>200</v>
       </c>
@@ -18806,7 +18807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
         <v>201</v>
       </c>
@@ -18859,7 +18860,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
         <v>202</v>
       </c>
@@ -18912,7 +18913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211" s="8">
         <v>203</v>
       </c>
@@ -18965,7 +18966,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
         <v>204</v>
       </c>
@@ -19018,7 +19019,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
         <v>206</v>
       </c>
@@ -19071,7 +19072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
         <v>207</v>
       </c>
@@ -19124,7 +19125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
         <v>208</v>
       </c>
@@ -19177,7 +19178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216" s="8">
         <v>209</v>
       </c>
@@ -19230,7 +19231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
         <v>211</v>
       </c>
@@ -19283,7 +19284,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
         <v>215</v>
       </c>
@@ -19336,7 +19337,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>216</v>
       </c>
@@ -19389,7 +19390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220" s="8">
         <v>148</v>
       </c>
@@ -19442,7 +19443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
         <v>151</v>
       </c>
@@ -19495,7 +19496,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>152</v>
       </c>
@@ -19548,7 +19549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
         <v>219</v>
       </c>
@@ -19601,7 +19602,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>223</v>
       </c>
@@ -19654,7 +19655,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
         <v>392</v>
       </c>
@@ -19701,7 +19702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
         <v>393</v>
       </c>
@@ -19748,7 +19749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>394</v>
       </c>
@@ -19795,7 +19796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>238</v>
       </c>
@@ -19845,7 +19846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
         <v>239</v>
       </c>
@@ -19892,7 +19893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
         <v>252</v>
       </c>
@@ -19942,7 +19943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>253</v>
       </c>
@@ -19992,7 +19993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232" s="8">
         <v>258</v>
       </c>
@@ -20039,7 +20040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
         <v>262</v>
       </c>
@@ -20086,7 +20087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>268</v>
       </c>
@@ -20133,7 +20134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
         <v>269</v>
       </c>
@@ -20180,7 +20181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>270</v>
       </c>
@@ -20227,7 +20228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>272</v>
       </c>
@@ -20274,7 +20275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
         <v>226</v>
       </c>
@@ -20321,7 +20322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>230</v>
       </c>
@@ -20368,7 +20369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240" s="8">
         <v>237</v>
       </c>
@@ -20415,7 +20416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
         <v>240</v>
       </c>
@@ -20462,7 +20463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
         <v>228</v>
       </c>
@@ -20509,7 +20510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>235</v>
       </c>
@@ -20556,7 +20557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
         <v>244</v>
       </c>
@@ -20603,7 +20604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>245</v>
       </c>
@@ -20650,7 +20651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
         <v>260</v>
       </c>
@@ -20697,7 +20698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
         <v>265</v>
       </c>
@@ -20744,7 +20745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
         <v>271</v>
       </c>
@@ -20791,7 +20792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
         <v>256</v>
       </c>
@@ -20838,7 +20839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A250" s="8">
         <v>248</v>
       </c>
@@ -20888,7 +20889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>249</v>
       </c>
@@ -20938,7 +20939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
         <v>250</v>
       </c>
@@ -20985,7 +20986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
         <v>251</v>
       </c>
@@ -21035,7 +21036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
         <v>234</v>
       </c>
@@ -21085,7 +21086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
         <v>242</v>
       </c>
@@ -21093,7 +21094,7 @@
         <v>2055</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D255" t="s">
         <v>513</v>
@@ -21141,7 +21142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A256" s="8">
         <v>241</v>
       </c>
@@ -21191,7 +21192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
         <v>247</v>
       </c>
@@ -21241,7 +21242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A258" s="8">
         <v>225</v>
       </c>
@@ -21291,7 +21292,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
         <v>257</v>
       </c>
@@ -21341,7 +21342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
         <v>229</v>
       </c>
@@ -21391,7 +21392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A261" s="8">
         <v>254</v>
       </c>
@@ -21441,7 +21442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
         <v>255</v>
       </c>
@@ -21488,7 +21489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
         <v>259</v>
       </c>
@@ -21535,7 +21536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A264" s="8">
         <v>279</v>
       </c>
@@ -21582,7 +21583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
         <v>263</v>
       </c>
@@ -21629,7 +21630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A266" s="8">
         <v>264</v>
       </c>
@@ -21676,7 +21677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A267" s="8">
         <v>243</v>
       </c>
@@ -21723,7 +21724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A268" s="8">
         <v>261</v>
       </c>
@@ -21770,7 +21771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
         <v>273</v>
       </c>
@@ -21817,7 +21818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A270" s="8">
         <v>224</v>
       </c>
@@ -21864,7 +21865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
         <v>227</v>
       </c>
@@ -21911,7 +21912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
         <v>231</v>
       </c>
@@ -21958,7 +21959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="8">
         <v>233</v>
       </c>
@@ -21966,7 +21967,7 @@
         <v>2055</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D273" t="s">
         <v>495</v>
@@ -22014,7 +22015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
         <v>236</v>
       </c>
@@ -22061,7 +22062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>266</v>
       </c>
@@ -22108,7 +22109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A276" s="8">
         <v>267</v>
       </c>
@@ -22158,7 +22159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
         <v>274</v>
       </c>
@@ -22205,7 +22206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
         <v>232</v>
       </c>
@@ -22252,7 +22253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
         <v>246</v>
       </c>
@@ -22299,7 +22300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
         <v>275</v>
       </c>
@@ -22346,7 +22347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
         <v>276</v>
       </c>
@@ -22396,7 +22397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A282" s="8">
         <v>277</v>
       </c>
@@ -22443,7 +22444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
         <v>278</v>
       </c>
@@ -22493,7 +22494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
         <v>280</v>
       </c>
@@ -22540,7 +22541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A285" s="8">
         <v>282</v>
       </c>
@@ -22587,7 +22588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
         <v>281</v>
       </c>
@@ -22637,7 +22638,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="287" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
         <v>283</v>
       </c>
@@ -22684,7 +22685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A288" s="8">
         <v>345</v>
       </c>
@@ -22734,7 +22735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A289" s="8">
         <v>339</v>
       </c>
@@ -22784,7 +22785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A290" s="8">
         <v>288</v>
       </c>
@@ -22834,7 +22835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A291" s="8">
         <v>300</v>
       </c>
@@ -22884,7 +22885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A292" s="8">
         <v>301</v>
       </c>
@@ -22934,7 +22935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
         <v>309</v>
       </c>
@@ -22984,7 +22985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A294" s="8">
         <v>290</v>
       </c>
@@ -23034,7 +23035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
         <v>303</v>
       </c>
@@ -23084,7 +23085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A296" s="8">
         <v>305</v>
       </c>
@@ -23134,7 +23135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A297" s="8">
         <v>306</v>
       </c>
@@ -23184,7 +23185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A298" s="8">
         <v>310</v>
       </c>
@@ -23234,7 +23235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A299" s="8">
         <v>322</v>
       </c>
@@ -23284,7 +23285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A300" s="8">
         <v>328</v>
       </c>
@@ -23334,7 +23335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A301" s="8">
         <v>333</v>
       </c>
@@ -23384,7 +23385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A302" s="8">
         <v>337</v>
       </c>
@@ -23434,7 +23435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A303" s="8">
         <v>341</v>
       </c>
@@ -23484,7 +23485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A304" s="8">
         <v>342</v>
       </c>
@@ -23534,7 +23535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A305" s="8">
         <v>346</v>
       </c>
@@ -23584,7 +23585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A306" s="8">
         <v>348</v>
       </c>
@@ -23634,7 +23635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A307" s="8">
         <v>352</v>
       </c>
@@ -23684,7 +23685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A308" s="8">
         <v>370</v>
       </c>
@@ -23734,7 +23735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A309" s="8">
         <v>298</v>
       </c>
@@ -23784,7 +23785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A310" s="8">
         <v>304</v>
       </c>
@@ -23834,7 +23835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A311" s="8">
         <v>307</v>
       </c>
@@ -23884,7 +23885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A312" s="8">
         <v>308</v>
       </c>
@@ -23934,7 +23935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A313" s="8">
         <v>334</v>
       </c>
@@ -23984,7 +23985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A314" s="8">
         <v>319</v>
       </c>
@@ -24034,7 +24035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A315" s="8">
         <v>284</v>
       </c>
@@ -24084,7 +24085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A316" s="8">
         <v>329</v>
       </c>
@@ -24131,7 +24132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A317" s="8">
         <v>360</v>
       </c>
@@ -24178,7 +24179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A318" s="8">
         <v>330</v>
       </c>
@@ -24225,7 +24226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A319" s="8">
         <v>331</v>
       </c>
@@ -24272,7 +24273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A320" s="8">
         <v>332</v>
       </c>
@@ -24319,7 +24320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A321" s="8">
         <v>323</v>
       </c>
@@ -24366,7 +24367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A322" s="8">
         <v>311</v>
       </c>
@@ -24416,7 +24417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A323" s="8">
         <v>289</v>
       </c>
@@ -24466,7 +24467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A324" s="8">
         <v>291</v>
       </c>
@@ -24516,7 +24517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A325" s="8">
         <v>292</v>
       </c>
@@ -24566,7 +24567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A326" s="8">
         <v>327</v>
       </c>
@@ -24616,7 +24617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A327" s="8">
         <v>335</v>
       </c>
@@ -24666,7 +24667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A328" s="8">
         <v>343</v>
       </c>
@@ -24716,7 +24717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A329" s="8">
         <v>350</v>
       </c>
@@ -24766,7 +24767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A330" s="8">
         <v>357</v>
       </c>
@@ -24816,7 +24817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A331" s="8">
         <v>361</v>
       </c>
@@ -24866,7 +24867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A332" s="8">
         <v>371</v>
       </c>
@@ -24916,7 +24917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A333" s="8">
         <v>369</v>
       </c>
@@ -24966,7 +24967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A334" s="8">
         <v>312</v>
       </c>
@@ -25013,7 +25014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A335" s="8">
         <v>340</v>
       </c>
@@ -25063,7 +25064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A336" s="8">
         <v>362</v>
       </c>
@@ -25110,7 +25111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A337" s="8">
         <v>359</v>
       </c>
@@ -25160,7 +25161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A338" s="8">
         <v>295</v>
       </c>
@@ -25210,7 +25211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A339" s="8">
         <v>296</v>
       </c>
@@ -25260,7 +25261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A340" s="8">
         <v>294</v>
       </c>
@@ -25310,7 +25311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A341" s="8">
         <v>321</v>
       </c>
@@ -25360,7 +25361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A342" s="8">
         <v>302</v>
       </c>
@@ -25410,7 +25411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A343" s="8">
         <v>313</v>
       </c>
@@ -25460,7 +25461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A344" s="8">
         <v>314</v>
       </c>
@@ -25510,7 +25511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A345" s="8">
         <v>315</v>
       </c>
@@ -25560,7 +25561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A346" s="8">
         <v>320</v>
       </c>
@@ -25610,7 +25611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A347" s="8">
         <v>285</v>
       </c>
@@ -25660,7 +25661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A348" s="8">
         <v>316</v>
       </c>
@@ -25710,7 +25711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A349" s="8">
         <v>324</v>
       </c>
@@ -25760,7 +25761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A350" s="8">
         <v>355</v>
       </c>
@@ -25810,7 +25811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A351" s="8">
         <v>326</v>
       </c>
@@ -25860,7 +25861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A352" s="8">
         <v>318</v>
       </c>
@@ -25910,7 +25911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A353" s="8">
         <v>368</v>
       </c>
@@ -25960,7 +25961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A354" s="8">
         <v>297</v>
       </c>
@@ -26010,7 +26011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A355" s="8">
         <v>293</v>
       </c>
@@ -26060,7 +26061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A356" s="8">
         <v>372</v>
       </c>
@@ -26110,7 +26111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A357" s="8">
         <v>336</v>
       </c>
@@ -26160,7 +26161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A358" s="8">
         <v>349</v>
       </c>
@@ -26210,7 +26211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A359" s="8">
         <v>325</v>
       </c>
@@ -26260,7 +26261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A360" s="8">
         <v>286</v>
       </c>
@@ -26310,7 +26311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A361" s="8">
         <v>287</v>
       </c>
@@ -26360,7 +26361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A362" s="8">
         <v>317</v>
       </c>
@@ -26410,7 +26411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A363" s="8">
         <v>347</v>
       </c>
@@ -26460,7 +26461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A364" s="8">
         <v>299</v>
       </c>
@@ -26510,7 +26511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A365" s="8">
         <v>344</v>
       </c>
@@ -26560,7 +26561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A366" s="8">
         <v>353</v>
       </c>
@@ -26610,7 +26611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A367" s="8">
         <v>354</v>
       </c>
@@ -26660,7 +26661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A368" s="8">
         <v>356</v>
       </c>
@@ -26710,7 +26711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A369" s="8">
         <v>358</v>
       </c>
@@ -26760,7 +26761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A370" s="8">
         <v>363</v>
       </c>
@@ -26810,7 +26811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A371" s="8">
         <v>364</v>
       </c>
@@ -26860,7 +26861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A372" s="8">
         <v>365</v>
       </c>
@@ -26910,7 +26911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A373" s="8">
         <v>366</v>
       </c>
@@ -26960,7 +26961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A374" s="8">
         <v>367</v>
       </c>
@@ -27010,7 +27011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A375" s="8">
         <v>338</v>
       </c>
@@ -27060,7 +27061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A376" s="8">
         <v>351</v>
       </c>
@@ -27110,7 +27111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A377" s="8">
         <v>374</v>
       </c>
@@ -27157,7 +27158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A378" s="8">
         <v>376</v>
       </c>
@@ -27204,7 +27205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A379" s="8">
         <v>373</v>
       </c>
@@ -27254,7 +27255,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A380" s="8">
         <v>375</v>
       </c>
@@ -27301,7 +27302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A381" s="8">
         <v>377</v>
       </c>
@@ -27351,7 +27352,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="382" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A382" s="8">
         <v>380</v>
       </c>
@@ -27401,7 +27402,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="383" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A383" s="8">
         <v>378</v>
       </c>
@@ -27448,7 +27449,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="384" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A384" s="8">
         <v>381</v>
       </c>
@@ -27498,7 +27499,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="385" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A385" s="8">
         <v>379</v>
       </c>
@@ -27548,7 +27549,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="386" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A386" s="8">
         <v>382</v>
       </c>
@@ -27598,7 +27599,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="387" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A387" s="8">
         <v>383</v>
       </c>
@@ -27648,7 +27649,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="388" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A388" s="8">
         <v>461</v>
       </c>
@@ -27698,7 +27699,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="389" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A389" s="8">
         <v>384</v>
       </c>
@@ -27748,7 +27749,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="390" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A390" s="8">
         <v>386</v>
       </c>
@@ -27798,7 +27799,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="391" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A391" s="8">
         <v>388</v>
       </c>
@@ -27848,7 +27849,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="392" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A392" s="8">
         <v>389</v>
       </c>
@@ -27898,7 +27899,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="393" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A393" s="8">
         <v>390</v>
       </c>
@@ -27948,7 +27949,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="394" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A394" s="8">
         <v>391</v>
       </c>
@@ -27998,7 +27999,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="395" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A395" s="8">
         <v>387</v>
       </c>
@@ -28048,7 +28049,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="396" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A396" s="8">
         <v>404</v>
       </c>
@@ -28098,7 +28099,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="397" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A397" s="8">
         <v>410</v>
       </c>
@@ -28148,7 +28149,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="398" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A398" s="8">
         <v>416</v>
       </c>
@@ -28198,7 +28199,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="399" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A399" s="8">
         <v>403</v>
       </c>
@@ -28245,7 +28246,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="400" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A400" s="8">
         <v>395</v>
       </c>
@@ -28295,7 +28296,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="401" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A401" s="8">
         <v>396</v>
       </c>
@@ -28345,7 +28346,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A402" s="8">
         <v>397</v>
       </c>
@@ -28395,7 +28396,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A403" s="8">
         <v>398</v>
       </c>
@@ -28445,7 +28446,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="404" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A404" s="8">
         <v>407</v>
       </c>
@@ -28495,7 +28496,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A405" s="8">
         <v>408</v>
       </c>
@@ -28545,7 +28546,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="406" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A406" s="8">
         <v>409</v>
       </c>
@@ -28595,7 +28596,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A407" s="8">
         <v>399</v>
       </c>
@@ -28645,7 +28646,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="408" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A408" s="8">
         <v>402</v>
       </c>
@@ -28695,7 +28696,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="409" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A409" s="8">
         <v>405</v>
       </c>
@@ -28745,7 +28746,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="410" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A410" s="8">
         <v>412</v>
       </c>
@@ -28795,7 +28796,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="411" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A411" s="8">
         <v>415</v>
       </c>
@@ -28845,7 +28846,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="412" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A412" s="8">
         <v>413</v>
       </c>
@@ -28895,7 +28896,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="413" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A413" s="8">
         <v>414</v>
       </c>
@@ -28945,7 +28946,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="414" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A414" s="8">
         <v>423</v>
       </c>
@@ -28995,7 +28996,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="415" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A415" s="8">
         <v>424</v>
       </c>
@@ -29045,7 +29046,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="416" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A416" s="8">
         <v>406</v>
       </c>
@@ -29095,7 +29096,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A417" s="8">
         <v>426</v>
       </c>
@@ -29145,7 +29146,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="418" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A418" s="8">
         <v>427</v>
       </c>
@@ -29195,7 +29196,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A419" s="8">
         <v>430</v>
       </c>
@@ -29245,7 +29246,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="420" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A420" s="8">
         <v>433</v>
       </c>
@@ -29295,7 +29296,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="421" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A421" s="8">
         <v>441</v>
       </c>
@@ -29345,7 +29346,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="422" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A422" s="8">
         <v>429</v>
       </c>
@@ -29395,7 +29396,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A423" s="8">
         <v>431</v>
       </c>
@@ -29445,7 +29446,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A424" s="8">
         <v>432</v>
       </c>
@@ -29495,7 +29496,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="425" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A425" s="8">
         <v>417</v>
       </c>
@@ -29545,7 +29546,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A426" s="8">
         <v>419</v>
       </c>
@@ -29595,7 +29596,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A427" s="8">
         <v>434</v>
       </c>
@@ -29645,7 +29646,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A428" s="8">
         <v>435</v>
       </c>
@@ -29695,7 +29696,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="429" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A429" s="8">
         <v>436</v>
       </c>
@@ -29745,7 +29746,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A430" s="8">
         <v>437</v>
       </c>
@@ -29795,7 +29796,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="431" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A431" s="8">
         <v>420</v>
       </c>
@@ -29845,7 +29846,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A432" s="8">
         <v>438</v>
       </c>
@@ -29895,7 +29896,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="433" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A433" s="8">
         <v>439</v>
       </c>
@@ -29945,7 +29946,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="434" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A434" s="8">
         <v>440</v>
       </c>
@@ -29995,7 +29996,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="435" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A435" s="8">
         <v>400</v>
       </c>
@@ -30045,7 +30046,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="436" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A436" s="8">
         <v>401</v>
       </c>
@@ -30095,7 +30096,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="437" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A437" s="8">
         <v>411</v>
       </c>
@@ -30145,7 +30146,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="438" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A438" s="8">
         <v>421</v>
       </c>
@@ -30195,7 +30196,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="439" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A439" s="8">
         <v>442</v>
       </c>
@@ -30245,7 +30246,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="440" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A440" s="8">
         <v>443</v>
       </c>
@@ -30295,7 +30296,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="441" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A441" s="8">
         <v>422</v>
       </c>
@@ -30345,7 +30346,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="442" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A442" s="8">
         <v>444</v>
       </c>
@@ -30395,7 +30396,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="443" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A443" s="8">
         <v>445</v>
       </c>
@@ -30445,7 +30446,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="444" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A444" s="8">
         <v>446</v>
       </c>
@@ -30495,7 +30496,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="445" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A445" s="8">
         <v>447</v>
       </c>
@@ -30545,7 +30546,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="446" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A446" s="8">
         <v>425</v>
       </c>
@@ -30595,7 +30596,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="447" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A447" s="8">
         <v>428</v>
       </c>
@@ -30645,7 +30646,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="448" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A448" s="8">
         <v>418</v>
       </c>
@@ -30695,7 +30696,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="449" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A449" s="8">
         <v>448</v>
       </c>
@@ -30742,7 +30743,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="450" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A450" s="8">
         <v>801</v>
       </c>
@@ -30792,7 +30793,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="451" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A451" s="8">
         <v>802</v>
       </c>
@@ -30842,7 +30843,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="452" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A452" s="8">
         <v>385</v>
       </c>
@@ -30889,7 +30890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A453" s="8">
         <v>454</v>
       </c>
@@ -30939,7 +30940,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="454" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A454" s="8">
         <v>455</v>
       </c>
@@ -30989,7 +30990,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="455" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A455" s="8">
         <v>456</v>
       </c>
@@ -31039,7 +31040,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="456" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A456" s="8">
         <v>457</v>
       </c>
@@ -31089,7 +31090,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="457" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A457" s="8">
         <v>449</v>
       </c>
@@ -31136,7 +31137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A458" s="8">
         <v>450</v>
       </c>
@@ -31183,7 +31184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A459" s="8">
         <v>451</v>
       </c>
@@ -31230,7 +31231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A460" s="8">
         <v>452</v>
       </c>
@@ -31277,7 +31278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A461" s="8">
         <v>453</v>
       </c>
@@ -31324,7 +31325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A462" s="8">
         <v>458</v>
       </c>
@@ -31371,7 +31372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A463" s="8">
         <v>459</v>
       </c>
@@ -31418,7 +31419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A464" s="8">
         <v>460</v>
       </c>
@@ -31465,7 +31466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A465" s="8">
         <v>462</v>
       </c>
@@ -31512,7 +31513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A466" s="8">
         <v>463</v>
       </c>
@@ -31559,7 +31560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A467" s="8">
         <v>532</v>
       </c>
@@ -31606,7 +31607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A468" s="8">
         <v>525</v>
       </c>
@@ -31656,7 +31657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A469" s="8">
         <v>526</v>
       </c>
@@ -31706,7 +31707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A470" s="8">
         <v>520</v>
       </c>
@@ -31756,7 +31757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A471" s="8">
         <v>534</v>
       </c>
@@ -31806,7 +31807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A472" s="8">
         <v>487</v>
       </c>
@@ -31856,7 +31857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A473" s="8">
         <v>545</v>
       </c>
@@ -31906,7 +31907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A474" s="8">
         <v>480</v>
       </c>
@@ -31956,7 +31957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A475" s="8">
         <v>649</v>
       </c>
@@ -32006,7 +32007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A476" s="8">
         <v>622</v>
       </c>
@@ -32056,7 +32057,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A477" s="8">
         <v>477</v>
       </c>
@@ -32106,7 +32107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A478" s="8">
         <v>496</v>
       </c>
@@ -32156,7 +32157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A479" s="8">
         <v>498</v>
       </c>
@@ -32206,7 +32207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A480" s="8">
         <v>509</v>
       </c>
@@ -32256,7 +32257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="481" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A481" s="8">
         <v>617</v>
       </c>
@@ -32306,7 +32307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="482" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A482" s="8">
         <v>633</v>
       </c>
@@ -32356,7 +32357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="483" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A483" s="8">
         <v>681</v>
       </c>
@@ -32406,7 +32407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="484" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A484" s="8">
         <v>703</v>
       </c>
@@ -32453,7 +32454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A485" s="8">
         <v>503</v>
       </c>
@@ -32500,7 +32501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A486" s="8">
         <v>650</v>
       </c>
@@ -32550,7 +32551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="487" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A487" s="8">
         <v>613</v>
       </c>
@@ -32597,7 +32598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A488" s="8">
         <v>688</v>
       </c>
@@ -32644,7 +32645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A489" s="8">
         <v>491</v>
       </c>
@@ -32694,7 +32695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="490" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A490" s="8">
         <v>581</v>
       </c>
@@ -32744,7 +32745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="491" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A491" s="8">
         <v>664</v>
       </c>
@@ -32791,7 +32792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A492" s="8">
         <v>493</v>
       </c>
@@ -32841,7 +32842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="493" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A493" s="8">
         <v>494</v>
       </c>
@@ -32891,7 +32892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="494" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A494" s="8">
         <v>495</v>
       </c>
@@ -32941,7 +32942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="495" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A495" s="8">
         <v>501</v>
       </c>
@@ -32991,7 +32992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A496" s="8">
         <v>506</v>
       </c>
@@ -33041,7 +33042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="497" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A497" s="8">
         <v>641</v>
       </c>
@@ -33091,7 +33092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="498" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A498" s="8">
         <v>502</v>
       </c>
@@ -33138,7 +33139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A499" s="8">
         <v>481</v>
       </c>
@@ -33185,7 +33186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A500" s="8">
         <v>499</v>
       </c>
@@ -33235,7 +33236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="501" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A501" s="8">
         <v>500</v>
       </c>
@@ -33285,7 +33286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="502" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A502" s="8">
         <v>540</v>
       </c>
@@ -33332,7 +33333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A503" s="8">
         <v>507</v>
       </c>
@@ -33382,7 +33383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="504" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A504" s="8">
         <v>687</v>
       </c>
@@ -33432,7 +33433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="505" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A505" s="8">
         <v>562</v>
       </c>
@@ -33482,7 +33483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="506" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A506" s="8">
         <v>488</v>
       </c>
@@ -33529,7 +33530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A507" s="8">
         <v>511</v>
       </c>
@@ -33579,7 +33580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="508" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A508" s="8">
         <v>519</v>
       </c>
@@ -33629,7 +33630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="509" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A509" s="8">
         <v>508</v>
       </c>
@@ -33676,7 +33677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A510" s="8">
         <v>518</v>
       </c>
@@ -33726,7 +33727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="511" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A511" s="8">
         <v>528</v>
       </c>
@@ -33776,7 +33777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="512" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A512" s="8">
         <v>529</v>
       </c>
@@ -33826,7 +33827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="513" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A513" s="8">
         <v>512</v>
       </c>
@@ -33876,7 +33877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="514" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A514" s="8">
         <v>522</v>
       </c>
@@ -33923,7 +33924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A515" s="8">
         <v>538</v>
       </c>
@@ -33970,7 +33971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A516" s="8">
         <v>642</v>
       </c>
@@ -34017,7 +34018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A517" s="8">
         <v>746</v>
       </c>
@@ -34064,7 +34065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A518" s="8">
         <v>470</v>
       </c>
@@ -34114,7 +34115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="519" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A519" s="8">
         <v>474</v>
       </c>
@@ -34161,7 +34162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A520" s="8">
         <v>504</v>
       </c>
@@ -34211,7 +34212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="521" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A521" s="8">
         <v>560</v>
       </c>
@@ -34261,7 +34262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="522" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A522" s="8">
         <v>568</v>
       </c>
@@ -34308,7 +34309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A523" s="8">
         <v>469</v>
       </c>
@@ -34355,7 +34356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A524" s="8">
         <v>478</v>
       </c>
@@ -34405,7 +34406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="525" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A525" s="8">
         <v>543</v>
       </c>
@@ -34455,7 +34456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="526" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A526" s="8">
         <v>541</v>
       </c>
@@ -34502,7 +34503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A527" s="8">
         <v>542</v>
       </c>
@@ -34552,7 +34553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="528" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A528" s="8">
         <v>561</v>
       </c>
@@ -34599,7 +34600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A529" s="8">
         <v>580</v>
       </c>
@@ -34649,7 +34650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="530" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A530" s="8">
         <v>567</v>
       </c>
@@ -34699,7 +34700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="531" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A531" s="8">
         <v>569</v>
       </c>
@@ -34749,7 +34750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="532" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A532" s="8">
         <v>570</v>
       </c>
@@ -34799,7 +34800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="533" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A533" s="8">
         <v>572</v>
       </c>
@@ -34846,7 +34847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A534" s="8">
         <v>551</v>
       </c>
@@ -34896,7 +34897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="535" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A535" s="8">
         <v>574</v>
       </c>
@@ -34946,7 +34947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="536" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A536" s="8">
         <v>575</v>
       </c>
@@ -34996,7 +34997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="537" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A537" s="8">
         <v>576</v>
       </c>
@@ -35046,7 +35047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="538" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A538" s="8">
         <v>577</v>
       </c>
@@ -35096,7 +35097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="539" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A539" s="8">
         <v>578</v>
       </c>
@@ -35146,7 +35147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="540" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A540" s="8">
         <v>579</v>
       </c>
@@ -35196,7 +35197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="541" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A541" s="8">
         <v>582</v>
       </c>
@@ -35246,7 +35247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="542" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A542" s="8">
         <v>514</v>
       </c>
@@ -35296,7 +35297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="543" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A543" s="8">
         <v>585</v>
       </c>
@@ -35346,7 +35347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="544" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A544" s="8">
         <v>678</v>
       </c>
@@ -35396,7 +35397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="545" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A545" s="8">
         <v>505</v>
       </c>
@@ -35446,7 +35447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="546" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A546" s="8">
         <v>521</v>
       </c>
@@ -35496,7 +35497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="547" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A547" s="8">
         <v>535</v>
       </c>
@@ -35546,7 +35547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="548" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A548" s="8">
         <v>558</v>
       </c>
@@ -35596,7 +35597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="549" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A549" s="8">
         <v>605</v>
       </c>
@@ -35646,7 +35647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="550" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A550" s="8">
         <v>666</v>
       </c>
@@ -35696,7 +35697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="551" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A551" s="8">
         <v>670</v>
       </c>
@@ -35746,7 +35747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="552" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A552" s="8">
         <v>671</v>
       </c>
@@ -35796,7 +35797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="553" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A553" s="8">
         <v>674</v>
       </c>
@@ -35846,7 +35847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="554" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A554" s="8">
         <v>679</v>
       </c>
@@ -35896,7 +35897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="555" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A555" s="8">
         <v>682</v>
       </c>
@@ -35946,7 +35947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="556" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A556" s="8">
         <v>591</v>
       </c>
@@ -35996,7 +35997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="557" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A557" s="8">
         <v>592</v>
       </c>
@@ -36046,7 +36047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="558" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A558" s="8">
         <v>593</v>
       </c>
@@ -36096,7 +36097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="559" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A559" s="8">
         <v>594</v>
       </c>
@@ -36146,7 +36147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="560" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A560" s="8">
         <v>595</v>
       </c>
@@ -36196,7 +36197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="561" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A561" s="8">
         <v>588</v>
       </c>
@@ -36246,7 +36247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="562" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A562" s="8">
         <v>590</v>
       </c>
@@ -36296,7 +36297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="563" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A563" s="8">
         <v>602</v>
       </c>
@@ -36346,7 +36347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="564" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A564" s="8">
         <v>539</v>
       </c>
@@ -36396,7 +36397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="565" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A565" s="8">
         <v>600</v>
       </c>
@@ -36446,7 +36447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="566" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A566" s="8">
         <v>486</v>
       </c>
@@ -36496,7 +36497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="567" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A567" s="8">
         <v>490</v>
       </c>
@@ -36546,7 +36547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="568" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A568" s="8">
         <v>510</v>
       </c>
@@ -36596,7 +36597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="569" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A569" s="8">
         <v>523</v>
       </c>
@@ -36646,7 +36647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="570" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A570" s="8">
         <v>524</v>
       </c>
@@ -36696,7 +36697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="571" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A571" s="8">
         <v>537</v>
       </c>
@@ -36746,7 +36747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="572" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A572" s="8">
         <v>489</v>
       </c>
@@ -36796,7 +36797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="573" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A573" s="8">
         <v>566</v>
       </c>
@@ -36846,7 +36847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="574" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A574" s="8">
         <v>631</v>
       </c>
@@ -36896,7 +36897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="575" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A575" s="8">
         <v>607</v>
       </c>
@@ -36946,7 +36947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="576" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A576" s="8">
         <v>608</v>
       </c>
@@ -36996,7 +36997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="577" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A577" s="8">
         <v>609</v>
       </c>
@@ -37046,7 +37047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="578" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A578" s="8">
         <v>610</v>
       </c>
@@ -37096,7 +37097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="579" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A579" s="8">
         <v>611</v>
       </c>
@@ -37146,7 +37147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="580" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A580" s="8">
         <v>612</v>
       </c>
@@ -37196,7 +37197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="581" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A581" s="8">
         <v>630</v>
       </c>
@@ -37246,7 +37247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="582" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A582" s="8">
         <v>586</v>
       </c>
@@ -37296,7 +37297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="583" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A583" s="8">
         <v>615</v>
       </c>
@@ -37346,7 +37347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="584" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A584" s="8">
         <v>533</v>
       </c>
@@ -37396,7 +37397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="585" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A585" s="8">
         <v>616</v>
       </c>
@@ -37446,7 +37447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="586" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A586" s="8">
         <v>550</v>
       </c>
@@ -37496,7 +37497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="587" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A587" s="8">
         <v>573</v>
       </c>
@@ -37546,7 +37547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="588" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A588" s="8">
         <v>623</v>
       </c>
@@ -37596,7 +37597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="589" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A589" s="8">
         <v>536</v>
       </c>
@@ -37646,7 +37647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="590" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A590" s="8">
         <v>626</v>
       </c>
@@ -37696,7 +37697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="591" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A591" s="8">
         <v>627</v>
       </c>
@@ -37746,7 +37747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="592" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A592" s="8">
         <v>656</v>
       </c>
@@ -37796,7 +37797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="593" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A593" s="8">
         <v>471</v>
       </c>
@@ -37846,7 +37847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="594" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A594" s="8">
         <v>472</v>
       </c>
@@ -37896,7 +37897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="595" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A595" s="8">
         <v>473</v>
       </c>
@@ -37946,7 +37947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="596" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A596" s="8">
         <v>475</v>
       </c>
@@ -37996,7 +37997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="597" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A597" s="8">
         <v>476</v>
       </c>
@@ -38046,7 +38047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="598" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A598" s="8">
         <v>549</v>
       </c>
@@ -38096,7 +38097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="599" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A599" s="8">
         <v>629</v>
       </c>
@@ -38146,7 +38147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="600" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A600" s="8">
         <v>467</v>
       </c>
@@ -38196,7 +38197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="601" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A601" s="8">
         <v>468</v>
       </c>
@@ -38246,7 +38247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="602" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A602" s="8">
         <v>513</v>
       </c>
@@ -38296,7 +38297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="603" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A603" s="8">
         <v>552</v>
       </c>
@@ -38346,7 +38347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="604" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A604" s="8">
         <v>553</v>
       </c>
@@ -38396,7 +38397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="605" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A605" s="8">
         <v>554</v>
       </c>
@@ -38446,7 +38447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="606" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A606" s="8">
         <v>555</v>
       </c>
@@ -38496,7 +38497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="607" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A607" s="8">
         <v>556</v>
       </c>
@@ -38546,7 +38547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="608" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A608" s="8">
         <v>557</v>
       </c>
@@ -38596,7 +38597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="609" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A609" s="8">
         <v>559</v>
       </c>
@@ -38646,7 +38647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="610" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A610" s="8">
         <v>752</v>
       </c>
@@ -38693,7 +38694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A611" s="8">
         <v>583</v>
       </c>
@@ -38740,7 +38741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A612" s="8">
         <v>658</v>
       </c>
@@ -38787,7 +38788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A613" s="8">
         <v>659</v>
       </c>
@@ -38834,7 +38835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A614" s="8">
         <v>660</v>
       </c>
@@ -38881,7 +38882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A615" s="8">
         <v>661</v>
       </c>
@@ -38928,7 +38929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A616" s="8">
         <v>662</v>
       </c>
@@ -38975,7 +38976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A617" s="8">
         <v>530</v>
       </c>
@@ -39025,7 +39026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="618" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A618" s="8">
         <v>697</v>
       </c>
@@ -39075,7 +39076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="619" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A619" s="8">
         <v>632</v>
       </c>
@@ -39125,7 +39126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="620" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A620" s="8">
         <v>635</v>
       </c>
@@ -39175,7 +39176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="621" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A621" s="8">
         <v>497</v>
       </c>
@@ -39222,7 +39223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A622" s="8">
         <v>639</v>
       </c>
@@ -39272,7 +39273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="623" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A623" s="8">
         <v>603</v>
       </c>
@@ -39322,7 +39323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="624" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A624" s="8">
         <v>643</v>
       </c>
@@ -39372,7 +39373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="625" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A625" s="8">
         <v>646</v>
       </c>
@@ -39422,7 +39423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="626" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A626" s="8">
         <v>647</v>
       </c>
@@ -39472,7 +39473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="627" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A627" s="8">
         <v>648</v>
       </c>
@@ -39519,7 +39520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A628" s="8">
         <v>464</v>
       </c>
@@ -39569,7 +39570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="629" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A629" s="8">
         <v>465</v>
       </c>
@@ -39616,7 +39617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A630" s="8">
         <v>466</v>
       </c>
@@ -39663,7 +39664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A631" s="8">
         <v>606</v>
       </c>
@@ -39710,7 +39711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A632" s="8">
         <v>619</v>
       </c>
@@ -39757,7 +39758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A633" s="8">
         <v>620</v>
       </c>
@@ -39804,7 +39805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A634" s="8">
         <v>621</v>
       </c>
@@ -39851,7 +39852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A635" s="8">
         <v>634</v>
       </c>
@@ -39901,7 +39902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="636" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A636" s="8">
         <v>636</v>
       </c>
@@ -39951,7 +39952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="637" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A637" s="8">
         <v>637</v>
       </c>
@@ -39998,7 +39999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A638" s="8">
         <v>638</v>
       </c>
@@ -40045,7 +40046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A639" s="8">
         <v>640</v>
       </c>
@@ -40092,7 +40093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A640" s="8">
         <v>644</v>
       </c>
@@ -40139,7 +40140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A641" s="8">
         <v>645</v>
       </c>
@@ -40186,7 +40187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A642" s="8">
         <v>654</v>
       </c>
@@ -40233,7 +40234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A643" s="8">
         <v>655</v>
       </c>
@@ -40283,7 +40284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="644" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A644" s="8">
         <v>704</v>
       </c>
@@ -40330,7 +40331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A645" s="8">
         <v>706</v>
       </c>
@@ -40377,7 +40378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A646" s="8">
         <v>707</v>
       </c>
@@ -40424,7 +40425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A647" s="8">
         <v>708</v>
       </c>
@@ -40471,7 +40472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A648" s="8">
         <v>709</v>
       </c>
@@ -40518,7 +40519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A649" s="8">
         <v>710</v>
       </c>
@@ -40565,7 +40566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A650" s="8">
         <v>711</v>
       </c>
@@ -40612,7 +40613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A651" s="8">
         <v>712</v>
       </c>
@@ -40659,7 +40660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A652" s="8">
         <v>713</v>
       </c>
@@ -40706,7 +40707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A653" s="8">
         <v>714</v>
       </c>
@@ -40753,7 +40754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A654" s="8">
         <v>715</v>
       </c>
@@ -40803,7 +40804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="655" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A655" s="8">
         <v>716</v>
       </c>
@@ -40853,7 +40854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="656" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A656" s="8">
         <v>717</v>
       </c>
@@ -40900,7 +40901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A657" s="8">
         <v>718</v>
       </c>
@@ -40947,7 +40948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A658" s="8">
         <v>719</v>
       </c>
@@ -40994,7 +40995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A659" s="8">
         <v>720</v>
       </c>
@@ -41041,7 +41042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A660" s="8">
         <v>721</v>
       </c>
@@ -41088,7 +41089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A661" s="8">
         <v>722</v>
       </c>
@@ -41135,7 +41136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A662" s="8">
         <v>723</v>
       </c>
@@ -41182,7 +41183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A663" s="8">
         <v>724</v>
       </c>
@@ -41229,7 +41230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A664" s="8">
         <v>725</v>
       </c>
@@ -41276,7 +41277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A665" s="8">
         <v>726</v>
       </c>
@@ -41323,7 +41324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A666" s="8">
         <v>727</v>
       </c>
@@ -41370,7 +41371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A667" s="8">
         <v>728</v>
       </c>
@@ -41417,7 +41418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A668" s="8">
         <v>729</v>
       </c>
@@ -41464,7 +41465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A669" s="8">
         <v>730</v>
       </c>
@@ -41511,7 +41512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A670" s="8">
         <v>731</v>
       </c>
@@ -41558,7 +41559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A671" s="8">
         <v>732</v>
       </c>
@@ -41605,7 +41606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A672" s="8">
         <v>733</v>
       </c>
@@ -41652,7 +41653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A673" s="8">
         <v>734</v>
       </c>
@@ -41699,7 +41700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A674" s="8">
         <v>735</v>
       </c>
@@ -41746,7 +41747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A675" s="8">
         <v>736</v>
       </c>
@@ -41793,7 +41794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A676" s="8">
         <v>737</v>
       </c>
@@ -41840,7 +41841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A677" s="8">
         <v>738</v>
       </c>
@@ -41887,7 +41888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A678" s="8">
         <v>739</v>
       </c>
@@ -41934,7 +41935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A679" s="8">
         <v>740</v>
       </c>
@@ -41984,7 +41985,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="680" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A680" s="8">
         <v>741</v>
       </c>
@@ -42031,7 +42032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A681" s="8">
         <v>742</v>
       </c>
@@ -42078,7 +42079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A682" s="8">
         <v>743</v>
       </c>
@@ -42125,7 +42126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A683" s="8">
         <v>744</v>
       </c>
@@ -42172,7 +42173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A684" s="8">
         <v>745</v>
       </c>
@@ -42219,7 +42220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A685" s="8">
         <v>747</v>
       </c>
@@ -42269,7 +42270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="686" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A686" s="8">
         <v>748</v>
       </c>
@@ -42319,7 +42320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="687" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A687" s="8">
         <v>749</v>
       </c>
@@ -42366,7 +42367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A688" s="8">
         <v>750</v>
       </c>
@@ -42413,7 +42414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A689" s="8">
         <v>751</v>
       </c>
@@ -42460,7 +42461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A690" s="8">
         <v>587</v>
       </c>
@@ -42510,7 +42511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="691" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A691" s="8">
         <v>614</v>
       </c>
@@ -42557,7 +42558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A692" s="8">
         <v>663</v>
       </c>
@@ -42607,7 +42608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="693" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A693" s="8">
         <v>668</v>
       </c>
@@ -42657,7 +42658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="694" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A694" s="8">
         <v>492</v>
       </c>
@@ -42707,7 +42708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="695" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A695" s="8">
         <v>516</v>
       </c>
@@ -42754,7 +42755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A696" s="8">
         <v>589</v>
       </c>
@@ -42801,7 +42802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A697" s="8">
         <v>665</v>
       </c>
@@ -42851,7 +42852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="698" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A698" s="8">
         <v>667</v>
       </c>
@@ -42901,7 +42902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="699" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A699" s="8">
         <v>669</v>
       </c>
@@ -42951,7 +42952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="700" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A700" s="8">
         <v>672</v>
       </c>
@@ -43001,7 +43002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="701" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A701" s="8">
         <v>673</v>
       </c>
@@ -43051,7 +43052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="702" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A702" s="8">
         <v>693</v>
       </c>
@@ -43098,7 +43099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A703" s="8">
         <v>675</v>
       </c>
@@ -43148,7 +43149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="704" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A704" s="8">
         <v>676</v>
       </c>
@@ -43198,7 +43199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="705" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A705" s="8">
         <v>677</v>
       </c>
@@ -43248,7 +43249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="706" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A706" s="8">
         <v>683</v>
       </c>
@@ -43298,7 +43299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="707" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A707" s="8">
         <v>685</v>
       </c>
@@ -43348,7 +43349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="708" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A708" s="8">
         <v>689</v>
       </c>
@@ -43395,7 +43396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A709" s="8">
         <v>690</v>
       </c>
@@ -43445,7 +43446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="710" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A710" s="8">
         <v>691</v>
       </c>
@@ -43492,7 +43493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="711" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A711" s="8">
         <v>692</v>
       </c>
@@ -43542,7 +43543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="712" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A712" s="8">
         <v>686</v>
       </c>
@@ -43592,7 +43593,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="713" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A713" s="8">
         <v>694</v>
       </c>
@@ -43639,7 +43640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A714" s="8">
         <v>601</v>
       </c>
@@ -43689,7 +43690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="715" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A715" s="8">
         <v>657</v>
       </c>
@@ -43736,7 +43737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A716" s="8">
         <v>695</v>
       </c>
@@ -43786,7 +43787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="717" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A717" s="8">
         <v>696</v>
       </c>
@@ -43836,7 +43837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="718" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A718" s="8">
         <v>698</v>
       </c>
@@ -43886,7 +43887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="719" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A719" s="8">
         <v>699</v>
       </c>
@@ -43936,7 +43937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="720" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A720" s="8">
         <v>584</v>
       </c>
@@ -43983,7 +43984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A721" s="8">
         <v>531</v>
       </c>
@@ -44033,7 +44034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="722" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A722" s="8">
         <v>563</v>
       </c>
@@ -44083,7 +44084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="723" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A723" s="8">
         <v>564</v>
       </c>
@@ -44133,7 +44134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="724" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A724" s="8">
         <v>651</v>
       </c>
@@ -44183,7 +44184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="725" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A725" s="8">
         <v>653</v>
       </c>
@@ -44230,7 +44231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A726" s="8">
         <v>479</v>
       </c>
@@ -44280,7 +44281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="727" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A727" s="8">
         <v>517</v>
       </c>
@@ -44330,7 +44331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="728" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A728" s="8">
         <v>547</v>
       </c>
@@ -44380,7 +44381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="729" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A729" s="8">
         <v>565</v>
       </c>
@@ -44430,7 +44431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="730" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A730" s="8">
         <v>705</v>
       </c>
@@ -44480,7 +44481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="731" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A731" s="8">
         <v>546</v>
       </c>
@@ -44530,7 +44531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="732" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A732" s="8">
         <v>544</v>
       </c>
@@ -44577,7 +44578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A733" s="8">
         <v>571</v>
       </c>
@@ -44627,7 +44628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="734" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A734" s="8">
         <v>597</v>
       </c>
@@ -44674,7 +44675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A735" s="8">
         <v>599</v>
       </c>
@@ -44721,7 +44722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A736" s="8">
         <v>700</v>
       </c>
@@ -44771,7 +44772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="737" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A737" s="8">
         <v>596</v>
       </c>
@@ -44821,7 +44822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="738" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A738" s="8">
         <v>598</v>
       </c>
@@ -44871,7 +44872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="739" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A739" s="8">
         <v>624</v>
       </c>
@@ -44921,7 +44922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="740" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A740" s="8">
         <v>625</v>
       </c>
@@ -44971,7 +44972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="741" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A741" s="8">
         <v>628</v>
       </c>
@@ -45021,7 +45022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="742" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A742" s="8">
         <v>652</v>
       </c>
@@ -45071,7 +45072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="743" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A743" s="8">
         <v>702</v>
       </c>
@@ -45121,7 +45122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="744" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A744" s="8">
         <v>604</v>
       </c>
@@ -45171,7 +45172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="745" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A745" s="8">
         <v>618</v>
       </c>
@@ -45218,7 +45219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A746" s="8">
         <v>701</v>
       </c>
@@ -45265,7 +45266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A747" s="8">
         <v>484</v>
       </c>
@@ -45312,7 +45313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A748" s="8">
         <v>548</v>
       </c>
@@ -45362,7 +45363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="749" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A749" s="8">
         <v>515</v>
       </c>
@@ -45412,7 +45413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="750" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A750" s="8">
         <v>527</v>
       </c>
@@ -45462,7 +45463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="751" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A751" s="8">
         <v>482</v>
       </c>
@@ -45512,7 +45513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="752" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A752" s="8">
         <v>485</v>
       </c>
@@ -45562,7 +45563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="753" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A753" s="8">
         <v>680</v>
       </c>
@@ -45612,7 +45613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="754" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A754" s="8">
         <v>483</v>
       </c>
@@ -45659,7 +45660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A755" s="8">
         <v>684</v>
       </c>
@@ -45709,7 +45710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="756" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A756" s="8">
         <v>753</v>
       </c>
@@ -45756,7 +45757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A757" s="8">
         <v>754</v>
       </c>
@@ -45803,7 +45804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A758" s="8">
         <v>755</v>
       </c>
@@ -45850,7 +45851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A759" s="8">
         <v>758</v>
       </c>
@@ -45897,7 +45898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A760" s="8">
         <v>800</v>
       </c>
@@ -45944,7 +45945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A761" s="8">
         <v>791</v>
       </c>
@@ -45991,7 +45992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A762" s="8">
         <v>769</v>
       </c>
@@ -46038,7 +46039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A763" s="8">
         <v>770</v>
       </c>
@@ -46085,7 +46086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A764" s="8">
         <v>756</v>
       </c>
@@ -46132,7 +46133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A765" s="8">
         <v>757</v>
       </c>
@@ -46179,7 +46180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A766" s="8">
         <v>759</v>
       </c>
@@ -46226,7 +46227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A767" s="8">
         <v>761</v>
       </c>
@@ -46273,7 +46274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A768" s="8">
         <v>763</v>
       </c>
@@ -46320,7 +46321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A769" s="8">
         <v>764</v>
       </c>
@@ -46367,7 +46368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A770" s="8">
         <v>767</v>
       </c>
@@ -46414,7 +46415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A771" s="8">
         <v>771</v>
       </c>
@@ -46461,7 +46462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A772" s="8">
         <v>772</v>
       </c>
@@ -46508,7 +46509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A773" s="8">
         <v>774</v>
       </c>
@@ -46555,7 +46556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A774" s="8">
         <v>775</v>
       </c>
@@ -46602,7 +46603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A775" s="8">
         <v>777</v>
       </c>
@@ -46649,7 +46650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A776" s="8">
         <v>778</v>
       </c>
@@ -46696,7 +46697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A777" s="8">
         <v>760</v>
       </c>
@@ -46743,7 +46744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A778" s="8">
         <v>776</v>
       </c>
@@ -46790,7 +46791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A779" s="8">
         <v>779</v>
       </c>
@@ -46837,7 +46838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A780" s="8">
         <v>765</v>
       </c>
@@ -46884,7 +46885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A781" s="8">
         <v>783</v>
       </c>
@@ -46931,7 +46932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A782" s="8">
         <v>798</v>
       </c>
@@ -46978,7 +46979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A783" s="8">
         <v>785</v>
       </c>
@@ -47025,7 +47026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A784" s="8">
         <v>786</v>
       </c>
@@ -47072,7 +47073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A785" s="8">
         <v>790</v>
       </c>
@@ -47119,7 +47120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A786" s="8">
         <v>792</v>
       </c>
@@ -47166,7 +47167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A787" s="8">
         <v>796</v>
       </c>
@@ -47213,7 +47214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A788" s="8">
         <v>797</v>
       </c>
@@ -47260,7 +47261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A789" s="8">
         <v>799</v>
       </c>
@@ -47307,7 +47308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A790" s="8">
         <v>782</v>
       </c>
@@ -47354,7 +47355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A791" s="8">
         <v>795</v>
       </c>
@@ -47401,7 +47402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A792" s="8">
         <v>789</v>
       </c>
@@ -47448,7 +47449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A793" s="8">
         <v>787</v>
       </c>
@@ -47495,7 +47496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A794" s="8">
         <v>762</v>
       </c>
@@ -47545,7 +47546,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="795" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A795" s="8">
         <v>784</v>
       </c>
@@ -47592,7 +47593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A796" s="8">
         <v>794</v>
       </c>
@@ -47639,7 +47640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A797" s="8">
         <v>780</v>
       </c>
@@ -47686,7 +47687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A798" s="8">
         <v>781</v>
       </c>
@@ -47733,7 +47734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A799" s="8">
         <v>766</v>
       </c>
@@ -47780,7 +47781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A800" s="8">
         <v>768</v>
       </c>
@@ -47827,7 +47828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A801" s="8">
         <v>773</v>
       </c>
@@ -47874,7 +47875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A802" s="8">
         <v>793</v>
       </c>
@@ -47921,7 +47922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A803" s="8">
         <v>788</v>
       </c>
@@ -47968,7 +47969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A804" s="8">
         <v>821</v>
       </c>
@@ -48012,7 +48013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A805" s="8">
         <v>807</v>
       </c>
@@ -48056,7 +48057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A806" s="8">
         <v>808</v>
       </c>
@@ -48100,7 +48101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A807" s="8">
         <v>809</v>
       </c>
@@ -48144,7 +48145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A808" s="8">
         <v>804</v>
       </c>
@@ -48188,7 +48189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A809" s="8">
         <v>805</v>
       </c>
@@ -48232,7 +48233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A810" s="8">
         <v>806</v>
       </c>
@@ -48276,7 +48277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A811" s="8">
         <v>814</v>
       </c>
@@ -48320,7 +48321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A812" s="8">
         <v>815</v>
       </c>
@@ -48364,7 +48365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A813" s="8">
         <v>816</v>
       </c>
@@ -48408,7 +48409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A814" s="8">
         <v>817</v>
       </c>
@@ -48452,7 +48453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A815" s="8">
         <v>810</v>
       </c>
@@ -48496,7 +48497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A816" s="8">
         <v>811</v>
       </c>
@@ -48540,7 +48541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A817" s="8">
         <v>812</v>
       </c>
@@ -48584,7 +48585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A818" s="8">
         <v>813</v>
       </c>
@@ -48628,7 +48629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A819" s="8">
         <v>818</v>
       </c>
@@ -48672,7 +48673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A820" s="8">
         <v>819</v>
       </c>
@@ -48716,7 +48717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A821" s="8">
         <v>803</v>
       </c>
@@ -48760,7 +48761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A822" s="8">
         <v>820</v>
       </c>
@@ -48804,7 +48805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A823" s="8">
         <v>833</v>
       </c>
@@ -48848,7 +48849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A824" s="8">
         <v>834</v>
       </c>
@@ -48892,7 +48893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A825" s="8">
         <v>899</v>
       </c>
@@ -48936,7 +48937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A826" s="8">
         <v>900</v>
       </c>
@@ -48980,7 +48981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A827" s="8">
         <v>835</v>
       </c>
@@ -49024,7 +49025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A828" s="8">
         <v>836</v>
       </c>
@@ -49068,7 +49069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A829" s="8">
         <v>837</v>
       </c>
@@ -49112,7 +49113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A830" s="8">
         <v>822</v>
       </c>
@@ -49156,7 +49157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A831" s="8">
         <v>823</v>
       </c>
@@ -49200,7 +49201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A832" s="8">
         <v>825</v>
       </c>
@@ -49244,7 +49245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A833" s="8">
         <v>829</v>
       </c>
@@ -49288,7 +49289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A834" s="8">
         <v>830</v>
       </c>
@@ -49332,7 +49333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A835" s="8">
         <v>831</v>
       </c>
@@ -49376,7 +49377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A836" s="8">
         <v>832</v>
       </c>
@@ -49420,7 +49421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A837" s="8">
         <v>824</v>
       </c>
@@ -49464,7 +49465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A838" s="8">
         <v>826</v>
       </c>
@@ -49508,7 +49509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A839" s="8">
         <v>827</v>
       </c>
@@ -49552,7 +49553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A840" s="8">
         <v>828</v>
       </c>
@@ -49596,7 +49597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A841" s="8">
         <v>883</v>
       </c>
@@ -49640,7 +49641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A842" s="8">
         <v>847</v>
       </c>
@@ -49684,7 +49685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A843" s="8">
         <v>886</v>
       </c>
@@ -49728,7 +49729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A844" s="8">
         <v>844</v>
       </c>
@@ -49772,7 +49773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A845" s="8">
         <v>845</v>
       </c>
@@ -49816,7 +49817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A846" s="8">
         <v>854</v>
       </c>
@@ -49860,7 +49861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A847" s="8">
         <v>860</v>
       </c>
@@ -49904,7 +49905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A848" s="8">
         <v>861</v>
       </c>
@@ -49948,7 +49949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A849" s="8">
         <v>865</v>
       </c>
@@ -49992,7 +49993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A850" s="8">
         <v>866</v>
       </c>
@@ -50036,7 +50037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A851" s="8">
         <v>867</v>
       </c>
@@ -50080,7 +50081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A852" s="8">
         <v>868</v>
       </c>
@@ -50124,7 +50125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A853" s="8">
         <v>873</v>
       </c>
@@ -50168,7 +50169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A854" s="8">
         <v>888</v>
       </c>
@@ -50212,7 +50213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A855" s="8">
         <v>842</v>
       </c>
@@ -50256,7 +50257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A856" s="8">
         <v>872</v>
       </c>
@@ -50300,7 +50301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A857" s="8">
         <v>877</v>
       </c>
@@ -50344,7 +50345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A858" s="8">
         <v>891</v>
       </c>
@@ -50388,7 +50389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A859" s="8">
         <v>890</v>
       </c>
@@ -50432,7 +50433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A860" s="8">
         <v>848</v>
       </c>
@@ -50476,7 +50477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A861" s="8">
         <v>846</v>
       </c>
@@ -50520,7 +50521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A862" s="8">
         <v>838</v>
       </c>
@@ -50564,7 +50565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A863" s="8">
         <v>839</v>
       </c>
@@ -50608,7 +50609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A864" s="8">
         <v>843</v>
       </c>
@@ -50652,7 +50653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A865" s="8">
         <v>850</v>
       </c>
@@ -50696,7 +50697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A866" s="8">
         <v>851</v>
       </c>
@@ -50740,7 +50741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A867" s="8">
         <v>855</v>
       </c>
@@ -50784,7 +50785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A868" s="8">
         <v>856</v>
       </c>
@@ -50828,7 +50829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A869" s="8">
         <v>859</v>
       </c>
@@ -50872,7 +50873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A870" s="8">
         <v>863</v>
       </c>
@@ -50916,7 +50917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A871" s="8">
         <v>870</v>
       </c>
@@ -50960,7 +50961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A872" s="8">
         <v>879</v>
       </c>
@@ -51004,7 +51005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A873" s="8">
         <v>880</v>
       </c>
@@ -51048,7 +51049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A874" s="8">
         <v>881</v>
       </c>
@@ -51092,7 +51093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A875" s="8">
         <v>882</v>
       </c>
@@ -51136,7 +51137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A876" s="8">
         <v>887</v>
       </c>
@@ -51180,7 +51181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A877" s="8">
         <v>892</v>
       </c>
@@ -51224,7 +51225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A878" s="8">
         <v>857</v>
       </c>
@@ -51268,7 +51269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A879" s="8">
         <v>858</v>
       </c>
@@ -51312,7 +51313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A880" s="8">
         <v>862</v>
       </c>
@@ -51356,7 +51357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A881" s="8">
         <v>852</v>
       </c>
@@ -51400,7 +51401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A882" s="8">
         <v>841</v>
       </c>
@@ -51444,7 +51445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A883" s="8">
         <v>869</v>
       </c>
@@ -51488,7 +51489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A884" s="8">
         <v>871</v>
       </c>
@@ -51532,7 +51533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A885" s="8">
         <v>885</v>
       </c>
@@ -51576,7 +51577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A886" s="8">
         <v>876</v>
       </c>
@@ -51620,7 +51621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A887" s="8">
         <v>840</v>
       </c>
@@ -51664,7 +51665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A888" s="8">
         <v>853</v>
       </c>
@@ -51708,7 +51709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A889" s="8">
         <v>864</v>
       </c>
@@ -51752,7 +51753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A890" s="8">
         <v>874</v>
       </c>
@@ -51796,7 +51797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A891" s="8">
         <v>875</v>
       </c>
@@ -51840,7 +51841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A892" s="8">
         <v>849</v>
       </c>
@@ -51884,7 +51885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A893" s="8">
         <v>884</v>
       </c>
@@ -51928,7 +51929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A894" s="8">
         <v>878</v>
       </c>
@@ -51972,7 +51973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A895" s="8">
         <v>893</v>
       </c>
@@ -52016,7 +52017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A896" s="8">
         <v>894</v>
       </c>
@@ -52060,7 +52061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A897" s="8">
         <v>895</v>
       </c>
@@ -52104,7 +52105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A898" s="8">
         <v>896</v>
       </c>
@@ -52148,7 +52149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A899" s="8">
         <v>897</v>
       </c>
@@ -52192,7 +52193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A900" s="8">
         <v>889</v>
       </c>
@@ -52236,7 +52237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A901" s="8">
         <v>898</v>
       </c>
@@ -52280,7 +52281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A902" s="8">
         <v>916</v>
       </c>
@@ -52327,7 +52328,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="903" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A903" s="8">
         <v>925</v>
       </c>
@@ -52374,7 +52375,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="904" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A904" s="8">
         <v>917</v>
       </c>
@@ -52382,7 +52383,7 @@
         <v>2054</v>
       </c>
       <c r="C904" s="10" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D904" t="s">
         <v>2027</v>
@@ -52427,7 +52428,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="905" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A905" s="8">
         <v>926</v>
       </c>
@@ -52474,7 +52475,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="906" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A906" s="8">
         <v>921</v>
       </c>
@@ -52521,7 +52522,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="907" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A907" s="8">
         <v>918</v>
       </c>
@@ -52568,7 +52569,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="908" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A908" s="8">
         <v>923</v>
       </c>
@@ -52615,7 +52616,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="909" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A909" s="8">
         <v>924</v>
       </c>
@@ -52662,7 +52663,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="910" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A910" s="8">
         <v>914</v>
       </c>
@@ -52709,7 +52710,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="911" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A911" s="8">
         <v>927</v>
       </c>
@@ -52756,7 +52757,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="912" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A912" s="8">
         <v>920</v>
       </c>
@@ -52764,7 +52765,7 @@
         <v>2055</v>
       </c>
       <c r="C912" s="10" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="D912" t="s">
         <v>2032</v>
@@ -52809,7 +52810,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="913" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A913" s="8">
         <v>929</v>
       </c>
@@ -52856,7 +52857,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="914" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A914" s="8">
         <v>922</v>
       </c>
@@ -52903,7 +52904,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="915" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A915" s="8">
         <v>912</v>
       </c>
@@ -52950,7 +52951,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="916" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A916" s="8">
         <v>911</v>
       </c>
@@ -52997,7 +52998,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="917" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A917" s="8">
         <v>901</v>
       </c>
@@ -53044,7 +53045,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="918" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A918" s="8">
         <v>902</v>
       </c>
@@ -53091,7 +53092,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="919" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A919" s="8">
         <v>903</v>
       </c>
@@ -53138,7 +53139,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="920" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A920" s="8">
         <v>904</v>
       </c>
@@ -53185,7 +53186,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="921" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A921" s="8">
         <v>905</v>
       </c>
@@ -53232,7 +53233,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="922" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A922" s="8">
         <v>906</v>
       </c>
@@ -53279,7 +53280,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="923" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A923" s="8">
         <v>907</v>
       </c>
@@ -53326,7 +53327,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="924" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A924" s="8">
         <v>908</v>
       </c>
@@ -53373,7 +53374,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="925" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A925" s="8">
         <v>909</v>
       </c>
@@ -53423,7 +53424,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="926" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A926" s="8">
         <v>910</v>
       </c>
@@ -53470,7 +53471,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="927" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A927" s="8">
         <v>913</v>
       </c>
@@ -53517,7 +53518,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="928" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A928" s="8">
         <v>915</v>
       </c>
@@ -53564,7 +53565,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="929" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A929" s="8">
         <v>919</v>
       </c>
@@ -53611,7 +53612,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="930" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A930" s="8">
         <v>928</v>
       </c>
@@ -53658,7 +53659,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="931" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A931" s="8">
         <v>928</v>
       </c>
@@ -53671,7 +53672,7 @@
     <sortCondition ref="J2:J930"/>
     <sortCondition ref="D2:D930"/>
   </sortState>
-  <conditionalFormatting sqref="B73:B1048576 B1:B69">
+  <conditionalFormatting sqref="B1:B69 B73:B1048576">
     <cfRule type="containsText" dxfId="15" priority="2" stopIfTrue="1" operator="containsText" text="Issue">
       <formula>NOT(ISERROR(SEARCH("Issue",B1)))</formula>
     </cfRule>
@@ -53679,7 +53680,7 @@
       <formula>NOT(ISERROR(SEARCH("Done",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73:B930 B2:B69">
+  <conditionalFormatting sqref="B2:B69 B73:B930">
     <cfRule type="containsText" dxfId="13" priority="12" stopIfTrue="1" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",B2)))</formula>
     </cfRule>
@@ -53691,56 +53692,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsBlanks" dxfId="10" priority="5">
+    <cfRule type="containsBlanks" dxfId="3" priority="5">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C999">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="20">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="NO CHANGE">
+    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="NOTE:">
+      <formula>NOT(ISERROR(SEARCH("NOTE:",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="NO CHANGE">
       <formula>NOT(ISERROR(SEARCH("NO CHANGE",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" stopIfTrue="1" operator="containsText" text="NOTE:">
-      <formula>NOT(ISERROR(SEARCH("NOTE:",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="7" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:J1048576">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
+    <cfRule type="containsBlanks" dxfId="9" priority="7">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G999">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$G2&lt;&gt;$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H999">
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>$H2&lt;&gt;$J2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:Q1048576">
-    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="2" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="19" operator="between">
       <formula>1</formula>
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53762,29 +53763,29 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>2053</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>2054</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>2055</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
   </sheetData>

--- a/aFullReport.xlsx
+++ b/aFullReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_tpp\code-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1587929-CCF9-47BF-87BB-688F593913E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B283ED1-DC5C-4A3C-936E-D0CBA14FB397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1068" windowWidth="21600" windowHeight="12732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="1335" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4594" uniqueCount="2074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4595" uniqueCount="2077">
   <si>
     <t>DocumentName</t>
   </si>
@@ -6250,6 +6250,29 @@
     <t>See ln 45.
 Contains additional test in V1.
 Related to bug 19101, but this test is removed in commit f10c683b607 as 'not relevant'.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In order to get Nsubstitute to work, a new data item stub had to be added which uses dual inheritance stubbing like so:
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m_GlobalDataItemStub = Substitute.For&lt;IDataItemProxySource, IGlobalDataItem&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>See notes.</t>
   </si>
 </sst>
 </file>
@@ -6829,13 +6852,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6850,6 +6872,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7352,15 +7383,15 @@
   <dimension ref="A1:V931"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="9" customWidth="1"/>
     <col min="4" max="4" width="35.44140625" customWidth="1"/>
     <col min="5" max="5" width="33.109375" customWidth="1"/>
     <col min="6" max="6" width="10.109375" customWidth="1"/>
@@ -7369,20 +7400,20 @@
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
     <col min="13" max="13" width="9.109375" style="2"/>
     <col min="21" max="21" width="30.6640625" customWidth="1"/>
-    <col min="22" max="22" width="196.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="67.21875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>2051</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>2052</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -7391,16 +7422,16 @@
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -7436,18 +7467,18 @@
       <c r="U1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>18</v>
+      <c r="V1" s="14" t="s">
+        <v>2075</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>15</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D2" t="s">
@@ -7500,13 +7531,13 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D3" t="s">
@@ -7559,13 +7590,13 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>26</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D4" t="s">
@@ -7618,13 +7649,13 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>40</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D5" t="s">
@@ -7677,13 +7708,13 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>2057</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>2073</v>
       </c>
       <c r="D6" t="s">
@@ -7736,13 +7767,13 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>32</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D7" t="s">
@@ -7795,13 +7826,13 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>35</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D8" t="s">
@@ -7854,13 +7885,13 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>51</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D9" t="s">
@@ -7913,13 +7944,13 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>60</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D10" t="s">
@@ -7972,13 +8003,13 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>67</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D11" t="s">
@@ -8031,13 +8062,13 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D12" t="s">
@@ -8090,13 +8121,13 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>21</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D13" t="s">
@@ -8149,13 +8180,13 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>18</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>2057</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>2059</v>
       </c>
       <c r="D14" t="s">
@@ -8207,15 +8238,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+    <row r="15" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>19</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>2060</v>
+      <c r="C15" s="15" t="s">
+        <v>2076</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -8265,15 +8296,18 @@
       <c r="U15" t="s">
         <v>48</v>
       </c>
+      <c r="V15" s="13" t="s">
+        <v>2074</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>28</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>2060</v>
       </c>
       <c r="D16" t="s">
@@ -8326,13 +8360,13 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>29</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>2060</v>
       </c>
       <c r="D17" t="s">
@@ -8385,13 +8419,13 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>48</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D18" t="s">
@@ -8444,13 +8478,13 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>49</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D19" t="s">
@@ -8503,13 +8537,13 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>52</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>2060</v>
       </c>
       <c r="D20" t="s">
@@ -8562,13 +8596,13 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>53</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D21" t="s">
@@ -8621,13 +8655,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>22</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D22" t="s">
@@ -8680,13 +8714,13 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>30</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>2061</v>
       </c>
       <c r="D23" t="s">
@@ -8739,13 +8773,13 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>44</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D24" t="s">
@@ -8798,13 +8832,13 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>45</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>2060</v>
       </c>
       <c r="D25" t="s">
@@ -8857,13 +8891,13 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>1</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="7">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D26" t="s">
@@ -8916,13 +8950,13 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>39</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D27" t="s">
@@ -8975,13 +9009,13 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>38</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D28" t="s">
@@ -9034,13 +9068,13 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>31</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D29" t="s">
@@ -9093,13 +9127,13 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>62</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D30" t="s">
@@ -9152,13 +9186,13 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>11</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D31" t="s">
@@ -9211,13 +9245,13 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>34</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>2062</v>
       </c>
       <c r="D32" t="s">
@@ -9270,13 +9304,13 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>2</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>2063</v>
       </c>
       <c r="D33" t="s">
@@ -9329,13 +9363,13 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>5</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>2064</v>
       </c>
       <c r="D34" t="s">
@@ -9388,13 +9422,13 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <v>43</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>2065</v>
       </c>
       <c r="D35" t="s">
@@ -9447,13 +9481,13 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <v>3</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D36" t="s">
@@ -9506,13 +9540,13 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>63</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D37" t="s">
@@ -9565,13 +9599,13 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>50</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D38" t="s">
@@ -9624,13 +9658,13 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>14</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>2060</v>
       </c>
       <c r="D39" t="s">
@@ -9683,13 +9717,13 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <v>36</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>2060</v>
       </c>
       <c r="D40" t="s">
@@ -9742,13 +9776,13 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <v>57</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>2060</v>
       </c>
       <c r="D41" t="s">
@@ -9801,13 +9835,13 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
+      <c r="A42" s="7">
         <v>54</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D42" t="s">
@@ -9860,13 +9894,13 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <v>55</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D43" t="s">
@@ -9919,13 +9953,13 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
+      <c r="A44" s="7">
         <v>56</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D44" t="s">
@@ -9978,13 +10012,13 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
+      <c r="A45" s="7">
         <v>37</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D45" t="s">
@@ -10037,13 +10071,13 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
+      <c r="A46" s="7">
         <v>42</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D46" t="s">
@@ -10096,13 +10130,13 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <v>9</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D47" t="s">
@@ -10155,13 +10189,13 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
+      <c r="A48" s="7">
         <v>16</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D48" t="s">
@@ -10214,13 +10248,13 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
+      <c r="A49" s="7">
         <v>4</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>2066</v>
       </c>
       <c r="D49" t="s">
@@ -10273,13 +10307,13 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
+      <c r="A50" s="7">
         <v>6</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D50" t="s">
@@ -10332,13 +10366,13 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
+      <c r="A51" s="7">
         <v>12</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D51" t="s">
@@ -10391,13 +10425,13 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="8">
+      <c r="A52" s="7">
         <v>13</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>2067</v>
       </c>
       <c r="D52" t="s">
@@ -10450,13 +10484,13 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="8">
+      <c r="A53" s="7">
         <v>17</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>2068</v>
       </c>
       <c r="D53" t="s">
@@ -10509,13 +10543,13 @@
       </c>
     </row>
     <row r="54" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="8">
+      <c r="A54" s="7">
         <v>24</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>2069</v>
       </c>
       <c r="D54" t="s">
@@ -10568,13 +10602,13 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="8">
+      <c r="A55" s="7">
         <v>7</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D55" t="s">
@@ -10627,13 +10661,13 @@
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="8">
+      <c r="A56" s="7">
         <v>20</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D56" t="s">
@@ -10686,13 +10720,13 @@
       </c>
     </row>
     <row r="57" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="8">
+      <c r="A57" s="7">
         <v>25</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>2070</v>
       </c>
       <c r="D57" t="s">
@@ -10745,13 +10779,13 @@
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
+      <c r="A58" s="7">
         <v>27</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D58" t="s">
@@ -10804,13 +10838,13 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A59" s="8">
+      <c r="A59" s="7">
         <v>41</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D59" t="s">
@@ -10863,13 +10897,13 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
+      <c r="A60" s="7">
         <v>58</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D60" t="s">
@@ -10922,13 +10956,13 @@
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
+      <c r="A61" s="7">
         <v>59</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D61" t="s">
@@ -10981,13 +11015,13 @@
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="8">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D62" t="s">
@@ -11040,13 +11074,13 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
+      <c r="A63" s="7">
         <v>33</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D63" t="s">
@@ -11099,13 +11133,13 @@
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
+      <c r="A64" s="7">
         <v>46</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D64" t="s">
@@ -11158,13 +11192,13 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A65" s="8">
+      <c r="A65" s="7">
         <v>47</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D65" t="s">
@@ -11217,13 +11251,13 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A66" s="8">
+      <c r="A66" s="7">
         <v>64</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>2060</v>
       </c>
       <c r="D66" t="s">
@@ -11276,13 +11310,13 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A67" s="8">
+      <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="9" t="s">
         <v>2060</v>
       </c>
       <c r="D67" t="s">
@@ -11335,13 +11369,13 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A68" s="8">
+      <c r="A68" s="7">
         <v>65</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D68" t="s">
@@ -11394,13 +11428,13 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A69" s="8">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="D69" t="s">
@@ -11452,8 +11486,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A70" s="8">
+    <row r="70" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
         <v>91</v>
       </c>
       <c r="D70" t="s">
@@ -11498,12 +11532,12 @@
       <c r="T70" t="b">
         <v>0</v>
       </c>
-      <c r="V70" t="s">
+      <c r="V70" s="13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A71" s="8">
+    <row r="71" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
         <v>101</v>
       </c>
       <c r="D71" t="s">
@@ -11548,12 +11582,12 @@
       <c r="T71" t="b">
         <v>0</v>
       </c>
-      <c r="V71" t="s">
+      <c r="V71" s="13" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A72" s="8">
+      <c r="A72" s="7">
         <v>69</v>
       </c>
       <c r="D72" t="s">
@@ -11606,7 +11640,7 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A73" s="8">
+      <c r="A73" s="7">
         <v>92</v>
       </c>
       <c r="D73" t="s">
@@ -11659,7 +11693,7 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A74" s="8">
+      <c r="A74" s="7">
         <v>117</v>
       </c>
       <c r="D74" t="s">
@@ -11712,7 +11746,7 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
+      <c r="A75" s="7">
         <v>118</v>
       </c>
       <c r="D75" t="s">
@@ -11765,7 +11799,7 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A76" s="8">
+      <c r="A76" s="7">
         <v>119</v>
       </c>
       <c r="D76" t="s">
@@ -11818,7 +11852,7 @@
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
+      <c r="A77" s="7">
         <v>120</v>
       </c>
       <c r="D77" t="s">
@@ -11871,7 +11905,7 @@
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A78" s="8">
+      <c r="A78" s="7">
         <v>72</v>
       </c>
       <c r="D78" t="s">
@@ -11924,7 +11958,7 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A79" s="8">
+      <c r="A79" s="7">
         <v>73</v>
       </c>
       <c r="D79" t="s">
@@ -11977,7 +12011,7 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A80" s="8">
+      <c r="A80" s="7">
         <v>80</v>
       </c>
       <c r="D80" t="s">
@@ -12030,7 +12064,7 @@
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="8">
+      <c r="A81" s="7">
         <v>82</v>
       </c>
       <c r="D81" t="s">
@@ -12083,7 +12117,7 @@
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="8">
+      <c r="A82" s="7">
         <v>84</v>
       </c>
       <c r="D82" t="s">
@@ -12136,7 +12170,7 @@
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="8">
+      <c r="A83" s="7">
         <v>85</v>
       </c>
       <c r="D83" t="s">
@@ -12189,7 +12223,7 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="8">
+      <c r="A84" s="7">
         <v>86</v>
       </c>
       <c r="D84" t="s">
@@ -12242,7 +12276,7 @@
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="8">
+      <c r="A85" s="7">
         <v>87</v>
       </c>
       <c r="D85" t="s">
@@ -12295,7 +12329,7 @@
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A86" s="8">
+      <c r="A86" s="7">
         <v>88</v>
       </c>
       <c r="D86" t="s">
@@ -12348,7 +12382,7 @@
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="8">
+      <c r="A87" s="7">
         <v>89</v>
       </c>
       <c r="D87" t="s">
@@ -12401,7 +12435,7 @@
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A88" s="8">
+      <c r="A88" s="7">
         <v>95</v>
       </c>
       <c r="D88" t="s">
@@ -12454,7 +12488,7 @@
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="8">
+      <c r="A89" s="7">
         <v>96</v>
       </c>
       <c r="D89" t="s">
@@ -12507,7 +12541,7 @@
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="8">
+      <c r="A90" s="7">
         <v>97</v>
       </c>
       <c r="D90" t="s">
@@ -12560,7 +12594,7 @@
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="8">
+      <c r="A91" s="7">
         <v>98</v>
       </c>
       <c r="D91" t="s">
@@ -12613,7 +12647,7 @@
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="8">
+      <c r="A92" s="7">
         <v>99</v>
       </c>
       <c r="D92" t="s">
@@ -12666,7 +12700,7 @@
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="8">
+      <c r="A93" s="7">
         <v>102</v>
       </c>
       <c r="D93" t="s">
@@ -12719,7 +12753,7 @@
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="8">
+      <c r="A94" s="7">
         <v>103</v>
       </c>
       <c r="D94" t="s">
@@ -12772,7 +12806,7 @@
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="8">
+      <c r="A95" s="7">
         <v>105</v>
       </c>
       <c r="D95" t="s">
@@ -12825,7 +12859,7 @@
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="8">
+      <c r="A96" s="7">
         <v>110</v>
       </c>
       <c r="D96" t="s">
@@ -12878,7 +12912,7 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A97" s="8">
+      <c r="A97" s="7">
         <v>112</v>
       </c>
       <c r="D97" t="s">
@@ -12931,7 +12965,7 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A98" s="8">
+      <c r="A98" s="7">
         <v>70</v>
       </c>
       <c r="D98" t="s">
@@ -12984,7 +13018,7 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A99" s="8">
+      <c r="A99" s="7">
         <v>71</v>
       </c>
       <c r="D99" t="s">
@@ -13037,7 +13071,7 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A100" s="8">
+      <c r="A100" s="7">
         <v>111</v>
       </c>
       <c r="D100" t="s">
@@ -13090,7 +13124,7 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A101" s="8">
+      <c r="A101" s="7">
         <v>126</v>
       </c>
       <c r="D101" t="s">
@@ -13143,7 +13177,7 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A102" s="8">
+      <c r="A102" s="7">
         <v>83</v>
       </c>
       <c r="D102" t="s">
@@ -13196,7 +13230,7 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A103" s="8">
+      <c r="A103" s="7">
         <v>79</v>
       </c>
       <c r="D103" t="s">
@@ -13247,12 +13281,12 @@
       <c r="U103" t="s">
         <v>22</v>
       </c>
-      <c r="V103" t="s">
+      <c r="V103" s="13" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A104" s="8">
+      <c r="A104" s="7">
         <v>75</v>
       </c>
       <c r="D104" t="s">
@@ -13305,7 +13339,7 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A105" s="8">
+      <c r="A105" s="7">
         <v>76</v>
       </c>
       <c r="D105" t="s">
@@ -13358,7 +13392,7 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A106" s="8">
+      <c r="A106" s="7">
         <v>77</v>
       </c>
       <c r="D106" t="s">
@@ -13411,7 +13445,7 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A107" s="8">
+      <c r="A107" s="7">
         <v>81</v>
       </c>
       <c r="D107" t="s">
@@ -13464,7 +13498,7 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A108" s="8">
+      <c r="A108" s="7">
         <v>93</v>
       </c>
       <c r="D108" t="s">
@@ -13517,7 +13551,7 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A109" s="8">
+      <c r="A109" s="7">
         <v>94</v>
       </c>
       <c r="D109" t="s">
@@ -13570,7 +13604,7 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A110" s="8">
+      <c r="A110" s="7">
         <v>113</v>
       </c>
       <c r="D110" t="s">
@@ -13623,7 +13657,7 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A111" s="8">
+      <c r="A111" s="7">
         <v>104</v>
       </c>
       <c r="D111" t="s">
@@ -13676,7 +13710,7 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A112" s="8">
+      <c r="A112" s="7">
         <v>107</v>
       </c>
       <c r="D112" t="s">
@@ -13729,7 +13763,7 @@
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="8">
+      <c r="A113" s="7">
         <v>108</v>
       </c>
       <c r="D113" t="s">
@@ -13782,7 +13816,7 @@
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A114" s="8">
+      <c r="A114" s="7">
         <v>90</v>
       </c>
       <c r="D114" t="s">
@@ -13835,7 +13869,7 @@
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="8">
+      <c r="A115" s="7">
         <v>100</v>
       </c>
       <c r="D115" t="s">
@@ -13885,7 +13919,7 @@
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A116" s="8">
+      <c r="A116" s="7">
         <v>106</v>
       </c>
       <c r="D116" t="s">
@@ -13938,7 +13972,7 @@
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="8">
+      <c r="A117" s="7">
         <v>109</v>
       </c>
       <c r="D117" t="s">
@@ -13991,7 +14025,7 @@
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A118" s="8">
+      <c r="A118" s="7">
         <v>78</v>
       </c>
       <c r="D118" t="s">
@@ -14044,7 +14078,7 @@
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A119" s="8">
+      <c r="A119" s="7">
         <v>74</v>
       </c>
       <c r="D119" t="s">
@@ -14097,7 +14131,7 @@
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A120" s="8">
+      <c r="A120" s="7">
         <v>114</v>
       </c>
       <c r="D120" t="s">
@@ -14150,7 +14184,7 @@
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A121" s="8">
+      <c r="A121" s="7">
         <v>115</v>
       </c>
       <c r="D121" t="s">
@@ -14203,7 +14237,7 @@
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A122" s="8">
+      <c r="A122" s="7">
         <v>116</v>
       </c>
       <c r="D122" t="s">
@@ -14256,7 +14290,7 @@
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A123" s="8">
+      <c r="A123" s="7">
         <v>121</v>
       </c>
       <c r="D123" t="s">
@@ -14309,7 +14343,7 @@
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A124" s="8">
+      <c r="A124" s="7">
         <v>122</v>
       </c>
       <c r="D124" t="s">
@@ -14362,7 +14396,7 @@
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A125" s="8">
+      <c r="A125" s="7">
         <v>123</v>
       </c>
       <c r="D125" t="s">
@@ -14415,7 +14449,7 @@
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A126" s="8">
+      <c r="A126" s="7">
         <v>124</v>
       </c>
       <c r="D126" t="s">
@@ -14468,7 +14502,7 @@
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A127" s="8">
+      <c r="A127" s="7">
         <v>125</v>
       </c>
       <c r="D127" t="s">
@@ -14521,7 +14555,7 @@
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="8">
+      <c r="A128" s="7">
         <v>127</v>
       </c>
       <c r="D128" t="s">
@@ -14574,7 +14608,7 @@
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="8">
+      <c r="A129" s="7">
         <v>129</v>
       </c>
       <c r="D129" t="s">
@@ -14627,7 +14661,7 @@
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A130" s="8">
+      <c r="A130" s="7">
         <v>128</v>
       </c>
       <c r="D130" t="s">
@@ -14680,7 +14714,7 @@
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A131" s="8">
+      <c r="A131" s="7">
         <v>130</v>
       </c>
       <c r="D131" t="s">
@@ -14733,7 +14767,7 @@
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="8">
+      <c r="A132" s="7">
         <v>131</v>
       </c>
       <c r="D132" t="s">
@@ -14786,7 +14820,7 @@
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="8">
+      <c r="A133" s="7">
         <v>143</v>
       </c>
       <c r="D133" t="s">
@@ -14839,7 +14873,7 @@
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A134" s="8">
+      <c r="A134" s="7">
         <v>133</v>
       </c>
       <c r="D134" t="s">
@@ -14892,7 +14926,7 @@
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A135" s="8">
+      <c r="A135" s="7">
         <v>134</v>
       </c>
       <c r="D135" t="s">
@@ -14945,7 +14979,7 @@
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A136" s="8">
+      <c r="A136" s="7">
         <v>150</v>
       </c>
       <c r="D136" t="s">
@@ -14998,7 +15032,7 @@
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A137" s="8">
+      <c r="A137" s="7">
         <v>135</v>
       </c>
       <c r="D137" t="s">
@@ -15051,7 +15085,7 @@
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A138" s="8">
+      <c r="A138" s="7">
         <v>136</v>
       </c>
       <c r="D138" t="s">
@@ -15104,7 +15138,7 @@
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A139" s="8">
+      <c r="A139" s="7">
         <v>137</v>
       </c>
       <c r="D139" t="s">
@@ -15157,7 +15191,7 @@
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A140" s="8">
+      <c r="A140" s="7">
         <v>138</v>
       </c>
       <c r="D140" t="s">
@@ -15210,7 +15244,7 @@
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="8">
+      <c r="A141" s="7">
         <v>139</v>
       </c>
       <c r="D141" t="s">
@@ -15263,7 +15297,7 @@
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="8">
+      <c r="A142" s="7">
         <v>140</v>
       </c>
       <c r="D142" t="s">
@@ -15316,7 +15350,7 @@
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="8">
+      <c r="A143" s="7">
         <v>141</v>
       </c>
       <c r="D143" t="s">
@@ -15369,7 +15403,7 @@
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="8">
+      <c r="A144" s="7">
         <v>142</v>
       </c>
       <c r="D144" t="s">
@@ -15422,7 +15456,7 @@
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="8">
+      <c r="A145" s="7">
         <v>160</v>
       </c>
       <c r="D145" t="s">
@@ -15475,7 +15509,7 @@
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A146" s="8">
+      <c r="A146" s="7">
         <v>185</v>
       </c>
       <c r="D146" t="s">
@@ -15528,7 +15562,7 @@
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="8">
+      <c r="A147" s="7">
         <v>218</v>
       </c>
       <c r="D147" t="s">
@@ -15581,7 +15615,7 @@
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A148" s="8">
+      <c r="A148" s="7">
         <v>184</v>
       </c>
       <c r="D148" t="s">
@@ -15634,7 +15668,7 @@
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A149" s="8">
+      <c r="A149" s="7">
         <v>192</v>
       </c>
       <c r="D149" t="s">
@@ -15687,7 +15721,7 @@
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A150" s="8">
+      <c r="A150" s="7">
         <v>145</v>
       </c>
       <c r="D150" t="s">
@@ -15740,7 +15774,7 @@
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A151" s="8">
+      <c r="A151" s="7">
         <v>146</v>
       </c>
       <c r="D151" t="s">
@@ -15793,7 +15827,7 @@
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A152" s="8">
+      <c r="A152" s="7">
         <v>221</v>
       </c>
       <c r="D152" t="s">
@@ -15846,7 +15880,7 @@
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A153" s="8">
+      <c r="A153" s="7">
         <v>154</v>
       </c>
       <c r="D153" t="s">
@@ -15899,7 +15933,7 @@
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A154" s="8">
+      <c r="A154" s="7">
         <v>155</v>
       </c>
       <c r="D154" t="s">
@@ -15952,7 +15986,7 @@
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A155" s="8">
+      <c r="A155" s="7">
         <v>159</v>
       </c>
       <c r="D155" t="s">
@@ -16005,7 +16039,7 @@
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A156" s="8">
+      <c r="A156" s="7">
         <v>217</v>
       </c>
       <c r="D156" t="s">
@@ -16058,7 +16092,7 @@
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A157" s="8">
+      <c r="A157" s="7">
         <v>162</v>
       </c>
       <c r="D157" t="s">
@@ -16111,7 +16145,7 @@
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A158" s="8">
+      <c r="A158" s="7">
         <v>166</v>
       </c>
       <c r="D158" t="s">
@@ -16158,7 +16192,7 @@
       </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A159" s="8">
+      <c r="A159" s="7">
         <v>171</v>
       </c>
       <c r="D159" t="s">
@@ -16211,7 +16245,7 @@
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A160" s="8">
+      <c r="A160" s="7">
         <v>167</v>
       </c>
       <c r="D160" t="s">
@@ -16264,7 +16298,7 @@
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A161" s="8">
+      <c r="A161" s="7">
         <v>172</v>
       </c>
       <c r="D161" t="s">
@@ -16317,7 +16351,7 @@
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A162" s="8">
+      <c r="A162" s="7">
         <v>191</v>
       </c>
       <c r="D162" t="s">
@@ -16370,7 +16404,7 @@
       </c>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A163" s="8">
+      <c r="A163" s="7">
         <v>220</v>
       </c>
       <c r="D163" t="s">
@@ -16423,7 +16457,7 @@
       </c>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A164" s="8">
+      <c r="A164" s="7">
         <v>132</v>
       </c>
       <c r="D164" t="s">
@@ -16476,7 +16510,7 @@
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A165" s="8">
+      <c r="A165" s="7">
         <v>147</v>
       </c>
       <c r="D165" t="s">
@@ -16529,7 +16563,7 @@
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A166" s="8">
+      <c r="A166" s="7">
         <v>212</v>
       </c>
       <c r="D166" t="s">
@@ -16582,7 +16616,7 @@
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A167" s="8">
+      <c r="A167" s="7">
         <v>213</v>
       </c>
       <c r="D167" t="s">
@@ -16635,7 +16669,7 @@
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A168" s="8">
+      <c r="A168" s="7">
         <v>149</v>
       </c>
       <c r="D168" t="s">
@@ -16688,7 +16722,7 @@
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A169" s="8">
+      <c r="A169" s="7">
         <v>153</v>
       </c>
       <c r="D169" t="s">
@@ -16741,7 +16775,7 @@
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A170" s="8">
+      <c r="A170" s="7">
         <v>156</v>
       </c>
       <c r="D170" t="s">
@@ -16794,7 +16828,7 @@
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A171" s="8">
+      <c r="A171" s="7">
         <v>157</v>
       </c>
       <c r="D171" t="s">
@@ -16847,7 +16881,7 @@
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A172" s="8">
+      <c r="A172" s="7">
         <v>158</v>
       </c>
       <c r="D172" t="s">
@@ -16900,7 +16934,7 @@
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A173" s="8">
+      <c r="A173" s="7">
         <v>164</v>
       </c>
       <c r="D173" t="s">
@@ -16953,7 +16987,7 @@
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A174" s="8">
+      <c r="A174" s="7">
         <v>165</v>
       </c>
       <c r="D174" t="s">
@@ -17006,7 +17040,7 @@
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A175" s="8">
+      <c r="A175" s="7">
         <v>168</v>
       </c>
       <c r="D175" t="s">
@@ -17059,7 +17093,7 @@
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A176" s="8">
+      <c r="A176" s="7">
         <v>214</v>
       </c>
       <c r="D176" t="s">
@@ -17112,7 +17146,7 @@
       </c>
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A177" s="8">
+      <c r="A177" s="7">
         <v>210</v>
       </c>
       <c r="D177" t="s">
@@ -17165,7 +17199,7 @@
       </c>
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A178" s="8">
+      <c r="A178" s="7">
         <v>222</v>
       </c>
       <c r="D178" t="s">
@@ -17218,7 +17252,7 @@
       </c>
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A179" s="8">
+      <c r="A179" s="7">
         <v>199</v>
       </c>
       <c r="D179" t="s">
@@ -17271,7 +17305,7 @@
       </c>
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A180" s="8">
+      <c r="A180" s="7">
         <v>174</v>
       </c>
       <c r="D180" t="s">
@@ -17324,7 +17358,7 @@
       </c>
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A181" s="8">
+      <c r="A181" s="7">
         <v>175</v>
       </c>
       <c r="D181" t="s">
@@ -17377,7 +17411,7 @@
       </c>
     </row>
     <row r="182" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A182" s="8">
+      <c r="A182" s="7">
         <v>178</v>
       </c>
       <c r="D182" t="s">
@@ -17430,7 +17464,7 @@
       </c>
     </row>
     <row r="183" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A183" s="8">
+      <c r="A183" s="7">
         <v>179</v>
       </c>
       <c r="D183" t="s">
@@ -17483,7 +17517,7 @@
       </c>
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A184" s="8">
+      <c r="A184" s="7">
         <v>144</v>
       </c>
       <c r="D184" t="s">
@@ -17534,12 +17568,12 @@
       <c r="U184" t="s">
         <v>22</v>
       </c>
-      <c r="V184" t="s">
+      <c r="V184" s="13" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="185" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A185" s="8">
+      <c r="A185" s="7">
         <v>181</v>
       </c>
       <c r="D185" t="s">
@@ -17592,7 +17626,7 @@
       </c>
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A186" s="8">
+      <c r="A186" s="7">
         <v>182</v>
       </c>
       <c r="D186" t="s">
@@ -17645,7 +17679,7 @@
       </c>
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A187" s="8">
+      <c r="A187" s="7">
         <v>183</v>
       </c>
       <c r="D187" t="s">
@@ -17695,7 +17729,7 @@
       </c>
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A188" s="8">
+      <c r="A188" s="7">
         <v>161</v>
       </c>
       <c r="D188" t="s">
@@ -17748,7 +17782,7 @@
       </c>
     </row>
     <row r="189" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A189" s="8">
+      <c r="A189" s="7">
         <v>163</v>
       </c>
       <c r="D189" t="s">
@@ -17801,7 +17835,7 @@
       </c>
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A190" s="8">
+      <c r="A190" s="7">
         <v>186</v>
       </c>
       <c r="D190" t="s">
@@ -17854,7 +17888,7 @@
       </c>
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A191" s="8">
+      <c r="A191" s="7">
         <v>205</v>
       </c>
       <c r="D191" t="s">
@@ -17907,7 +17941,7 @@
       </c>
     </row>
     <row r="192" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A192" s="8">
+      <c r="A192" s="7">
         <v>187</v>
       </c>
       <c r="D192" t="s">
@@ -17960,7 +17994,7 @@
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A193" s="8">
+      <c r="A193" s="7">
         <v>188</v>
       </c>
       <c r="D193" t="s">
@@ -18013,7 +18047,7 @@
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A194" s="8">
+      <c r="A194" s="7">
         <v>189</v>
       </c>
       <c r="D194" t="s">
@@ -18066,7 +18100,7 @@
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A195" s="8">
+      <c r="A195" s="7">
         <v>190</v>
       </c>
       <c r="D195" t="s">
@@ -18119,7 +18153,7 @@
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A196" s="8">
+      <c r="A196" s="7">
         <v>193</v>
       </c>
       <c r="D196" t="s">
@@ -18172,7 +18206,7 @@
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A197" s="8">
+      <c r="A197" s="7">
         <v>194</v>
       </c>
       <c r="D197" t="s">
@@ -18225,7 +18259,7 @@
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A198" s="8">
+      <c r="A198" s="7">
         <v>195</v>
       </c>
       <c r="D198" t="s">
@@ -18278,7 +18312,7 @@
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A199" s="8">
+      <c r="A199" s="7">
         <v>196</v>
       </c>
       <c r="D199" t="s">
@@ -18331,7 +18365,7 @@
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A200" s="8">
+      <c r="A200" s="7">
         <v>169</v>
       </c>
       <c r="D200" t="s">
@@ -18384,7 +18418,7 @@
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A201" s="8">
+      <c r="A201" s="7">
         <v>170</v>
       </c>
       <c r="D201" t="s">
@@ -18437,7 +18471,7 @@
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A202" s="8">
+      <c r="A202" s="7">
         <v>173</v>
       </c>
       <c r="D202" t="s">
@@ -18490,7 +18524,7 @@
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A203" s="8">
+      <c r="A203" s="7">
         <v>180</v>
       </c>
       <c r="D203" t="s">
@@ -18543,7 +18577,7 @@
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A204" s="8">
+      <c r="A204" s="7">
         <v>197</v>
       </c>
       <c r="D204" t="s">
@@ -18596,7 +18630,7 @@
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A205" s="8">
+      <c r="A205" s="7">
         <v>198</v>
       </c>
       <c r="D205" t="s">
@@ -18649,7 +18683,7 @@
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A206" s="8">
+      <c r="A206" s="7">
         <v>176</v>
       </c>
       <c r="D206" t="s">
@@ -18702,7 +18736,7 @@
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A207" s="8">
+      <c r="A207" s="7">
         <v>177</v>
       </c>
       <c r="D207" t="s">
@@ -18755,7 +18789,7 @@
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A208" s="8">
+      <c r="A208" s="7">
         <v>200</v>
       </c>
       <c r="D208" t="s">
@@ -18808,7 +18842,7 @@
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A209" s="8">
+      <c r="A209" s="7">
         <v>201</v>
       </c>
       <c r="D209" t="s">
@@ -18861,7 +18895,7 @@
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A210" s="8">
+      <c r="A210" s="7">
         <v>202</v>
       </c>
       <c r="D210" t="s">
@@ -18914,7 +18948,7 @@
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A211" s="8">
+      <c r="A211" s="7">
         <v>203</v>
       </c>
       <c r="D211" t="s">
@@ -18967,7 +19001,7 @@
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A212" s="8">
+      <c r="A212" s="7">
         <v>204</v>
       </c>
       <c r="D212" t="s">
@@ -19020,7 +19054,7 @@
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A213" s="8">
+      <c r="A213" s="7">
         <v>206</v>
       </c>
       <c r="D213" t="s">
@@ -19073,7 +19107,7 @@
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A214" s="8">
+      <c r="A214" s="7">
         <v>207</v>
       </c>
       <c r="D214" t="s">
@@ -19126,7 +19160,7 @@
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A215" s="8">
+      <c r="A215" s="7">
         <v>208</v>
       </c>
       <c r="D215" t="s">
@@ -19179,7 +19213,7 @@
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A216" s="8">
+      <c r="A216" s="7">
         <v>209</v>
       </c>
       <c r="D216" t="s">
@@ -19232,7 +19266,7 @@
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A217" s="8">
+      <c r="A217" s="7">
         <v>211</v>
       </c>
       <c r="D217" t="s">
@@ -19285,7 +19319,7 @@
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A218" s="8">
+      <c r="A218" s="7">
         <v>215</v>
       </c>
       <c r="D218" t="s">
@@ -19338,7 +19372,7 @@
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A219" s="8">
+      <c r="A219" s="7">
         <v>216</v>
       </c>
       <c r="D219" t="s">
@@ -19391,7 +19425,7 @@
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A220" s="8">
+      <c r="A220" s="7">
         <v>148</v>
       </c>
       <c r="D220" t="s">
@@ -19444,7 +19478,7 @@
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A221" s="8">
+      <c r="A221" s="7">
         <v>151</v>
       </c>
       <c r="D221" t="s">
@@ -19497,7 +19531,7 @@
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A222" s="8">
+      <c r="A222" s="7">
         <v>152</v>
       </c>
       <c r="D222" t="s">
@@ -19550,7 +19584,7 @@
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A223" s="8">
+      <c r="A223" s="7">
         <v>219</v>
       </c>
       <c r="D223" t="s">
@@ -19603,7 +19637,7 @@
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A224" s="8">
+      <c r="A224" s="7">
         <v>223</v>
       </c>
       <c r="D224" t="s">
@@ -19656,7 +19690,7 @@
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A225" s="8">
+      <c r="A225" s="7">
         <v>392</v>
       </c>
       <c r="D225" t="s">
@@ -19703,7 +19737,7 @@
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A226" s="8">
+      <c r="A226" s="7">
         <v>393</v>
       </c>
       <c r="D226" t="s">
@@ -19750,7 +19784,7 @@
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A227" s="8">
+      <c r="A227" s="7">
         <v>394</v>
       </c>
       <c r="D227" t="s">
@@ -19797,7 +19831,7 @@
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A228" s="8">
+      <c r="A228" s="7">
         <v>238</v>
       </c>
       <c r="D228" t="s">
@@ -19847,7 +19881,7 @@
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A229" s="8">
+      <c r="A229" s="7">
         <v>239</v>
       </c>
       <c r="D229" t="s">
@@ -19894,7 +19928,7 @@
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A230" s="8">
+      <c r="A230" s="7">
         <v>252</v>
       </c>
       <c r="D230" t="s">
@@ -19944,7 +19978,7 @@
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A231" s="8">
+      <c r="A231" s="7">
         <v>253</v>
       </c>
       <c r="D231" t="s">
@@ -19994,7 +20028,7 @@
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A232" s="8">
+      <c r="A232" s="7">
         <v>258</v>
       </c>
       <c r="D232" t="s">
@@ -20041,7 +20075,7 @@
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A233" s="8">
+      <c r="A233" s="7">
         <v>262</v>
       </c>
       <c r="D233" t="s">
@@ -20088,7 +20122,7 @@
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A234" s="8">
+      <c r="A234" s="7">
         <v>268</v>
       </c>
       <c r="D234" t="s">
@@ -20135,7 +20169,7 @@
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A235" s="8">
+      <c r="A235" s="7">
         <v>269</v>
       </c>
       <c r="D235" t="s">
@@ -20182,7 +20216,7 @@
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A236" s="8">
+      <c r="A236" s="7">
         <v>270</v>
       </c>
       <c r="D236" t="s">
@@ -20229,7 +20263,7 @@
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A237" s="8">
+      <c r="A237" s="7">
         <v>272</v>
       </c>
       <c r="D237" t="s">
@@ -20276,7 +20310,7 @@
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A238" s="8">
+      <c r="A238" s="7">
         <v>226</v>
       </c>
       <c r="D238" t="s">
@@ -20323,7 +20357,7 @@
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A239" s="8">
+      <c r="A239" s="7">
         <v>230</v>
       </c>
       <c r="D239" t="s">
@@ -20370,7 +20404,7 @@
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A240" s="8">
+      <c r="A240" s="7">
         <v>237</v>
       </c>
       <c r="D240" t="s">
@@ -20417,7 +20451,7 @@
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A241" s="8">
+      <c r="A241" s="7">
         <v>240</v>
       </c>
       <c r="D241" t="s">
@@ -20464,7 +20498,7 @@
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A242" s="8">
+      <c r="A242" s="7">
         <v>228</v>
       </c>
       <c r="D242" t="s">
@@ -20511,7 +20545,7 @@
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A243" s="8">
+      <c r="A243" s="7">
         <v>235</v>
       </c>
       <c r="D243" t="s">
@@ -20558,7 +20592,7 @@
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A244" s="8">
+      <c r="A244" s="7">
         <v>244</v>
       </c>
       <c r="D244" t="s">
@@ -20605,7 +20639,7 @@
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A245" s="8">
+      <c r="A245" s="7">
         <v>245</v>
       </c>
       <c r="D245" t="s">
@@ -20652,7 +20686,7 @@
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A246" s="8">
+      <c r="A246" s="7">
         <v>260</v>
       </c>
       <c r="D246" t="s">
@@ -20699,7 +20733,7 @@
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A247" s="8">
+      <c r="A247" s="7">
         <v>265</v>
       </c>
       <c r="D247" t="s">
@@ -20746,7 +20780,7 @@
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A248" s="8">
+      <c r="A248" s="7">
         <v>271</v>
       </c>
       <c r="D248" t="s">
@@ -20793,7 +20827,7 @@
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A249" s="8">
+      <c r="A249" s="7">
         <v>256</v>
       </c>
       <c r="D249" t="s">
@@ -20840,7 +20874,7 @@
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A250" s="8">
+      <c r="A250" s="7">
         <v>248</v>
       </c>
       <c r="D250" t="s">
@@ -20890,7 +20924,7 @@
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A251" s="8">
+      <c r="A251" s="7">
         <v>249</v>
       </c>
       <c r="D251" t="s">
@@ -20940,7 +20974,7 @@
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A252" s="8">
+      <c r="A252" s="7">
         <v>250</v>
       </c>
       <c r="D252" t="s">
@@ -20987,7 +21021,7 @@
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A253" s="8">
+      <c r="A253" s="7">
         <v>251</v>
       </c>
       <c r="D253" t="s">
@@ -21037,7 +21071,7 @@
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A254" s="8">
+      <c r="A254" s="7">
         <v>234</v>
       </c>
       <c r="D254" t="s">
@@ -21087,13 +21121,13 @@
       </c>
     </row>
     <row r="255" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A255" s="8">
+      <c r="A255" s="7">
         <v>242</v>
       </c>
-      <c r="B255" s="8" t="s">
+      <c r="B255" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C255" s="10" t="s">
+      <c r="C255" s="9" t="s">
         <v>2072</v>
       </c>
       <c r="D255" t="s">
@@ -21143,7 +21177,7 @@
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A256" s="8">
+      <c r="A256" s="7">
         <v>241</v>
       </c>
       <c r="D256" t="s">
@@ -21193,7 +21227,7 @@
       </c>
     </row>
     <row r="257" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A257" s="8">
+      <c r="A257" s="7">
         <v>247</v>
       </c>
       <c r="D257" t="s">
@@ -21243,7 +21277,7 @@
       </c>
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A258" s="8">
+      <c r="A258" s="7">
         <v>225</v>
       </c>
       <c r="D258" t="s">
@@ -21288,12 +21322,12 @@
       <c r="T258" t="b">
         <v>0</v>
       </c>
-      <c r="V258" t="s">
+      <c r="V258" s="13" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A259" s="8">
+      <c r="A259" s="7">
         <v>257</v>
       </c>
       <c r="D259" t="s">
@@ -21343,7 +21377,7 @@
       </c>
     </row>
     <row r="260" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A260" s="8">
+      <c r="A260" s="7">
         <v>229</v>
       </c>
       <c r="D260" t="s">
@@ -21393,7 +21427,7 @@
       </c>
     </row>
     <row r="261" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A261" s="8">
+      <c r="A261" s="7">
         <v>254</v>
       </c>
       <c r="D261" t="s">
@@ -21443,7 +21477,7 @@
       </c>
     </row>
     <row r="262" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A262" s="8">
+      <c r="A262" s="7">
         <v>255</v>
       </c>
       <c r="D262" t="s">
@@ -21490,7 +21524,7 @@
       </c>
     </row>
     <row r="263" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A263" s="8">
+      <c r="A263" s="7">
         <v>259</v>
       </c>
       <c r="D263" t="s">
@@ -21537,7 +21571,7 @@
       </c>
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A264" s="8">
+      <c r="A264" s="7">
         <v>279</v>
       </c>
       <c r="D264" t="s">
@@ -21584,7 +21618,7 @@
       </c>
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A265" s="8">
+      <c r="A265" s="7">
         <v>263</v>
       </c>
       <c r="D265" t="s">
@@ -21631,7 +21665,7 @@
       </c>
     </row>
     <row r="266" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A266" s="8">
+      <c r="A266" s="7">
         <v>264</v>
       </c>
       <c r="D266" t="s">
@@ -21678,7 +21712,7 @@
       </c>
     </row>
     <row r="267" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A267" s="8">
+      <c r="A267" s="7">
         <v>243</v>
       </c>
       <c r="D267" t="s">
@@ -21725,7 +21759,7 @@
       </c>
     </row>
     <row r="268" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A268" s="8">
+      <c r="A268" s="7">
         <v>261</v>
       </c>
       <c r="D268" t="s">
@@ -21772,7 +21806,7 @@
       </c>
     </row>
     <row r="269" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A269" s="8">
+      <c r="A269" s="7">
         <v>273</v>
       </c>
       <c r="D269" t="s">
@@ -21819,7 +21853,7 @@
       </c>
     </row>
     <row r="270" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A270" s="8">
+      <c r="A270" s="7">
         <v>224</v>
       </c>
       <c r="D270" t="s">
@@ -21866,7 +21900,7 @@
       </c>
     </row>
     <row r="271" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A271" s="8">
+      <c r="A271" s="7">
         <v>227</v>
       </c>
       <c r="D271" t="s">
@@ -21913,7 +21947,7 @@
       </c>
     </row>
     <row r="272" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A272" s="8">
+      <c r="A272" s="7">
         <v>231</v>
       </c>
       <c r="D272" t="s">
@@ -21960,13 +21994,13 @@
       </c>
     </row>
     <row r="273" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A273" s="8">
+      <c r="A273" s="7">
         <v>233</v>
       </c>
-      <c r="B273" s="8" t="s">
+      <c r="B273" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C273" s="10" t="s">
+      <c r="C273" s="9" t="s">
         <v>2071</v>
       </c>
       <c r="D273" t="s">
@@ -22016,7 +22050,7 @@
       </c>
     </row>
     <row r="274" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A274" s="8">
+      <c r="A274" s="7">
         <v>236</v>
       </c>
       <c r="D274" t="s">
@@ -22063,7 +22097,7 @@
       </c>
     </row>
     <row r="275" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A275" s="8">
+      <c r="A275" s="7">
         <v>266</v>
       </c>
       <c r="D275" t="s">
@@ -22110,7 +22144,7 @@
       </c>
     </row>
     <row r="276" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A276" s="8">
+      <c r="A276" s="7">
         <v>267</v>
       </c>
       <c r="D276" t="s">
@@ -22160,7 +22194,7 @@
       </c>
     </row>
     <row r="277" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A277" s="8">
+      <c r="A277" s="7">
         <v>274</v>
       </c>
       <c r="D277" t="s">
@@ -22207,7 +22241,7 @@
       </c>
     </row>
     <row r="278" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A278" s="8">
+      <c r="A278" s="7">
         <v>232</v>
       </c>
       <c r="D278" t="s">
@@ -22254,7 +22288,7 @@
       </c>
     </row>
     <row r="279" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A279" s="8">
+      <c r="A279" s="7">
         <v>246</v>
       </c>
       <c r="D279" t="s">
@@ -22301,7 +22335,7 @@
       </c>
     </row>
     <row r="280" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A280" s="8">
+      <c r="A280" s="7">
         <v>275</v>
       </c>
       <c r="D280" t="s">
@@ -22348,7 +22382,7 @@
       </c>
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A281" s="8">
+      <c r="A281" s="7">
         <v>276</v>
       </c>
       <c r="D281" t="s">
@@ -22398,7 +22432,7 @@
       </c>
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A282" s="8">
+      <c r="A282" s="7">
         <v>277</v>
       </c>
       <c r="D282" t="s">
@@ -22445,7 +22479,7 @@
       </c>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A283" s="8">
+      <c r="A283" s="7">
         <v>278</v>
       </c>
       <c r="D283" t="s">
@@ -22495,7 +22529,7 @@
       </c>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A284" s="8">
+      <c r="A284" s="7">
         <v>280</v>
       </c>
       <c r="D284" t="s">
@@ -22542,7 +22576,7 @@
       </c>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A285" s="8">
+      <c r="A285" s="7">
         <v>282</v>
       </c>
       <c r="D285" t="s">
@@ -22589,7 +22623,7 @@
       </c>
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A286" s="8">
+      <c r="A286" s="7">
         <v>281</v>
       </c>
       <c r="D286" t="s">
@@ -22634,12 +22668,12 @@
       <c r="T286" t="b">
         <v>0</v>
       </c>
-      <c r="V286" t="s">
+      <c r="V286" s="13" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A287" s="8">
+      <c r="A287" s="7">
         <v>283</v>
       </c>
       <c r="D287" t="s">
@@ -22686,7 +22720,7 @@
       </c>
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A288" s="8">
+      <c r="A288" s="7">
         <v>345</v>
       </c>
       <c r="D288" t="s">
@@ -22736,7 +22770,7 @@
       </c>
     </row>
     <row r="289" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A289" s="8">
+      <c r="A289" s="7">
         <v>339</v>
       </c>
       <c r="D289" t="s">
@@ -22786,7 +22820,7 @@
       </c>
     </row>
     <row r="290" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A290" s="8">
+      <c r="A290" s="7">
         <v>288</v>
       </c>
       <c r="D290" t="s">
@@ -22836,7 +22870,7 @@
       </c>
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A291" s="8">
+      <c r="A291" s="7">
         <v>300</v>
       </c>
       <c r="D291" t="s">
@@ -22886,7 +22920,7 @@
       </c>
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A292" s="8">
+      <c r="A292" s="7">
         <v>301</v>
       </c>
       <c r="D292" t="s">
@@ -22936,7 +22970,7 @@
       </c>
     </row>
     <row r="293" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A293" s="8">
+      <c r="A293" s="7">
         <v>309</v>
       </c>
       <c r="D293" t="s">
@@ -22986,7 +23020,7 @@
       </c>
     </row>
     <row r="294" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A294" s="8">
+      <c r="A294" s="7">
         <v>290</v>
       </c>
       <c r="D294" t="s">
@@ -23036,7 +23070,7 @@
       </c>
     </row>
     <row r="295" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A295" s="8">
+      <c r="A295" s="7">
         <v>303</v>
       </c>
       <c r="D295" t="s">
@@ -23086,7 +23120,7 @@
       </c>
     </row>
     <row r="296" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A296" s="8">
+      <c r="A296" s="7">
         <v>305</v>
       </c>
       <c r="D296" t="s">
@@ -23136,7 +23170,7 @@
       </c>
     </row>
     <row r="297" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A297" s="8">
+      <c r="A297" s="7">
         <v>306</v>
       </c>
       <c r="D297" t="s">
@@ -23186,7 +23220,7 @@
       </c>
     </row>
     <row r="298" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A298" s="8">
+      <c r="A298" s="7">
         <v>310</v>
       </c>
       <c r="D298" t="s">
@@ -23236,7 +23270,7 @@
       </c>
     </row>
     <row r="299" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A299" s="8">
+      <c r="A299" s="7">
         <v>322</v>
       </c>
       <c r="D299" t="s">
@@ -23286,7 +23320,7 @@
       </c>
     </row>
     <row r="300" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A300" s="8">
+      <c r="A300" s="7">
         <v>328</v>
       </c>
       <c r="D300" t="s">
@@ -23336,7 +23370,7 @@
       </c>
     </row>
     <row r="301" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A301" s="8">
+      <c r="A301" s="7">
         <v>333</v>
       </c>
       <c r="D301" t="s">
@@ -23386,7 +23420,7 @@
       </c>
     </row>
     <row r="302" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A302" s="8">
+      <c r="A302" s="7">
         <v>337</v>
       </c>
       <c r="D302" t="s">
@@ -23436,7 +23470,7 @@
       </c>
     </row>
     <row r="303" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A303" s="8">
+      <c r="A303" s="7">
         <v>341</v>
       </c>
       <c r="D303" t="s">
@@ -23486,7 +23520,7 @@
       </c>
     </row>
     <row r="304" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A304" s="8">
+      <c r="A304" s="7">
         <v>342</v>
       </c>
       <c r="D304" t="s">
@@ -23536,7 +23570,7 @@
       </c>
     </row>
     <row r="305" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A305" s="8">
+      <c r="A305" s="7">
         <v>346</v>
       </c>
       <c r="D305" t="s">
@@ -23586,7 +23620,7 @@
       </c>
     </row>
     <row r="306" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A306" s="8">
+      <c r="A306" s="7">
         <v>348</v>
       </c>
       <c r="D306" t="s">
@@ -23636,7 +23670,7 @@
       </c>
     </row>
     <row r="307" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A307" s="8">
+      <c r="A307" s="7">
         <v>352</v>
       </c>
       <c r="D307" t="s">
@@ -23686,7 +23720,7 @@
       </c>
     </row>
     <row r="308" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A308" s="8">
+      <c r="A308" s="7">
         <v>370</v>
       </c>
       <c r="D308" t="s">
@@ -23736,7 +23770,7 @@
       </c>
     </row>
     <row r="309" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A309" s="8">
+      <c r="A309" s="7">
         <v>298</v>
       </c>
       <c r="D309" t="s">
@@ -23786,7 +23820,7 @@
       </c>
     </row>
     <row r="310" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A310" s="8">
+      <c r="A310" s="7">
         <v>304</v>
       </c>
       <c r="D310" t="s">
@@ -23836,7 +23870,7 @@
       </c>
     </row>
     <row r="311" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A311" s="8">
+      <c r="A311" s="7">
         <v>307</v>
       </c>
       <c r="D311" t="s">
@@ -23886,7 +23920,7 @@
       </c>
     </row>
     <row r="312" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A312" s="8">
+      <c r="A312" s="7">
         <v>308</v>
       </c>
       <c r="D312" t="s">
@@ -23936,7 +23970,7 @@
       </c>
     </row>
     <row r="313" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A313" s="8">
+      <c r="A313" s="7">
         <v>334</v>
       </c>
       <c r="D313" t="s">
@@ -23986,7 +24020,7 @@
       </c>
     </row>
     <row r="314" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A314" s="8">
+      <c r="A314" s="7">
         <v>319</v>
       </c>
       <c r="D314" t="s">
@@ -24036,7 +24070,7 @@
       </c>
     </row>
     <row r="315" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A315" s="8">
+      <c r="A315" s="7">
         <v>284</v>
       </c>
       <c r="D315" t="s">
@@ -24086,7 +24120,7 @@
       </c>
     </row>
     <row r="316" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A316" s="8">
+      <c r="A316" s="7">
         <v>329</v>
       </c>
       <c r="D316" t="s">
@@ -24133,7 +24167,7 @@
       </c>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A317" s="8">
+      <c r="A317" s="7">
         <v>360</v>
       </c>
       <c r="D317" t="s">
@@ -24180,7 +24214,7 @@
       </c>
     </row>
     <row r="318" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A318" s="8">
+      <c r="A318" s="7">
         <v>330</v>
       </c>
       <c r="D318" t="s">
@@ -24227,7 +24261,7 @@
       </c>
     </row>
     <row r="319" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A319" s="8">
+      <c r="A319" s="7">
         <v>331</v>
       </c>
       <c r="D319" t="s">
@@ -24274,7 +24308,7 @@
       </c>
     </row>
     <row r="320" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A320" s="8">
+      <c r="A320" s="7">
         <v>332</v>
       </c>
       <c r="D320" t="s">
@@ -24321,7 +24355,7 @@
       </c>
     </row>
     <row r="321" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A321" s="8">
+      <c r="A321" s="7">
         <v>323</v>
       </c>
       <c r="D321" t="s">
@@ -24368,7 +24402,7 @@
       </c>
     </row>
     <row r="322" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A322" s="8">
+      <c r="A322" s="7">
         <v>311</v>
       </c>
       <c r="D322" t="s">
@@ -24418,7 +24452,7 @@
       </c>
     </row>
     <row r="323" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A323" s="8">
+      <c r="A323" s="7">
         <v>289</v>
       </c>
       <c r="D323" t="s">
@@ -24468,7 +24502,7 @@
       </c>
     </row>
     <row r="324" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A324" s="8">
+      <c r="A324" s="7">
         <v>291</v>
       </c>
       <c r="D324" t="s">
@@ -24518,7 +24552,7 @@
       </c>
     </row>
     <row r="325" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A325" s="8">
+      <c r="A325" s="7">
         <v>292</v>
       </c>
       <c r="D325" t="s">
@@ -24568,7 +24602,7 @@
       </c>
     </row>
     <row r="326" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A326" s="8">
+      <c r="A326" s="7">
         <v>327</v>
       </c>
       <c r="D326" t="s">
@@ -24618,7 +24652,7 @@
       </c>
     </row>
     <row r="327" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A327" s="8">
+      <c r="A327" s="7">
         <v>335</v>
       </c>
       <c r="D327" t="s">
@@ -24668,7 +24702,7 @@
       </c>
     </row>
     <row r="328" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A328" s="8">
+      <c r="A328" s="7">
         <v>343</v>
       </c>
       <c r="D328" t="s">
@@ -24718,7 +24752,7 @@
       </c>
     </row>
     <row r="329" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A329" s="8">
+      <c r="A329" s="7">
         <v>350</v>
       </c>
       <c r="D329" t="s">
@@ -24768,7 +24802,7 @@
       </c>
     </row>
     <row r="330" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A330" s="8">
+      <c r="A330" s="7">
         <v>357</v>
       </c>
       <c r="D330" t="s">
@@ -24818,7 +24852,7 @@
       </c>
     </row>
     <row r="331" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A331" s="8">
+      <c r="A331" s="7">
         <v>361</v>
       </c>
       <c r="D331" t="s">
@@ -24868,7 +24902,7 @@
       </c>
     </row>
     <row r="332" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A332" s="8">
+      <c r="A332" s="7">
         <v>371</v>
       </c>
       <c r="D332" t="s">
@@ -24918,7 +24952,7 @@
       </c>
     </row>
     <row r="333" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A333" s="8">
+      <c r="A333" s="7">
         <v>369</v>
       </c>
       <c r="D333" t="s">
@@ -24968,7 +25002,7 @@
       </c>
     </row>
     <row r="334" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A334" s="8">
+      <c r="A334" s="7">
         <v>312</v>
       </c>
       <c r="D334" t="s">
@@ -25015,7 +25049,7 @@
       </c>
     </row>
     <row r="335" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A335" s="8">
+      <c r="A335" s="7">
         <v>340</v>
       </c>
       <c r="D335" t="s">
@@ -25065,7 +25099,7 @@
       </c>
     </row>
     <row r="336" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A336" s="8">
+      <c r="A336" s="7">
         <v>362</v>
       </c>
       <c r="D336" t="s">
@@ -25112,7 +25146,7 @@
       </c>
     </row>
     <row r="337" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A337" s="8">
+      <c r="A337" s="7">
         <v>359</v>
       </c>
       <c r="D337" t="s">
@@ -25162,7 +25196,7 @@
       </c>
     </row>
     <row r="338" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A338" s="8">
+      <c r="A338" s="7">
         <v>295</v>
       </c>
       <c r="D338" t="s">
@@ -25212,7 +25246,7 @@
       </c>
     </row>
     <row r="339" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A339" s="8">
+      <c r="A339" s="7">
         <v>296</v>
       </c>
       <c r="D339" t="s">
@@ -25262,7 +25296,7 @@
       </c>
     </row>
     <row r="340" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A340" s="8">
+      <c r="A340" s="7">
         <v>294</v>
       </c>
       <c r="D340" t="s">
@@ -25312,7 +25346,7 @@
       </c>
     </row>
     <row r="341" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A341" s="8">
+      <c r="A341" s="7">
         <v>321</v>
       </c>
       <c r="D341" t="s">
@@ -25362,7 +25396,7 @@
       </c>
     </row>
     <row r="342" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A342" s="8">
+      <c r="A342" s="7">
         <v>302</v>
       </c>
       <c r="D342" t="s">
@@ -25412,7 +25446,7 @@
       </c>
     </row>
     <row r="343" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A343" s="8">
+      <c r="A343" s="7">
         <v>313</v>
       </c>
       <c r="D343" t="s">
@@ -25462,7 +25496,7 @@
       </c>
     </row>
     <row r="344" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A344" s="8">
+      <c r="A344" s="7">
         <v>314</v>
       </c>
       <c r="D344" t="s">
@@ -25512,7 +25546,7 @@
       </c>
     </row>
     <row r="345" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A345" s="8">
+      <c r="A345" s="7">
         <v>315</v>
       </c>
       <c r="D345" t="s">
@@ -25562,7 +25596,7 @@
       </c>
     </row>
     <row r="346" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A346" s="8">
+      <c r="A346" s="7">
         <v>320</v>
       </c>
       <c r="D346" t="s">
@@ -25612,7 +25646,7 @@
       </c>
     </row>
     <row r="347" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A347" s="8">
+      <c r="A347" s="7">
         <v>285</v>
       </c>
       <c r="D347" t="s">
@@ -25662,7 +25696,7 @@
       </c>
     </row>
     <row r="348" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A348" s="8">
+      <c r="A348" s="7">
         <v>316</v>
       </c>
       <c r="D348" t="s">
@@ -25712,7 +25746,7 @@
       </c>
     </row>
     <row r="349" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A349" s="8">
+      <c r="A349" s="7">
         <v>324</v>
       </c>
       <c r="D349" t="s">
@@ -25762,7 +25796,7 @@
       </c>
     </row>
     <row r="350" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A350" s="8">
+      <c r="A350" s="7">
         <v>355</v>
       </c>
       <c r="D350" t="s">
@@ -25812,7 +25846,7 @@
       </c>
     </row>
     <row r="351" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A351" s="8">
+      <c r="A351" s="7">
         <v>326</v>
       </c>
       <c r="D351" t="s">
@@ -25862,7 +25896,7 @@
       </c>
     </row>
     <row r="352" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A352" s="8">
+      <c r="A352" s="7">
         <v>318</v>
       </c>
       <c r="D352" t="s">
@@ -25912,7 +25946,7 @@
       </c>
     </row>
     <row r="353" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A353" s="8">
+      <c r="A353" s="7">
         <v>368</v>
       </c>
       <c r="D353" t="s">
@@ -25962,7 +25996,7 @@
       </c>
     </row>
     <row r="354" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A354" s="8">
+      <c r="A354" s="7">
         <v>297</v>
       </c>
       <c r="D354" t="s">
@@ -26012,7 +26046,7 @@
       </c>
     </row>
     <row r="355" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A355" s="8">
+      <c r="A355" s="7">
         <v>293</v>
       </c>
       <c r="D355" t="s">
@@ -26062,7 +26096,7 @@
       </c>
     </row>
     <row r="356" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A356" s="8">
+      <c r="A356" s="7">
         <v>372</v>
       </c>
       <c r="D356" t="s">
@@ -26112,7 +26146,7 @@
       </c>
     </row>
     <row r="357" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A357" s="8">
+      <c r="A357" s="7">
         <v>336</v>
       </c>
       <c r="D357" t="s">
@@ -26162,7 +26196,7 @@
       </c>
     </row>
     <row r="358" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A358" s="8">
+      <c r="A358" s="7">
         <v>349</v>
       </c>
       <c r="D358" t="s">
@@ -26212,7 +26246,7 @@
       </c>
     </row>
     <row r="359" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A359" s="8">
+      <c r="A359" s="7">
         <v>325</v>
       </c>
       <c r="D359" t="s">
@@ -26262,7 +26296,7 @@
       </c>
     </row>
     <row r="360" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A360" s="8">
+      <c r="A360" s="7">
         <v>286</v>
       </c>
       <c r="D360" t="s">
@@ -26312,7 +26346,7 @@
       </c>
     </row>
     <row r="361" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A361" s="8">
+      <c r="A361" s="7">
         <v>287</v>
       </c>
       <c r="D361" t="s">
@@ -26362,7 +26396,7 @@
       </c>
     </row>
     <row r="362" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A362" s="8">
+      <c r="A362" s="7">
         <v>317</v>
       </c>
       <c r="D362" t="s">
@@ -26412,7 +26446,7 @@
       </c>
     </row>
     <row r="363" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A363" s="8">
+      <c r="A363" s="7">
         <v>347</v>
       </c>
       <c r="D363" t="s">
@@ -26462,7 +26496,7 @@
       </c>
     </row>
     <row r="364" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A364" s="8">
+      <c r="A364" s="7">
         <v>299</v>
       </c>
       <c r="D364" t="s">
@@ -26512,7 +26546,7 @@
       </c>
     </row>
     <row r="365" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A365" s="8">
+      <c r="A365" s="7">
         <v>344</v>
       </c>
       <c r="D365" t="s">
@@ -26562,7 +26596,7 @@
       </c>
     </row>
     <row r="366" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A366" s="8">
+      <c r="A366" s="7">
         <v>353</v>
       </c>
       <c r="D366" t="s">
@@ -26612,7 +26646,7 @@
       </c>
     </row>
     <row r="367" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A367" s="8">
+      <c r="A367" s="7">
         <v>354</v>
       </c>
       <c r="D367" t="s">
@@ -26662,7 +26696,7 @@
       </c>
     </row>
     <row r="368" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A368" s="8">
+      <c r="A368" s="7">
         <v>356</v>
       </c>
       <c r="D368" t="s">
@@ -26712,7 +26746,7 @@
       </c>
     </row>
     <row r="369" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A369" s="8">
+      <c r="A369" s="7">
         <v>358</v>
       </c>
       <c r="D369" t="s">
@@ -26762,7 +26796,7 @@
       </c>
     </row>
     <row r="370" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A370" s="8">
+      <c r="A370" s="7">
         <v>363</v>
       </c>
       <c r="D370" t="s">
@@ -26812,7 +26846,7 @@
       </c>
     </row>
     <row r="371" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A371" s="8">
+      <c r="A371" s="7">
         <v>364</v>
       </c>
       <c r="D371" t="s">
@@ -26862,7 +26896,7 @@
       </c>
     </row>
     <row r="372" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A372" s="8">
+      <c r="A372" s="7">
         <v>365</v>
       </c>
       <c r="D372" t="s">
@@ -26912,7 +26946,7 @@
       </c>
     </row>
     <row r="373" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A373" s="8">
+      <c r="A373" s="7">
         <v>366</v>
       </c>
       <c r="D373" t="s">
@@ -26962,7 +26996,7 @@
       </c>
     </row>
     <row r="374" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A374" s="8">
+      <c r="A374" s="7">
         <v>367</v>
       </c>
       <c r="D374" t="s">
@@ -27012,7 +27046,7 @@
       </c>
     </row>
     <row r="375" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A375" s="8">
+      <c r="A375" s="7">
         <v>338</v>
       </c>
       <c r="D375" t="s">
@@ -27062,7 +27096,7 @@
       </c>
     </row>
     <row r="376" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A376" s="8">
+      <c r="A376" s="7">
         <v>351</v>
       </c>
       <c r="D376" t="s">
@@ -27112,7 +27146,7 @@
       </c>
     </row>
     <row r="377" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A377" s="8">
+      <c r="A377" s="7">
         <v>374</v>
       </c>
       <c r="D377" t="s">
@@ -27159,7 +27193,7 @@
       </c>
     </row>
     <row r="378" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A378" s="8">
+      <c r="A378" s="7">
         <v>376</v>
       </c>
       <c r="D378" t="s">
@@ -27206,7 +27240,7 @@
       </c>
     </row>
     <row r="379" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A379" s="8">
+      <c r="A379" s="7">
         <v>373</v>
       </c>
       <c r="D379" t="s">
@@ -27251,12 +27285,12 @@
       <c r="T379" t="b">
         <v>0</v>
       </c>
-      <c r="V379" t="s">
+      <c r="V379" s="13" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="380" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A380" s="8">
+      <c r="A380" s="7">
         <v>375</v>
       </c>
       <c r="D380" t="s">
@@ -27302,8 +27336,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A381" s="8">
+    <row r="381" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A381" s="7">
         <v>377</v>
       </c>
       <c r="D381" t="s">
@@ -27348,12 +27382,12 @@
       <c r="T381" t="b">
         <v>0</v>
       </c>
-      <c r="V381" t="s">
+      <c r="V381" s="13" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="382" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A382" s="8">
+    <row r="382" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A382" s="7">
         <v>380</v>
       </c>
       <c r="D382" t="s">
@@ -27398,12 +27432,12 @@
       <c r="T382" t="b">
         <v>0</v>
       </c>
-      <c r="V382" t="s">
+      <c r="V382" s="13" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="383" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A383" s="8">
+      <c r="A383" s="7">
         <v>378</v>
       </c>
       <c r="D383" t="s">
@@ -27445,12 +27479,12 @@
       <c r="T383" t="b">
         <v>0</v>
       </c>
-      <c r="V383" t="s">
+      <c r="V383" s="13" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="384" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A384" s="8">
+    <row r="384" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A384" s="7">
         <v>381</v>
       </c>
       <c r="D384" t="s">
@@ -27495,12 +27529,12 @@
       <c r="T384" t="b">
         <v>0</v>
       </c>
-      <c r="V384" t="s">
+      <c r="V384" s="13" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="385" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A385" s="8">
+    <row r="385" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A385" s="7">
         <v>379</v>
       </c>
       <c r="D385" t="s">
@@ -27545,12 +27579,12 @@
       <c r="T385" t="b">
         <v>0</v>
       </c>
-      <c r="V385" t="s">
+      <c r="V385" s="13" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="386" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A386" s="8">
+    <row r="386" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A386" s="7">
         <v>382</v>
       </c>
       <c r="D386" t="s">
@@ -27595,12 +27629,12 @@
       <c r="T386" t="b">
         <v>0</v>
       </c>
-      <c r="V386" t="s">
+      <c r="V386" s="13" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="387" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A387" s="8">
+    <row r="387" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A387" s="7">
         <v>383</v>
       </c>
       <c r="D387" t="s">
@@ -27645,12 +27679,12 @@
       <c r="T387" t="b">
         <v>0</v>
       </c>
-      <c r="V387" t="s">
+      <c r="V387" s="13" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="388" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A388" s="8">
+    <row r="388" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A388" s="7">
         <v>461</v>
       </c>
       <c r="D388" t="s">
@@ -27695,12 +27729,12 @@
       <c r="T388" t="b">
         <v>0</v>
       </c>
-      <c r="V388" t="s">
+      <c r="V388" s="13" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="389" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A389" s="8">
+    <row r="389" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A389" s="7">
         <v>384</v>
       </c>
       <c r="D389" t="s">
@@ -27745,12 +27779,12 @@
       <c r="T389" t="b">
         <v>0</v>
       </c>
-      <c r="V389" t="s">
+      <c r="V389" s="13" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="390" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A390" s="8">
+    <row r="390" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A390" s="7">
         <v>386</v>
       </c>
       <c r="D390" t="s">
@@ -27795,12 +27829,12 @@
       <c r="T390" t="b">
         <v>0</v>
       </c>
-      <c r="V390" t="s">
+      <c r="V390" s="13" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="391" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A391" s="8">
+    <row r="391" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A391" s="7">
         <v>388</v>
       </c>
       <c r="D391" t="s">
@@ -27845,12 +27879,12 @@
       <c r="T391" t="b">
         <v>0</v>
       </c>
-      <c r="V391" t="s">
+      <c r="V391" s="13" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="392" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A392" s="8">
+    <row r="392" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A392" s="7">
         <v>389</v>
       </c>
       <c r="D392" t="s">
@@ -27895,12 +27929,12 @@
       <c r="T392" t="b">
         <v>0</v>
       </c>
-      <c r="V392" t="s">
+      <c r="V392" s="13" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="393" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A393" s="8">
+    <row r="393" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A393" s="7">
         <v>390</v>
       </c>
       <c r="D393" t="s">
@@ -27945,12 +27979,12 @@
       <c r="T393" t="b">
         <v>0</v>
       </c>
-      <c r="V393" t="s">
+      <c r="V393" s="13" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="394" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A394" s="8">
+    <row r="394" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A394" s="7">
         <v>391</v>
       </c>
       <c r="D394" t="s">
@@ -27995,12 +28029,12 @@
       <c r="T394" t="b">
         <v>0</v>
       </c>
-      <c r="V394" t="s">
+      <c r="V394" s="13" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="395" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A395" s="8">
+    <row r="395" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A395" s="7">
         <v>387</v>
       </c>
       <c r="D395" t="s">
@@ -28045,12 +28079,12 @@
       <c r="T395" t="b">
         <v>0</v>
       </c>
-      <c r="V395" t="s">
+      <c r="V395" s="13" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="396" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A396" s="8">
+    <row r="396" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A396" s="7">
         <v>404</v>
       </c>
       <c r="D396" t="s">
@@ -28095,12 +28129,12 @@
       <c r="T396" t="b">
         <v>0</v>
       </c>
-      <c r="V396" t="s">
+      <c r="V396" s="13" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="397" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A397" s="8">
+    <row r="397" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A397" s="7">
         <v>410</v>
       </c>
       <c r="D397" t="s">
@@ -28145,12 +28179,12 @@
       <c r="T397" t="b">
         <v>0</v>
       </c>
-      <c r="V397" t="s">
+      <c r="V397" s="13" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="398" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A398" s="8">
+    <row r="398" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A398" s="7">
         <v>416</v>
       </c>
       <c r="D398" t="s">
@@ -28195,12 +28229,12 @@
       <c r="T398" t="b">
         <v>0</v>
       </c>
-      <c r="V398" t="s">
+      <c r="V398" s="13" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="399" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A399" s="8">
+      <c r="A399" s="7">
         <v>403</v>
       </c>
       <c r="D399" t="s">
@@ -28242,12 +28276,12 @@
       <c r="T399" t="b">
         <v>0</v>
       </c>
-      <c r="V399" t="s">
+      <c r="V399" s="13" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="400" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A400" s="8">
+    <row r="400" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A400" s="7">
         <v>395</v>
       </c>
       <c r="D400" t="s">
@@ -28292,12 +28326,12 @@
       <c r="T400" t="b">
         <v>0</v>
       </c>
-      <c r="V400" t="s">
+      <c r="V400" s="13" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="401" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A401" s="8">
+    <row r="401" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A401" s="7">
         <v>396</v>
       </c>
       <c r="D401" t="s">
@@ -28342,12 +28376,12 @@
       <c r="T401" t="b">
         <v>0</v>
       </c>
-      <c r="V401" t="s">
+      <c r="V401" s="13" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A402" s="8">
+    <row r="402" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A402" s="7">
         <v>397</v>
       </c>
       <c r="D402" t="s">
@@ -28392,12 +28426,12 @@
       <c r="T402" t="b">
         <v>0</v>
       </c>
-      <c r="V402" t="s">
+      <c r="V402" s="13" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A403" s="8">
+    <row r="403" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A403" s="7">
         <v>398</v>
       </c>
       <c r="D403" t="s">
@@ -28442,12 +28476,12 @@
       <c r="T403" t="b">
         <v>0</v>
       </c>
-      <c r="V403" t="s">
+      <c r="V403" s="13" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="404" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A404" s="8">
+    <row r="404" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A404" s="7">
         <v>407</v>
       </c>
       <c r="D404" t="s">
@@ -28492,12 +28526,12 @@
       <c r="T404" t="b">
         <v>0</v>
       </c>
-      <c r="V404" t="s">
+      <c r="V404" s="13" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A405" s="8">
+    <row r="405" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A405" s="7">
         <v>408</v>
       </c>
       <c r="D405" t="s">
@@ -28542,12 +28576,12 @@
       <c r="T405" t="b">
         <v>0</v>
       </c>
-      <c r="V405" t="s">
+      <c r="V405" s="13" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="406" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A406" s="8">
+    <row r="406" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A406" s="7">
         <v>409</v>
       </c>
       <c r="D406" t="s">
@@ -28592,12 +28626,12 @@
       <c r="T406" t="b">
         <v>0</v>
       </c>
-      <c r="V406" t="s">
+      <c r="V406" s="13" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A407" s="8">
+    <row r="407" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A407" s="7">
         <v>399</v>
       </c>
       <c r="D407" t="s">
@@ -28642,12 +28676,12 @@
       <c r="T407" t="b">
         <v>0</v>
       </c>
-      <c r="V407" t="s">
+      <c r="V407" s="13" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="408" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A408" s="8">
+    <row r="408" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A408" s="7">
         <v>402</v>
       </c>
       <c r="D408" t="s">
@@ -28692,12 +28726,12 @@
       <c r="T408" t="b">
         <v>0</v>
       </c>
-      <c r="V408" t="s">
+      <c r="V408" s="13" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="409" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A409" s="8">
+    <row r="409" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A409" s="7">
         <v>405</v>
       </c>
       <c r="D409" t="s">
@@ -28742,12 +28776,12 @@
       <c r="T409" t="b">
         <v>0</v>
       </c>
-      <c r="V409" t="s">
+      <c r="V409" s="13" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="410" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A410" s="8">
+    <row r="410" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A410" s="7">
         <v>412</v>
       </c>
       <c r="D410" t="s">
@@ -28792,12 +28826,12 @@
       <c r="T410" t="b">
         <v>0</v>
       </c>
-      <c r="V410" t="s">
+      <c r="V410" s="13" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="411" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A411" s="8">
+    <row r="411" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A411" s="7">
         <v>415</v>
       </c>
       <c r="D411" t="s">
@@ -28842,12 +28876,12 @@
       <c r="T411" t="b">
         <v>0</v>
       </c>
-      <c r="V411" t="s">
+      <c r="V411" s="13" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="412" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A412" s="8">
+    <row r="412" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A412" s="7">
         <v>413</v>
       </c>
       <c r="D412" t="s">
@@ -28892,12 +28926,12 @@
       <c r="T412" t="b">
         <v>0</v>
       </c>
-      <c r="V412" t="s">
+      <c r="V412" s="13" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="413" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A413" s="8">
+    <row r="413" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A413" s="7">
         <v>414</v>
       </c>
       <c r="D413" t="s">
@@ -28942,12 +28976,12 @@
       <c r="T413" t="b">
         <v>0</v>
       </c>
-      <c r="V413" t="s">
+      <c r="V413" s="13" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="414" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A414" s="8">
+    <row r="414" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A414" s="7">
         <v>423</v>
       </c>
       <c r="D414" t="s">
@@ -28992,12 +29026,12 @@
       <c r="T414" t="b">
         <v>0</v>
       </c>
-      <c r="V414" t="s">
+      <c r="V414" s="13" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="415" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A415" s="8">
+    <row r="415" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A415" s="7">
         <v>424</v>
       </c>
       <c r="D415" t="s">
@@ -29042,12 +29076,12 @@
       <c r="T415" t="b">
         <v>0</v>
       </c>
-      <c r="V415" t="s">
+      <c r="V415" s="13" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="416" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A416" s="8">
+    <row r="416" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A416" s="7">
         <v>406</v>
       </c>
       <c r="D416" t="s">
@@ -29092,12 +29126,12 @@
       <c r="T416" t="b">
         <v>0</v>
       </c>
-      <c r="V416" t="s">
+      <c r="V416" s="13" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A417" s="8">
+    <row r="417" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A417" s="7">
         <v>426</v>
       </c>
       <c r="D417" t="s">
@@ -29142,12 +29176,12 @@
       <c r="T417" t="b">
         <v>0</v>
       </c>
-      <c r="V417" t="s">
+      <c r="V417" s="13" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="418" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A418" s="8">
+    <row r="418" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A418" s="7">
         <v>427</v>
       </c>
       <c r="D418" t="s">
@@ -29192,12 +29226,12 @@
       <c r="T418" t="b">
         <v>0</v>
       </c>
-      <c r="V418" t="s">
+      <c r="V418" s="13" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A419" s="8">
+    <row r="419" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A419" s="7">
         <v>430</v>
       </c>
       <c r="D419" t="s">
@@ -29242,12 +29276,12 @@
       <c r="T419" t="b">
         <v>0</v>
       </c>
-      <c r="V419" t="s">
+      <c r="V419" s="13" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="420" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A420" s="8">
+    <row r="420" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A420" s="7">
         <v>433</v>
       </c>
       <c r="D420" t="s">
@@ -29292,12 +29326,12 @@
       <c r="T420" t="b">
         <v>0</v>
       </c>
-      <c r="V420" t="s">
+      <c r="V420" s="13" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="421" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A421" s="8">
+    <row r="421" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A421" s="7">
         <v>441</v>
       </c>
       <c r="D421" t="s">
@@ -29342,12 +29376,12 @@
       <c r="T421" t="b">
         <v>0</v>
       </c>
-      <c r="V421" t="s">
+      <c r="V421" s="13" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="422" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A422" s="8">
+    <row r="422" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A422" s="7">
         <v>429</v>
       </c>
       <c r="D422" t="s">
@@ -29392,12 +29426,12 @@
       <c r="T422" t="b">
         <v>0</v>
       </c>
-      <c r="V422" t="s">
+      <c r="V422" s="13" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A423" s="8">
+    <row r="423" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A423" s="7">
         <v>431</v>
       </c>
       <c r="D423" t="s">
@@ -29442,12 +29476,12 @@
       <c r="T423" t="b">
         <v>0</v>
       </c>
-      <c r="V423" t="s">
+      <c r="V423" s="13" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A424" s="8">
+    <row r="424" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A424" s="7">
         <v>432</v>
       </c>
       <c r="D424" t="s">
@@ -29492,12 +29526,12 @@
       <c r="T424" t="b">
         <v>0</v>
       </c>
-      <c r="V424" t="s">
+      <c r="V424" s="13" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="425" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A425" s="8">
+    <row r="425" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A425" s="7">
         <v>417</v>
       </c>
       <c r="D425" t="s">
@@ -29542,12 +29576,12 @@
       <c r="T425" t="b">
         <v>0</v>
       </c>
-      <c r="V425" t="s">
+      <c r="V425" s="13" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A426" s="8">
+    <row r="426" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A426" s="7">
         <v>419</v>
       </c>
       <c r="D426" t="s">
@@ -29592,12 +29626,12 @@
       <c r="T426" t="b">
         <v>0</v>
       </c>
-      <c r="V426" t="s">
+      <c r="V426" s="13" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A427" s="8">
+    <row r="427" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A427" s="7">
         <v>434</v>
       </c>
       <c r="D427" t="s">
@@ -29642,12 +29676,12 @@
       <c r="T427" t="b">
         <v>0</v>
       </c>
-      <c r="V427" t="s">
+      <c r="V427" s="13" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A428" s="8">
+    <row r="428" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A428" s="7">
         <v>435</v>
       </c>
       <c r="D428" t="s">
@@ -29692,12 +29726,12 @@
       <c r="T428" t="b">
         <v>0</v>
       </c>
-      <c r="V428" t="s">
+      <c r="V428" s="13" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="429" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A429" s="8">
+    <row r="429" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A429" s="7">
         <v>436</v>
       </c>
       <c r="D429" t="s">
@@ -29742,12 +29776,12 @@
       <c r="T429" t="b">
         <v>0</v>
       </c>
-      <c r="V429" t="s">
+      <c r="V429" s="13" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A430" s="8">
+    <row r="430" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A430" s="7">
         <v>437</v>
       </c>
       <c r="D430" t="s">
@@ -29792,12 +29826,12 @@
       <c r="T430" t="b">
         <v>0</v>
       </c>
-      <c r="V430" t="s">
+      <c r="V430" s="13" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="431" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A431" s="8">
+    <row r="431" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A431" s="7">
         <v>420</v>
       </c>
       <c r="D431" t="s">
@@ -29842,12 +29876,12 @@
       <c r="T431" t="b">
         <v>0</v>
       </c>
-      <c r="V431" t="s">
+      <c r="V431" s="13" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A432" s="8">
+    <row r="432" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A432" s="7">
         <v>438</v>
       </c>
       <c r="D432" t="s">
@@ -29892,12 +29926,12 @@
       <c r="T432" t="b">
         <v>0</v>
       </c>
-      <c r="V432" t="s">
+      <c r="V432" s="13" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="433" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A433" s="8">
+    <row r="433" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A433" s="7">
         <v>439</v>
       </c>
       <c r="D433" t="s">
@@ -29942,12 +29976,12 @@
       <c r="T433" t="b">
         <v>0</v>
       </c>
-      <c r="V433" t="s">
+      <c r="V433" s="13" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="434" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A434" s="8">
+    <row r="434" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A434" s="7">
         <v>440</v>
       </c>
       <c r="D434" t="s">
@@ -29992,12 +30026,12 @@
       <c r="T434" t="b">
         <v>0</v>
       </c>
-      <c r="V434" t="s">
+      <c r="V434" s="13" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="435" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A435" s="8">
+    <row r="435" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A435" s="7">
         <v>400</v>
       </c>
       <c r="D435" t="s">
@@ -30042,12 +30076,12 @@
       <c r="T435" t="b">
         <v>0</v>
       </c>
-      <c r="V435" t="s">
+      <c r="V435" s="13" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="436" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A436" s="8">
+    <row r="436" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A436" s="7">
         <v>401</v>
       </c>
       <c r="D436" t="s">
@@ -30092,12 +30126,12 @@
       <c r="T436" t="b">
         <v>0</v>
       </c>
-      <c r="V436" t="s">
+      <c r="V436" s="13" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="437" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A437" s="8">
+    <row r="437" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A437" s="7">
         <v>411</v>
       </c>
       <c r="D437" t="s">
@@ -30142,12 +30176,12 @@
       <c r="T437" t="b">
         <v>0</v>
       </c>
-      <c r="V437" t="s">
+      <c r="V437" s="13" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="438" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A438" s="8">
+    <row r="438" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A438" s="7">
         <v>421</v>
       </c>
       <c r="D438" t="s">
@@ -30192,12 +30226,12 @@
       <c r="T438" t="b">
         <v>0</v>
       </c>
-      <c r="V438" t="s">
+      <c r="V438" s="13" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="439" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A439" s="8">
+    <row r="439" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A439" s="7">
         <v>442</v>
       </c>
       <c r="D439" t="s">
@@ -30242,12 +30276,12 @@
       <c r="T439" t="b">
         <v>0</v>
       </c>
-      <c r="V439" t="s">
+      <c r="V439" s="13" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="440" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A440" s="8">
+    <row r="440" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A440" s="7">
         <v>443</v>
       </c>
       <c r="D440" t="s">
@@ -30292,12 +30326,12 @@
       <c r="T440" t="b">
         <v>0</v>
       </c>
-      <c r="V440" t="s">
+      <c r="V440" s="13" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="441" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A441" s="8">
+    <row r="441" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A441" s="7">
         <v>422</v>
       </c>
       <c r="D441" t="s">
@@ -30342,12 +30376,12 @@
       <c r="T441" t="b">
         <v>0</v>
       </c>
-      <c r="V441" t="s">
+      <c r="V441" s="13" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="442" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A442" s="8">
+    <row r="442" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A442" s="7">
         <v>444</v>
       </c>
       <c r="D442" t="s">
@@ -30392,12 +30426,12 @@
       <c r="T442" t="b">
         <v>0</v>
       </c>
-      <c r="V442" t="s">
+      <c r="V442" s="13" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="443" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A443" s="8">
+    <row r="443" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A443" s="7">
         <v>445</v>
       </c>
       <c r="D443" t="s">
@@ -30442,12 +30476,12 @@
       <c r="T443" t="b">
         <v>0</v>
       </c>
-      <c r="V443" t="s">
+      <c r="V443" s="13" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="444" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A444" s="8">
+    <row r="444" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A444" s="7">
         <v>446</v>
       </c>
       <c r="D444" t="s">
@@ -30492,12 +30526,12 @@
       <c r="T444" t="b">
         <v>0</v>
       </c>
-      <c r="V444" t="s">
+      <c r="V444" s="13" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="445" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A445" s="8">
+    <row r="445" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A445" s="7">
         <v>447</v>
       </c>
       <c r="D445" t="s">
@@ -30542,12 +30576,12 @@
       <c r="T445" t="b">
         <v>0</v>
       </c>
-      <c r="V445" t="s">
+      <c r="V445" s="13" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="446" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A446" s="8">
+    <row r="446" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A446" s="7">
         <v>425</v>
       </c>
       <c r="D446" t="s">
@@ -30592,12 +30626,12 @@
       <c r="T446" t="b">
         <v>0</v>
       </c>
-      <c r="V446" t="s">
+      <c r="V446" s="13" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="447" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A447" s="8">
+    <row r="447" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A447" s="7">
         <v>428</v>
       </c>
       <c r="D447" t="s">
@@ -30642,12 +30676,12 @@
       <c r="T447" t="b">
         <v>0</v>
       </c>
-      <c r="V447" t="s">
+      <c r="V447" s="13" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="448" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A448" s="8">
+    <row r="448" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A448" s="7">
         <v>418</v>
       </c>
       <c r="D448" t="s">
@@ -30692,12 +30726,12 @@
       <c r="T448" t="b">
         <v>0</v>
       </c>
-      <c r="V448" t="s">
+      <c r="V448" s="13" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="449" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A449" s="8">
+      <c r="A449" s="7">
         <v>448</v>
       </c>
       <c r="D449" t="s">
@@ -30739,12 +30773,12 @@
       <c r="T449" t="b">
         <v>0</v>
       </c>
-      <c r="V449" t="s">
+      <c r="V449" s="13" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="450" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A450" s="8">
+    <row r="450" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A450" s="7">
         <v>801</v>
       </c>
       <c r="D450" t="s">
@@ -30789,12 +30823,12 @@
       <c r="T450" t="b">
         <v>0</v>
       </c>
-      <c r="V450" t="s">
+      <c r="V450" s="13" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="451" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A451" s="8">
+    <row r="451" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A451" s="7">
         <v>802</v>
       </c>
       <c r="D451" t="s">
@@ -30839,12 +30873,12 @@
       <c r="T451" t="b">
         <v>0</v>
       </c>
-      <c r="V451" t="s">
+      <c r="V451" s="13" t="s">
         <v>1796</v>
       </c>
     </row>
     <row r="452" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A452" s="8">
+      <c r="A452" s="7">
         <v>385</v>
       </c>
       <c r="D452" t="s">
@@ -30890,8 +30924,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A453" s="8">
+    <row r="453" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A453" s="7">
         <v>454</v>
       </c>
       <c r="D453" t="s">
@@ -30936,12 +30970,12 @@
       <c r="T453" t="b">
         <v>0</v>
       </c>
-      <c r="V453" t="s">
+      <c r="V453" s="13" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="454" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A454" s="8">
+    <row r="454" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A454" s="7">
         <v>455</v>
       </c>
       <c r="D454" t="s">
@@ -30986,12 +31020,12 @@
       <c r="T454" t="b">
         <v>0</v>
       </c>
-      <c r="V454" t="s">
+      <c r="V454" s="13" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="455" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A455" s="8">
+    <row r="455" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A455" s="7">
         <v>456</v>
       </c>
       <c r="D455" t="s">
@@ -31036,12 +31070,12 @@
       <c r="T455" t="b">
         <v>0</v>
       </c>
-      <c r="V455" t="s">
+      <c r="V455" s="13" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="456" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A456" s="8">
+    <row r="456" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A456" s="7">
         <v>457</v>
       </c>
       <c r="D456" t="s">
@@ -31086,12 +31120,12 @@
       <c r="T456" t="b">
         <v>0</v>
       </c>
-      <c r="V456" t="s">
+      <c r="V456" s="13" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="457" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A457" s="8">
+      <c r="A457" s="7">
         <v>449</v>
       </c>
       <c r="D457" t="s">
@@ -31138,7 +31172,7 @@
       </c>
     </row>
     <row r="458" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A458" s="8">
+      <c r="A458" s="7">
         <v>450</v>
       </c>
       <c r="D458" t="s">
@@ -31185,7 +31219,7 @@
       </c>
     </row>
     <row r="459" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A459" s="8">
+      <c r="A459" s="7">
         <v>451</v>
       </c>
       <c r="D459" t="s">
@@ -31232,7 +31266,7 @@
       </c>
     </row>
     <row r="460" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A460" s="8">
+      <c r="A460" s="7">
         <v>452</v>
       </c>
       <c r="D460" t="s">
@@ -31279,7 +31313,7 @@
       </c>
     </row>
     <row r="461" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A461" s="8">
+      <c r="A461" s="7">
         <v>453</v>
       </c>
       <c r="D461" t="s">
@@ -31326,7 +31360,7 @@
       </c>
     </row>
     <row r="462" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A462" s="8">
+      <c r="A462" s="7">
         <v>458</v>
       </c>
       <c r="D462" t="s">
@@ -31373,7 +31407,7 @@
       </c>
     </row>
     <row r="463" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A463" s="8">
+      <c r="A463" s="7">
         <v>459</v>
       </c>
       <c r="D463" t="s">
@@ -31420,7 +31454,7 @@
       </c>
     </row>
     <row r="464" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A464" s="8">
+      <c r="A464" s="7">
         <v>460</v>
       </c>
       <c r="D464" t="s">
@@ -31467,7 +31501,7 @@
       </c>
     </row>
     <row r="465" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A465" s="8">
+      <c r="A465" s="7">
         <v>462</v>
       </c>
       <c r="D465" t="s">
@@ -31514,7 +31548,7 @@
       </c>
     </row>
     <row r="466" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A466" s="8">
+      <c r="A466" s="7">
         <v>463</v>
       </c>
       <c r="D466" t="s">
@@ -31561,7 +31595,7 @@
       </c>
     </row>
     <row r="467" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A467" s="8">
+      <c r="A467" s="7">
         <v>532</v>
       </c>
       <c r="D467" t="s">
@@ -31608,7 +31642,7 @@
       </c>
     </row>
     <row r="468" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A468" s="8">
+      <c r="A468" s="7">
         <v>525</v>
       </c>
       <c r="D468" t="s">
@@ -31658,7 +31692,7 @@
       </c>
     </row>
     <row r="469" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A469" s="8">
+      <c r="A469" s="7">
         <v>526</v>
       </c>
       <c r="D469" t="s">
@@ -31708,7 +31742,7 @@
       </c>
     </row>
     <row r="470" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A470" s="8">
+      <c r="A470" s="7">
         <v>520</v>
       </c>
       <c r="D470" t="s">
@@ -31758,7 +31792,7 @@
       </c>
     </row>
     <row r="471" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A471" s="8">
+      <c r="A471" s="7">
         <v>534</v>
       </c>
       <c r="D471" t="s">
@@ -31808,7 +31842,7 @@
       </c>
     </row>
     <row r="472" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A472" s="8">
+      <c r="A472" s="7">
         <v>487</v>
       </c>
       <c r="D472" t="s">
@@ -31858,7 +31892,7 @@
       </c>
     </row>
     <row r="473" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A473" s="8">
+      <c r="A473" s="7">
         <v>545</v>
       </c>
       <c r="D473" t="s">
@@ -31908,7 +31942,7 @@
       </c>
     </row>
     <row r="474" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A474" s="8">
+      <c r="A474" s="7">
         <v>480</v>
       </c>
       <c r="D474" t="s">
@@ -31958,7 +31992,7 @@
       </c>
     </row>
     <row r="475" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A475" s="8">
+      <c r="A475" s="7">
         <v>649</v>
       </c>
       <c r="D475" t="s">
@@ -32008,7 +32042,7 @@
       </c>
     </row>
     <row r="476" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A476" s="8">
+      <c r="A476" s="7">
         <v>622</v>
       </c>
       <c r="D476" t="s">
@@ -32058,7 +32092,7 @@
       </c>
     </row>
     <row r="477" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A477" s="8">
+      <c r="A477" s="7">
         <v>477</v>
       </c>
       <c r="D477" t="s">
@@ -32108,7 +32142,7 @@
       </c>
     </row>
     <row r="478" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A478" s="8">
+      <c r="A478" s="7">
         <v>496</v>
       </c>
       <c r="D478" t="s">
@@ -32158,7 +32192,7 @@
       </c>
     </row>
     <row r="479" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A479" s="8">
+      <c r="A479" s="7">
         <v>498</v>
       </c>
       <c r="D479" t="s">
@@ -32208,7 +32242,7 @@
       </c>
     </row>
     <row r="480" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A480" s="8">
+      <c r="A480" s="7">
         <v>509</v>
       </c>
       <c r="D480" t="s">
@@ -32258,7 +32292,7 @@
       </c>
     </row>
     <row r="481" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A481" s="8">
+      <c r="A481" s="7">
         <v>617</v>
       </c>
       <c r="D481" t="s">
@@ -32308,7 +32342,7 @@
       </c>
     </row>
     <row r="482" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A482" s="8">
+      <c r="A482" s="7">
         <v>633</v>
       </c>
       <c r="D482" t="s">
@@ -32358,7 +32392,7 @@
       </c>
     </row>
     <row r="483" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A483" s="8">
+      <c r="A483" s="7">
         <v>681</v>
       </c>
       <c r="D483" t="s">
@@ -32408,7 +32442,7 @@
       </c>
     </row>
     <row r="484" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A484" s="8">
+      <c r="A484" s="7">
         <v>703</v>
       </c>
       <c r="D484" t="s">
@@ -32455,7 +32489,7 @@
       </c>
     </row>
     <row r="485" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A485" s="8">
+      <c r="A485" s="7">
         <v>503</v>
       </c>
       <c r="D485" t="s">
@@ -32502,7 +32536,7 @@
       </c>
     </row>
     <row r="486" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A486" s="8">
+      <c r="A486" s="7">
         <v>650</v>
       </c>
       <c r="D486" t="s">
@@ -32552,7 +32586,7 @@
       </c>
     </row>
     <row r="487" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A487" s="8">
+      <c r="A487" s="7">
         <v>613</v>
       </c>
       <c r="D487" t="s">
@@ -32599,7 +32633,7 @@
       </c>
     </row>
     <row r="488" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A488" s="8">
+      <c r="A488" s="7">
         <v>688</v>
       </c>
       <c r="D488" t="s">
@@ -32646,7 +32680,7 @@
       </c>
     </row>
     <row r="489" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A489" s="8">
+      <c r="A489" s="7">
         <v>491</v>
       </c>
       <c r="D489" t="s">
@@ -32696,7 +32730,7 @@
       </c>
     </row>
     <row r="490" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A490" s="8">
+      <c r="A490" s="7">
         <v>581</v>
       </c>
       <c r="D490" t="s">
@@ -32746,7 +32780,7 @@
       </c>
     </row>
     <row r="491" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A491" s="8">
+      <c r="A491" s="7">
         <v>664</v>
       </c>
       <c r="D491" t="s">
@@ -32793,7 +32827,7 @@
       </c>
     </row>
     <row r="492" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A492" s="8">
+      <c r="A492" s="7">
         <v>493</v>
       </c>
       <c r="D492" t="s">
@@ -32843,7 +32877,7 @@
       </c>
     </row>
     <row r="493" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A493" s="8">
+      <c r="A493" s="7">
         <v>494</v>
       </c>
       <c r="D493" t="s">
@@ -32893,7 +32927,7 @@
       </c>
     </row>
     <row r="494" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A494" s="8">
+      <c r="A494" s="7">
         <v>495</v>
       </c>
       <c r="D494" t="s">
@@ -32943,7 +32977,7 @@
       </c>
     </row>
     <row r="495" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A495" s="8">
+      <c r="A495" s="7">
         <v>501</v>
       </c>
       <c r="D495" t="s">
@@ -32993,7 +33027,7 @@
       </c>
     </row>
     <row r="496" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A496" s="8">
+      <c r="A496" s="7">
         <v>506</v>
       </c>
       <c r="D496" t="s">
@@ -33043,7 +33077,7 @@
       </c>
     </row>
     <row r="497" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A497" s="8">
+      <c r="A497" s="7">
         <v>641</v>
       </c>
       <c r="D497" t="s">
@@ -33093,7 +33127,7 @@
       </c>
     </row>
     <row r="498" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A498" s="8">
+      <c r="A498" s="7">
         <v>502</v>
       </c>
       <c r="D498" t="s">
@@ -33140,7 +33174,7 @@
       </c>
     </row>
     <row r="499" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A499" s="8">
+      <c r="A499" s="7">
         <v>481</v>
       </c>
       <c r="D499" t="s">
@@ -33187,7 +33221,7 @@
       </c>
     </row>
     <row r="500" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A500" s="8">
+      <c r="A500" s="7">
         <v>499</v>
       </c>
       <c r="D500" t="s">
@@ -33237,7 +33271,7 @@
       </c>
     </row>
     <row r="501" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A501" s="8">
+      <c r="A501" s="7">
         <v>500</v>
       </c>
       <c r="D501" t="s">
@@ -33287,7 +33321,7 @@
       </c>
     </row>
     <row r="502" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A502" s="8">
+      <c r="A502" s="7">
         <v>540</v>
       </c>
       <c r="D502" t="s">
@@ -33334,7 +33368,7 @@
       </c>
     </row>
     <row r="503" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A503" s="8">
+      <c r="A503" s="7">
         <v>507</v>
       </c>
       <c r="D503" t="s">
@@ -33384,7 +33418,7 @@
       </c>
     </row>
     <row r="504" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A504" s="8">
+      <c r="A504" s="7">
         <v>687</v>
       </c>
       <c r="D504" t="s">
@@ -33434,7 +33468,7 @@
       </c>
     </row>
     <row r="505" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A505" s="8">
+      <c r="A505" s="7">
         <v>562</v>
       </c>
       <c r="D505" t="s">
@@ -33484,7 +33518,7 @@
       </c>
     </row>
     <row r="506" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A506" s="8">
+      <c r="A506" s="7">
         <v>488</v>
       </c>
       <c r="D506" t="s">
@@ -33531,7 +33565,7 @@
       </c>
     </row>
     <row r="507" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A507" s="8">
+      <c r="A507" s="7">
         <v>511</v>
       </c>
       <c r="D507" t="s">
@@ -33581,7 +33615,7 @@
       </c>
     </row>
     <row r="508" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A508" s="8">
+      <c r="A508" s="7">
         <v>519</v>
       </c>
       <c r="D508" t="s">
@@ -33631,7 +33665,7 @@
       </c>
     </row>
     <row r="509" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A509" s="8">
+      <c r="A509" s="7">
         <v>508</v>
       </c>
       <c r="D509" t="s">
@@ -33678,7 +33712,7 @@
       </c>
     </row>
     <row r="510" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A510" s="8">
+      <c r="A510" s="7">
         <v>518</v>
       </c>
       <c r="D510" t="s">
@@ -33728,7 +33762,7 @@
       </c>
     </row>
     <row r="511" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A511" s="8">
+      <c r="A511" s="7">
         <v>528</v>
       </c>
       <c r="D511" t="s">
@@ -33778,7 +33812,7 @@
       </c>
     </row>
     <row r="512" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A512" s="8">
+      <c r="A512" s="7">
         <v>529</v>
       </c>
       <c r="D512" t="s">
@@ -33828,7 +33862,7 @@
       </c>
     </row>
     <row r="513" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A513" s="8">
+      <c r="A513" s="7">
         <v>512</v>
       </c>
       <c r="D513" t="s">
@@ -33878,7 +33912,7 @@
       </c>
     </row>
     <row r="514" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A514" s="8">
+      <c r="A514" s="7">
         <v>522</v>
       </c>
       <c r="D514" t="s">
@@ -33925,7 +33959,7 @@
       </c>
     </row>
     <row r="515" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A515" s="8">
+      <c r="A515" s="7">
         <v>538</v>
       </c>
       <c r="D515" t="s">
@@ -33972,7 +34006,7 @@
       </c>
     </row>
     <row r="516" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A516" s="8">
+      <c r="A516" s="7">
         <v>642</v>
       </c>
       <c r="D516" t="s">
@@ -34019,7 +34053,7 @@
       </c>
     </row>
     <row r="517" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A517" s="8">
+      <c r="A517" s="7">
         <v>746</v>
       </c>
       <c r="D517" t="s">
@@ -34066,7 +34100,7 @@
       </c>
     </row>
     <row r="518" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A518" s="8">
+      <c r="A518" s="7">
         <v>470</v>
       </c>
       <c r="D518" t="s">
@@ -34116,7 +34150,7 @@
       </c>
     </row>
     <row r="519" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A519" s="8">
+      <c r="A519" s="7">
         <v>474</v>
       </c>
       <c r="D519" t="s">
@@ -34163,7 +34197,7 @@
       </c>
     </row>
     <row r="520" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A520" s="8">
+      <c r="A520" s="7">
         <v>504</v>
       </c>
       <c r="D520" t="s">
@@ -34213,7 +34247,7 @@
       </c>
     </row>
     <row r="521" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A521" s="8">
+      <c r="A521" s="7">
         <v>560</v>
       </c>
       <c r="D521" t="s">
@@ -34263,7 +34297,7 @@
       </c>
     </row>
     <row r="522" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A522" s="8">
+      <c r="A522" s="7">
         <v>568</v>
       </c>
       <c r="D522" t="s">
@@ -34310,7 +34344,7 @@
       </c>
     </row>
     <row r="523" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A523" s="8">
+      <c r="A523" s="7">
         <v>469</v>
       </c>
       <c r="D523" t="s">
@@ -34357,7 +34391,7 @@
       </c>
     </row>
     <row r="524" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A524" s="8">
+      <c r="A524" s="7">
         <v>478</v>
       </c>
       <c r="D524" t="s">
@@ -34407,7 +34441,7 @@
       </c>
     </row>
     <row r="525" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A525" s="8">
+      <c r="A525" s="7">
         <v>543</v>
       </c>
       <c r="D525" t="s">
@@ -34457,7 +34491,7 @@
       </c>
     </row>
     <row r="526" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A526" s="8">
+      <c r="A526" s="7">
         <v>541</v>
       </c>
       <c r="D526" t="s">
@@ -34504,7 +34538,7 @@
       </c>
     </row>
     <row r="527" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A527" s="8">
+      <c r="A527" s="7">
         <v>542</v>
       </c>
       <c r="D527" t="s">
@@ -34554,7 +34588,7 @@
       </c>
     </row>
     <row r="528" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A528" s="8">
+      <c r="A528" s="7">
         <v>561</v>
       </c>
       <c r="D528" t="s">
@@ -34601,7 +34635,7 @@
       </c>
     </row>
     <row r="529" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A529" s="8">
+      <c r="A529" s="7">
         <v>580</v>
       </c>
       <c r="D529" t="s">
@@ -34651,7 +34685,7 @@
       </c>
     </row>
     <row r="530" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A530" s="8">
+      <c r="A530" s="7">
         <v>567</v>
       </c>
       <c r="D530" t="s">
@@ -34701,7 +34735,7 @@
       </c>
     </row>
     <row r="531" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A531" s="8">
+      <c r="A531" s="7">
         <v>569</v>
       </c>
       <c r="D531" t="s">
@@ -34751,7 +34785,7 @@
       </c>
     </row>
     <row r="532" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A532" s="8">
+      <c r="A532" s="7">
         <v>570</v>
       </c>
       <c r="D532" t="s">
@@ -34801,7 +34835,7 @@
       </c>
     </row>
     <row r="533" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A533" s="8">
+      <c r="A533" s="7">
         <v>572</v>
       </c>
       <c r="D533" t="s">
@@ -34848,7 +34882,7 @@
       </c>
     </row>
     <row r="534" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A534" s="8">
+      <c r="A534" s="7">
         <v>551</v>
       </c>
       <c r="D534" t="s">
@@ -34898,7 +34932,7 @@
       </c>
     </row>
     <row r="535" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A535" s="8">
+      <c r="A535" s="7">
         <v>574</v>
       </c>
       <c r="D535" t="s">
@@ -34948,7 +34982,7 @@
       </c>
     </row>
     <row r="536" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A536" s="8">
+      <c r="A536" s="7">
         <v>575</v>
       </c>
       <c r="D536" t="s">
@@ -34998,7 +35032,7 @@
       </c>
     </row>
     <row r="537" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A537" s="8">
+      <c r="A537" s="7">
         <v>576</v>
       </c>
       <c r="D537" t="s">
@@ -35048,7 +35082,7 @@
       </c>
     </row>
     <row r="538" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A538" s="8">
+      <c r="A538" s="7">
         <v>577</v>
       </c>
       <c r="D538" t="s">
@@ -35098,7 +35132,7 @@
       </c>
     </row>
     <row r="539" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A539" s="8">
+      <c r="A539" s="7">
         <v>578</v>
       </c>
       <c r="D539" t="s">
@@ -35148,7 +35182,7 @@
       </c>
     </row>
     <row r="540" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A540" s="8">
+      <c r="A540" s="7">
         <v>579</v>
       </c>
       <c r="D540" t="s">
@@ -35198,7 +35232,7 @@
       </c>
     </row>
     <row r="541" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A541" s="8">
+      <c r="A541" s="7">
         <v>582</v>
       </c>
       <c r="D541" t="s">
@@ -35248,7 +35282,7 @@
       </c>
     </row>
     <row r="542" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A542" s="8">
+      <c r="A542" s="7">
         <v>514</v>
       </c>
       <c r="D542" t="s">
@@ -35298,7 +35332,7 @@
       </c>
     </row>
     <row r="543" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A543" s="8">
+      <c r="A543" s="7">
         <v>585</v>
       </c>
       <c r="D543" t="s">
@@ -35348,7 +35382,7 @@
       </c>
     </row>
     <row r="544" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A544" s="8">
+      <c r="A544" s="7">
         <v>678</v>
       </c>
       <c r="D544" t="s">
@@ -35398,7 +35432,7 @@
       </c>
     </row>
     <row r="545" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A545" s="8">
+      <c r="A545" s="7">
         <v>505</v>
       </c>
       <c r="D545" t="s">
@@ -35448,7 +35482,7 @@
       </c>
     </row>
     <row r="546" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A546" s="8">
+      <c r="A546" s="7">
         <v>521</v>
       </c>
       <c r="D546" t="s">
@@ -35498,7 +35532,7 @@
       </c>
     </row>
     <row r="547" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A547" s="8">
+      <c r="A547" s="7">
         <v>535</v>
       </c>
       <c r="D547" t="s">
@@ -35548,7 +35582,7 @@
       </c>
     </row>
     <row r="548" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A548" s="8">
+      <c r="A548" s="7">
         <v>558</v>
       </c>
       <c r="D548" t="s">
@@ -35598,7 +35632,7 @@
       </c>
     </row>
     <row r="549" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A549" s="8">
+      <c r="A549" s="7">
         <v>605</v>
       </c>
       <c r="D549" t="s">
@@ -35648,7 +35682,7 @@
       </c>
     </row>
     <row r="550" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A550" s="8">
+      <c r="A550" s="7">
         <v>666</v>
       </c>
       <c r="D550" t="s">
@@ -35698,7 +35732,7 @@
       </c>
     </row>
     <row r="551" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A551" s="8">
+      <c r="A551" s="7">
         <v>670</v>
       </c>
       <c r="D551" t="s">
@@ -35748,7 +35782,7 @@
       </c>
     </row>
     <row r="552" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A552" s="8">
+      <c r="A552" s="7">
         <v>671</v>
       </c>
       <c r="D552" t="s">
@@ -35798,7 +35832,7 @@
       </c>
     </row>
     <row r="553" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A553" s="8">
+      <c r="A553" s="7">
         <v>674</v>
       </c>
       <c r="D553" t="s">
@@ -35848,7 +35882,7 @@
       </c>
     </row>
     <row r="554" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A554" s="8">
+      <c r="A554" s="7">
         <v>679</v>
       </c>
       <c r="D554" t="s">
@@ -35898,7 +35932,7 @@
       </c>
     </row>
     <row r="555" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A555" s="8">
+      <c r="A555" s="7">
         <v>682</v>
       </c>
       <c r="D555" t="s">
@@ -35948,7 +35982,7 @@
       </c>
     </row>
     <row r="556" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A556" s="8">
+      <c r="A556" s="7">
         <v>591</v>
       </c>
       <c r="D556" t="s">
@@ -35998,7 +36032,7 @@
       </c>
     </row>
     <row r="557" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A557" s="8">
+      <c r="A557" s="7">
         <v>592</v>
       </c>
       <c r="D557" t="s">
@@ -36048,7 +36082,7 @@
       </c>
     </row>
     <row r="558" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A558" s="8">
+      <c r="A558" s="7">
         <v>593</v>
       </c>
       <c r="D558" t="s">
@@ -36098,7 +36132,7 @@
       </c>
     </row>
     <row r="559" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A559" s="8">
+      <c r="A559" s="7">
         <v>594</v>
       </c>
       <c r="D559" t="s">
@@ -36148,7 +36182,7 @@
       </c>
     </row>
     <row r="560" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A560" s="8">
+      <c r="A560" s="7">
         <v>595</v>
       </c>
       <c r="D560" t="s">
@@ -36198,7 +36232,7 @@
       </c>
     </row>
     <row r="561" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A561" s="8">
+      <c r="A561" s="7">
         <v>588</v>
       </c>
       <c r="D561" t="s">
@@ -36248,7 +36282,7 @@
       </c>
     </row>
     <row r="562" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A562" s="8">
+      <c r="A562" s="7">
         <v>590</v>
       </c>
       <c r="D562" t="s">
@@ -36298,7 +36332,7 @@
       </c>
     </row>
     <row r="563" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A563" s="8">
+      <c r="A563" s="7">
         <v>602</v>
       </c>
       <c r="D563" t="s">
@@ -36348,7 +36382,7 @@
       </c>
     </row>
     <row r="564" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A564" s="8">
+      <c r="A564" s="7">
         <v>539</v>
       </c>
       <c r="D564" t="s">
@@ -36398,7 +36432,7 @@
       </c>
     </row>
     <row r="565" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A565" s="8">
+      <c r="A565" s="7">
         <v>600</v>
       </c>
       <c r="D565" t="s">
@@ -36448,7 +36482,7 @@
       </c>
     </row>
     <row r="566" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A566" s="8">
+      <c r="A566" s="7">
         <v>486</v>
       </c>
       <c r="D566" t="s">
@@ -36498,7 +36532,7 @@
       </c>
     </row>
     <row r="567" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A567" s="8">
+      <c r="A567" s="7">
         <v>490</v>
       </c>
       <c r="D567" t="s">
@@ -36548,7 +36582,7 @@
       </c>
     </row>
     <row r="568" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A568" s="8">
+      <c r="A568" s="7">
         <v>510</v>
       </c>
       <c r="D568" t="s">
@@ -36598,7 +36632,7 @@
       </c>
     </row>
     <row r="569" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A569" s="8">
+      <c r="A569" s="7">
         <v>523</v>
       </c>
       <c r="D569" t="s">
@@ -36648,7 +36682,7 @@
       </c>
     </row>
     <row r="570" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A570" s="8">
+      <c r="A570" s="7">
         <v>524</v>
       </c>
       <c r="D570" t="s">
@@ -36698,7 +36732,7 @@
       </c>
     </row>
     <row r="571" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A571" s="8">
+      <c r="A571" s="7">
         <v>537</v>
       </c>
       <c r="D571" t="s">
@@ -36748,7 +36782,7 @@
       </c>
     </row>
     <row r="572" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A572" s="8">
+      <c r="A572" s="7">
         <v>489</v>
       </c>
       <c r="D572" t="s">
@@ -36798,7 +36832,7 @@
       </c>
     </row>
     <row r="573" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A573" s="8">
+      <c r="A573" s="7">
         <v>566</v>
       </c>
       <c r="D573" t="s">
@@ -36848,7 +36882,7 @@
       </c>
     </row>
     <row r="574" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A574" s="8">
+      <c r="A574" s="7">
         <v>631</v>
       </c>
       <c r="D574" t="s">
@@ -36898,7 +36932,7 @@
       </c>
     </row>
     <row r="575" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A575" s="8">
+      <c r="A575" s="7">
         <v>607</v>
       </c>
       <c r="D575" t="s">
@@ -36948,7 +36982,7 @@
       </c>
     </row>
     <row r="576" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A576" s="8">
+      <c r="A576" s="7">
         <v>608</v>
       </c>
       <c r="D576" t="s">
@@ -36998,7 +37032,7 @@
       </c>
     </row>
     <row r="577" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A577" s="8">
+      <c r="A577" s="7">
         <v>609</v>
       </c>
       <c r="D577" t="s">
@@ -37048,7 +37082,7 @@
       </c>
     </row>
     <row r="578" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A578" s="8">
+      <c r="A578" s="7">
         <v>610</v>
       </c>
       <c r="D578" t="s">
@@ -37098,7 +37132,7 @@
       </c>
     </row>
     <row r="579" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A579" s="8">
+      <c r="A579" s="7">
         <v>611</v>
       </c>
       <c r="D579" t="s">
@@ -37148,7 +37182,7 @@
       </c>
     </row>
     <row r="580" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A580" s="8">
+      <c r="A580" s="7">
         <v>612</v>
       </c>
       <c r="D580" t="s">
@@ -37198,7 +37232,7 @@
       </c>
     </row>
     <row r="581" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A581" s="8">
+      <c r="A581" s="7">
         <v>630</v>
       </c>
       <c r="D581" t="s">
@@ -37248,7 +37282,7 @@
       </c>
     </row>
     <row r="582" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A582" s="8">
+      <c r="A582" s="7">
         <v>586</v>
       </c>
       <c r="D582" t="s">
@@ -37298,7 +37332,7 @@
       </c>
     </row>
     <row r="583" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A583" s="8">
+      <c r="A583" s="7">
         <v>615</v>
       </c>
       <c r="D583" t="s">
@@ -37348,7 +37382,7 @@
       </c>
     </row>
     <row r="584" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A584" s="8">
+      <c r="A584" s="7">
         <v>533</v>
       </c>
       <c r="D584" t="s">
@@ -37398,7 +37432,7 @@
       </c>
     </row>
     <row r="585" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A585" s="8">
+      <c r="A585" s="7">
         <v>616</v>
       </c>
       <c r="D585" t="s">
@@ -37448,7 +37482,7 @@
       </c>
     </row>
     <row r="586" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A586" s="8">
+      <c r="A586" s="7">
         <v>550</v>
       </c>
       <c r="D586" t="s">
@@ -37498,7 +37532,7 @@
       </c>
     </row>
     <row r="587" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A587" s="8">
+      <c r="A587" s="7">
         <v>573</v>
       </c>
       <c r="D587" t="s">
@@ -37548,7 +37582,7 @@
       </c>
     </row>
     <row r="588" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A588" s="8">
+      <c r="A588" s="7">
         <v>623</v>
       </c>
       <c r="D588" t="s">
@@ -37598,7 +37632,7 @@
       </c>
     </row>
     <row r="589" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A589" s="8">
+      <c r="A589" s="7">
         <v>536</v>
       </c>
       <c r="D589" t="s">
@@ -37648,7 +37682,7 @@
       </c>
     </row>
     <row r="590" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A590" s="8">
+      <c r="A590" s="7">
         <v>626</v>
       </c>
       <c r="D590" t="s">
@@ -37698,7 +37732,7 @@
       </c>
     </row>
     <row r="591" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A591" s="8">
+      <c r="A591" s="7">
         <v>627</v>
       </c>
       <c r="D591" t="s">
@@ -37748,7 +37782,7 @@
       </c>
     </row>
     <row r="592" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A592" s="8">
+      <c r="A592" s="7">
         <v>656</v>
       </c>
       <c r="D592" t="s">
@@ -37798,7 +37832,7 @@
       </c>
     </row>
     <row r="593" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A593" s="8">
+      <c r="A593" s="7">
         <v>471</v>
       </c>
       <c r="D593" t="s">
@@ -37848,7 +37882,7 @@
       </c>
     </row>
     <row r="594" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A594" s="8">
+      <c r="A594" s="7">
         <v>472</v>
       </c>
       <c r="D594" t="s">
@@ -37898,7 +37932,7 @@
       </c>
     </row>
     <row r="595" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A595" s="8">
+      <c r="A595" s="7">
         <v>473</v>
       </c>
       <c r="D595" t="s">
@@ -37948,7 +37982,7 @@
       </c>
     </row>
     <row r="596" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A596" s="8">
+      <c r="A596" s="7">
         <v>475</v>
       </c>
       <c r="D596" t="s">
@@ -37998,7 +38032,7 @@
       </c>
     </row>
     <row r="597" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A597" s="8">
+      <c r="A597" s="7">
         <v>476</v>
       </c>
       <c r="D597" t="s">
@@ -38048,7 +38082,7 @@
       </c>
     </row>
     <row r="598" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A598" s="8">
+      <c r="A598" s="7">
         <v>549</v>
       </c>
       <c r="D598" t="s">
@@ -38098,7 +38132,7 @@
       </c>
     </row>
     <row r="599" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A599" s="8">
+      <c r="A599" s="7">
         <v>629</v>
       </c>
       <c r="D599" t="s">
@@ -38148,7 +38182,7 @@
       </c>
     </row>
     <row r="600" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A600" s="8">
+      <c r="A600" s="7">
         <v>467</v>
       </c>
       <c r="D600" t="s">
@@ -38198,7 +38232,7 @@
       </c>
     </row>
     <row r="601" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A601" s="8">
+      <c r="A601" s="7">
         <v>468</v>
       </c>
       <c r="D601" t="s">
@@ -38248,7 +38282,7 @@
       </c>
     </row>
     <row r="602" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A602" s="8">
+      <c r="A602" s="7">
         <v>513</v>
       </c>
       <c r="D602" t="s">
@@ -38298,7 +38332,7 @@
       </c>
     </row>
     <row r="603" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A603" s="8">
+      <c r="A603" s="7">
         <v>552</v>
       </c>
       <c r="D603" t="s">
@@ -38348,7 +38382,7 @@
       </c>
     </row>
     <row r="604" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A604" s="8">
+      <c r="A604" s="7">
         <v>553</v>
       </c>
       <c r="D604" t="s">
@@ -38398,7 +38432,7 @@
       </c>
     </row>
     <row r="605" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A605" s="8">
+      <c r="A605" s="7">
         <v>554</v>
       </c>
       <c r="D605" t="s">
@@ -38448,7 +38482,7 @@
       </c>
     </row>
     <row r="606" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A606" s="8">
+      <c r="A606" s="7">
         <v>555</v>
       </c>
       <c r="D606" t="s">
@@ -38498,7 +38532,7 @@
       </c>
     </row>
     <row r="607" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A607" s="8">
+      <c r="A607" s="7">
         <v>556</v>
       </c>
       <c r="D607" t="s">
@@ -38548,7 +38582,7 @@
       </c>
     </row>
     <row r="608" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A608" s="8">
+      <c r="A608" s="7">
         <v>557</v>
       </c>
       <c r="D608" t="s">
@@ -38598,7 +38632,7 @@
       </c>
     </row>
     <row r="609" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A609" s="8">
+      <c r="A609" s="7">
         <v>559</v>
       </c>
       <c r="D609" t="s">
@@ -38648,7 +38682,7 @@
       </c>
     </row>
     <row r="610" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A610" s="8">
+      <c r="A610" s="7">
         <v>752</v>
       </c>
       <c r="D610" t="s">
@@ -38695,7 +38729,7 @@
       </c>
     </row>
     <row r="611" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A611" s="8">
+      <c r="A611" s="7">
         <v>583</v>
       </c>
       <c r="D611" t="s">
@@ -38742,7 +38776,7 @@
       </c>
     </row>
     <row r="612" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A612" s="8">
+      <c r="A612" s="7">
         <v>658</v>
       </c>
       <c r="D612" t="s">
@@ -38789,7 +38823,7 @@
       </c>
     </row>
     <row r="613" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A613" s="8">
+      <c r="A613" s="7">
         <v>659</v>
       </c>
       <c r="D613" t="s">
@@ -38836,7 +38870,7 @@
       </c>
     </row>
     <row r="614" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A614" s="8">
+      <c r="A614" s="7">
         <v>660</v>
       </c>
       <c r="D614" t="s">
@@ -38883,7 +38917,7 @@
       </c>
     </row>
     <row r="615" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A615" s="8">
+      <c r="A615" s="7">
         <v>661</v>
       </c>
       <c r="D615" t="s">
@@ -38930,7 +38964,7 @@
       </c>
     </row>
     <row r="616" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A616" s="8">
+      <c r="A616" s="7">
         <v>662</v>
       </c>
       <c r="D616" t="s">
@@ -38977,7 +39011,7 @@
       </c>
     </row>
     <row r="617" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A617" s="8">
+      <c r="A617" s="7">
         <v>530</v>
       </c>
       <c r="D617" t="s">
@@ -39027,7 +39061,7 @@
       </c>
     </row>
     <row r="618" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A618" s="8">
+      <c r="A618" s="7">
         <v>697</v>
       </c>
       <c r="D618" t="s">
@@ -39077,7 +39111,7 @@
       </c>
     </row>
     <row r="619" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A619" s="8">
+      <c r="A619" s="7">
         <v>632</v>
       </c>
       <c r="D619" t="s">
@@ -39127,7 +39161,7 @@
       </c>
     </row>
     <row r="620" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A620" s="8">
+      <c r="A620" s="7">
         <v>635</v>
       </c>
       <c r="D620" t="s">
@@ -39177,7 +39211,7 @@
       </c>
     </row>
     <row r="621" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A621" s="8">
+      <c r="A621" s="7">
         <v>497</v>
       </c>
       <c r="D621" t="s">
@@ -39224,7 +39258,7 @@
       </c>
     </row>
     <row r="622" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A622" s="8">
+      <c r="A622" s="7">
         <v>639</v>
       </c>
       <c r="D622" t="s">
@@ -39274,7 +39308,7 @@
       </c>
     </row>
     <row r="623" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A623" s="8">
+      <c r="A623" s="7">
         <v>603</v>
       </c>
       <c r="D623" t="s">
@@ -39324,7 +39358,7 @@
       </c>
     </row>
     <row r="624" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A624" s="8">
+      <c r="A624" s="7">
         <v>643</v>
       </c>
       <c r="D624" t="s">
@@ -39374,7 +39408,7 @@
       </c>
     </row>
     <row r="625" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A625" s="8">
+      <c r="A625" s="7">
         <v>646</v>
       </c>
       <c r="D625" t="s">
@@ -39424,7 +39458,7 @@
       </c>
     </row>
     <row r="626" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A626" s="8">
+      <c r="A626" s="7">
         <v>647</v>
       </c>
       <c r="D626" t="s">
@@ -39474,7 +39508,7 @@
       </c>
     </row>
     <row r="627" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A627" s="8">
+      <c r="A627" s="7">
         <v>648</v>
       </c>
       <c r="D627" t="s">
@@ -39521,7 +39555,7 @@
       </c>
     </row>
     <row r="628" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A628" s="8">
+      <c r="A628" s="7">
         <v>464</v>
       </c>
       <c r="D628" t="s">
@@ -39571,7 +39605,7 @@
       </c>
     </row>
     <row r="629" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A629" s="8">
+      <c r="A629" s="7">
         <v>465</v>
       </c>
       <c r="D629" t="s">
@@ -39618,7 +39652,7 @@
       </c>
     </row>
     <row r="630" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A630" s="8">
+      <c r="A630" s="7">
         <v>466</v>
       </c>
       <c r="D630" t="s">
@@ -39665,7 +39699,7 @@
       </c>
     </row>
     <row r="631" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A631" s="8">
+      <c r="A631" s="7">
         <v>606</v>
       </c>
       <c r="D631" t="s">
@@ -39712,7 +39746,7 @@
       </c>
     </row>
     <row r="632" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A632" s="8">
+      <c r="A632" s="7">
         <v>619</v>
       </c>
       <c r="D632" t="s">
@@ -39759,7 +39793,7 @@
       </c>
     </row>
     <row r="633" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A633" s="8">
+      <c r="A633" s="7">
         <v>620</v>
       </c>
       <c r="D633" t="s">
@@ -39806,7 +39840,7 @@
       </c>
     </row>
     <row r="634" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A634" s="8">
+      <c r="A634" s="7">
         <v>621</v>
       </c>
       <c r="D634" t="s">
@@ -39853,7 +39887,7 @@
       </c>
     </row>
     <row r="635" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A635" s="8">
+      <c r="A635" s="7">
         <v>634</v>
       </c>
       <c r="D635" t="s">
@@ -39903,7 +39937,7 @@
       </c>
     </row>
     <row r="636" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A636" s="8">
+      <c r="A636" s="7">
         <v>636</v>
       </c>
       <c r="D636" t="s">
@@ -39953,7 +39987,7 @@
       </c>
     </row>
     <row r="637" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A637" s="8">
+      <c r="A637" s="7">
         <v>637</v>
       </c>
       <c r="D637" t="s">
@@ -40000,7 +40034,7 @@
       </c>
     </row>
     <row r="638" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A638" s="8">
+      <c r="A638" s="7">
         <v>638</v>
       </c>
       <c r="D638" t="s">
@@ -40047,7 +40081,7 @@
       </c>
     </row>
     <row r="639" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A639" s="8">
+      <c r="A639" s="7">
         <v>640</v>
       </c>
       <c r="D639" t="s">
@@ -40094,7 +40128,7 @@
       </c>
     </row>
     <row r="640" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A640" s="8">
+      <c r="A640" s="7">
         <v>644</v>
       </c>
       <c r="D640" t="s">
@@ -40141,7 +40175,7 @@
       </c>
     </row>
     <row r="641" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A641" s="8">
+      <c r="A641" s="7">
         <v>645</v>
       </c>
       <c r="D641" t="s">
@@ -40188,7 +40222,7 @@
       </c>
     </row>
     <row r="642" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A642" s="8">
+      <c r="A642" s="7">
         <v>654</v>
       </c>
       <c r="D642" t="s">
@@ -40235,7 +40269,7 @@
       </c>
     </row>
     <row r="643" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A643" s="8">
+      <c r="A643" s="7">
         <v>655</v>
       </c>
       <c r="D643" t="s">
@@ -40285,7 +40319,7 @@
       </c>
     </row>
     <row r="644" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A644" s="8">
+      <c r="A644" s="7">
         <v>704</v>
       </c>
       <c r="D644" t="s">
@@ -40332,7 +40366,7 @@
       </c>
     </row>
     <row r="645" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A645" s="8">
+      <c r="A645" s="7">
         <v>706</v>
       </c>
       <c r="D645" t="s">
@@ -40379,7 +40413,7 @@
       </c>
     </row>
     <row r="646" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A646" s="8">
+      <c r="A646" s="7">
         <v>707</v>
       </c>
       <c r="D646" t="s">
@@ -40426,7 +40460,7 @@
       </c>
     </row>
     <row r="647" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A647" s="8">
+      <c r="A647" s="7">
         <v>708</v>
       </c>
       <c r="D647" t="s">
@@ -40473,7 +40507,7 @@
       </c>
     </row>
     <row r="648" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A648" s="8">
+      <c r="A648" s="7">
         <v>709</v>
       </c>
       <c r="D648" t="s">
@@ -40520,7 +40554,7 @@
       </c>
     </row>
     <row r="649" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A649" s="8">
+      <c r="A649" s="7">
         <v>710</v>
       </c>
       <c r="D649" t="s">
@@ -40567,7 +40601,7 @@
       </c>
     </row>
     <row r="650" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A650" s="8">
+      <c r="A650" s="7">
         <v>711</v>
       </c>
       <c r="D650" t="s">
@@ -40614,7 +40648,7 @@
       </c>
     </row>
     <row r="651" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A651" s="8">
+      <c r="A651" s="7">
         <v>712</v>
       </c>
       <c r="D651" t="s">
@@ -40661,7 +40695,7 @@
       </c>
     </row>
     <row r="652" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A652" s="8">
+      <c r="A652" s="7">
         <v>713</v>
       </c>
       <c r="D652" t="s">
@@ -40708,7 +40742,7 @@
       </c>
     </row>
     <row r="653" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A653" s="8">
+      <c r="A653" s="7">
         <v>714</v>
       </c>
       <c r="D653" t="s">
@@ -40755,7 +40789,7 @@
       </c>
     </row>
     <row r="654" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A654" s="8">
+      <c r="A654" s="7">
         <v>715</v>
       </c>
       <c r="D654" t="s">
@@ -40805,7 +40839,7 @@
       </c>
     </row>
     <row r="655" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A655" s="8">
+      <c r="A655" s="7">
         <v>716</v>
       </c>
       <c r="D655" t="s">
@@ -40855,7 +40889,7 @@
       </c>
     </row>
     <row r="656" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A656" s="8">
+      <c r="A656" s="7">
         <v>717</v>
       </c>
       <c r="D656" t="s">
@@ -40902,7 +40936,7 @@
       </c>
     </row>
     <row r="657" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A657" s="8">
+      <c r="A657" s="7">
         <v>718</v>
       </c>
       <c r="D657" t="s">
@@ -40949,7 +40983,7 @@
       </c>
     </row>
     <row r="658" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A658" s="8">
+      <c r="A658" s="7">
         <v>719</v>
       </c>
       <c r="D658" t="s">
@@ -40996,7 +41030,7 @@
       </c>
     </row>
     <row r="659" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A659" s="8">
+      <c r="A659" s="7">
         <v>720</v>
       </c>
       <c r="D659" t="s">
@@ -41043,7 +41077,7 @@
       </c>
     </row>
     <row r="660" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A660" s="8">
+      <c r="A660" s="7">
         <v>721</v>
       </c>
       <c r="D660" t="s">
@@ -41090,7 +41124,7 @@
       </c>
     </row>
     <row r="661" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A661" s="8">
+      <c r="A661" s="7">
         <v>722</v>
       </c>
       <c r="D661" t="s">
@@ -41137,7 +41171,7 @@
       </c>
     </row>
     <row r="662" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A662" s="8">
+      <c r="A662" s="7">
         <v>723</v>
       </c>
       <c r="D662" t="s">
@@ -41184,7 +41218,7 @@
       </c>
     </row>
     <row r="663" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A663" s="8">
+      <c r="A663" s="7">
         <v>724</v>
       </c>
       <c r="D663" t="s">
@@ -41231,7 +41265,7 @@
       </c>
     </row>
     <row r="664" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A664" s="8">
+      <c r="A664" s="7">
         <v>725</v>
       </c>
       <c r="D664" t="s">
@@ -41278,7 +41312,7 @@
       </c>
     </row>
     <row r="665" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A665" s="8">
+      <c r="A665" s="7">
         <v>726</v>
       </c>
       <c r="D665" t="s">
@@ -41325,7 +41359,7 @@
       </c>
     </row>
     <row r="666" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A666" s="8">
+      <c r="A666" s="7">
         <v>727</v>
       </c>
       <c r="D666" t="s">
@@ -41372,7 +41406,7 @@
       </c>
     </row>
     <row r="667" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A667" s="8">
+      <c r="A667" s="7">
         <v>728</v>
       </c>
       <c r="D667" t="s">
@@ -41419,7 +41453,7 @@
       </c>
     </row>
     <row r="668" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A668" s="8">
+      <c r="A668" s="7">
         <v>729</v>
       </c>
       <c r="D668" t="s">
@@ -41466,7 +41500,7 @@
       </c>
     </row>
     <row r="669" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A669" s="8">
+      <c r="A669" s="7">
         <v>730</v>
       </c>
       <c r="D669" t="s">
@@ -41513,7 +41547,7 @@
       </c>
     </row>
     <row r="670" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A670" s="8">
+      <c r="A670" s="7">
         <v>731</v>
       </c>
       <c r="D670" t="s">
@@ -41560,7 +41594,7 @@
       </c>
     </row>
     <row r="671" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A671" s="8">
+      <c r="A671" s="7">
         <v>732</v>
       </c>
       <c r="D671" t="s">
@@ -41607,7 +41641,7 @@
       </c>
     </row>
     <row r="672" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A672" s="8">
+      <c r="A672" s="7">
         <v>733</v>
       </c>
       <c r="D672" t="s">
@@ -41654,7 +41688,7 @@
       </c>
     </row>
     <row r="673" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A673" s="8">
+      <c r="A673" s="7">
         <v>734</v>
       </c>
       <c r="D673" t="s">
@@ -41701,7 +41735,7 @@
       </c>
     </row>
     <row r="674" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A674" s="8">
+      <c r="A674" s="7">
         <v>735</v>
       </c>
       <c r="D674" t="s">
@@ -41748,7 +41782,7 @@
       </c>
     </row>
     <row r="675" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A675" s="8">
+      <c r="A675" s="7">
         <v>736</v>
       </c>
       <c r="D675" t="s">
@@ -41795,7 +41829,7 @@
       </c>
     </row>
     <row r="676" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A676" s="8">
+      <c r="A676" s="7">
         <v>737</v>
       </c>
       <c r="D676" t="s">
@@ -41842,7 +41876,7 @@
       </c>
     </row>
     <row r="677" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A677" s="8">
+      <c r="A677" s="7">
         <v>738</v>
       </c>
       <c r="D677" t="s">
@@ -41889,7 +41923,7 @@
       </c>
     </row>
     <row r="678" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A678" s="8">
+      <c r="A678" s="7">
         <v>739</v>
       </c>
       <c r="D678" t="s">
@@ -41935,8 +41969,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A679" s="8">
+    <row r="679" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A679" s="7">
         <v>740</v>
       </c>
       <c r="D679" t="s">
@@ -41981,12 +42015,12 @@
       <c r="T679" t="b">
         <v>0</v>
       </c>
-      <c r="V679" t="s">
+      <c r="V679" s="13" t="s">
         <v>1667</v>
       </c>
     </row>
     <row r="680" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A680" s="8">
+      <c r="A680" s="7">
         <v>741</v>
       </c>
       <c r="D680" t="s">
@@ -42033,7 +42067,7 @@
       </c>
     </row>
     <row r="681" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A681" s="8">
+      <c r="A681" s="7">
         <v>742</v>
       </c>
       <c r="D681" t="s">
@@ -42080,7 +42114,7 @@
       </c>
     </row>
     <row r="682" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A682" s="8">
+      <c r="A682" s="7">
         <v>743</v>
       </c>
       <c r="D682" t="s">
@@ -42127,7 +42161,7 @@
       </c>
     </row>
     <row r="683" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A683" s="8">
+      <c r="A683" s="7">
         <v>744</v>
       </c>
       <c r="D683" t="s">
@@ -42174,7 +42208,7 @@
       </c>
     </row>
     <row r="684" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A684" s="8">
+      <c r="A684" s="7">
         <v>745</v>
       </c>
       <c r="D684" t="s">
@@ -42221,7 +42255,7 @@
       </c>
     </row>
     <row r="685" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A685" s="8">
+      <c r="A685" s="7">
         <v>747</v>
       </c>
       <c r="D685" t="s">
@@ -42271,7 +42305,7 @@
       </c>
     </row>
     <row r="686" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A686" s="8">
+      <c r="A686" s="7">
         <v>748</v>
       </c>
       <c r="D686" t="s">
@@ -42321,7 +42355,7 @@
       </c>
     </row>
     <row r="687" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A687" s="8">
+      <c r="A687" s="7">
         <v>749</v>
       </c>
       <c r="D687" t="s">
@@ -42368,7 +42402,7 @@
       </c>
     </row>
     <row r="688" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A688" s="8">
+      <c r="A688" s="7">
         <v>750</v>
       </c>
       <c r="D688" t="s">
@@ -42415,7 +42449,7 @@
       </c>
     </row>
     <row r="689" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A689" s="8">
+      <c r="A689" s="7">
         <v>751</v>
       </c>
       <c r="D689" t="s">
@@ -42462,7 +42496,7 @@
       </c>
     </row>
     <row r="690" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A690" s="8">
+      <c r="A690" s="7">
         <v>587</v>
       </c>
       <c r="D690" t="s">
@@ -42512,7 +42546,7 @@
       </c>
     </row>
     <row r="691" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A691" s="8">
+      <c r="A691" s="7">
         <v>614</v>
       </c>
       <c r="D691" t="s">
@@ -42559,7 +42593,7 @@
       </c>
     </row>
     <row r="692" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A692" s="8">
+      <c r="A692" s="7">
         <v>663</v>
       </c>
       <c r="D692" t="s">
@@ -42609,7 +42643,7 @@
       </c>
     </row>
     <row r="693" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A693" s="8">
+      <c r="A693" s="7">
         <v>668</v>
       </c>
       <c r="D693" t="s">
@@ -42659,7 +42693,7 @@
       </c>
     </row>
     <row r="694" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A694" s="8">
+      <c r="A694" s="7">
         <v>492</v>
       </c>
       <c r="D694" t="s">
@@ -42709,7 +42743,7 @@
       </c>
     </row>
     <row r="695" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A695" s="8">
+      <c r="A695" s="7">
         <v>516</v>
       </c>
       <c r="D695" t="s">
@@ -42756,7 +42790,7 @@
       </c>
     </row>
     <row r="696" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A696" s="8">
+      <c r="A696" s="7">
         <v>589</v>
       </c>
       <c r="D696" t="s">
@@ -42803,7 +42837,7 @@
       </c>
     </row>
     <row r="697" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A697" s="8">
+      <c r="A697" s="7">
         <v>665</v>
       </c>
       <c r="D697" t="s">
@@ -42853,7 +42887,7 @@
       </c>
     </row>
     <row r="698" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A698" s="8">
+      <c r="A698" s="7">
         <v>667</v>
       </c>
       <c r="D698" t="s">
@@ -42903,7 +42937,7 @@
       </c>
     </row>
     <row r="699" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A699" s="8">
+      <c r="A699" s="7">
         <v>669</v>
       </c>
       <c r="D699" t="s">
@@ -42953,7 +42987,7 @@
       </c>
     </row>
     <row r="700" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A700" s="8">
+      <c r="A700" s="7">
         <v>672</v>
       </c>
       <c r="D700" t="s">
@@ -43003,7 +43037,7 @@
       </c>
     </row>
     <row r="701" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A701" s="8">
+      <c r="A701" s="7">
         <v>673</v>
       </c>
       <c r="D701" t="s">
@@ -43053,7 +43087,7 @@
       </c>
     </row>
     <row r="702" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A702" s="8">
+      <c r="A702" s="7">
         <v>693</v>
       </c>
       <c r="D702" t="s">
@@ -43100,7 +43134,7 @@
       </c>
     </row>
     <row r="703" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A703" s="8">
+      <c r="A703" s="7">
         <v>675</v>
       </c>
       <c r="D703" t="s">
@@ -43150,7 +43184,7 @@
       </c>
     </row>
     <row r="704" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A704" s="8">
+      <c r="A704" s="7">
         <v>676</v>
       </c>
       <c r="D704" t="s">
@@ -43200,7 +43234,7 @@
       </c>
     </row>
     <row r="705" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A705" s="8">
+      <c r="A705" s="7">
         <v>677</v>
       </c>
       <c r="D705" t="s">
@@ -43250,7 +43284,7 @@
       </c>
     </row>
     <row r="706" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A706" s="8">
+      <c r="A706" s="7">
         <v>683</v>
       </c>
       <c r="D706" t="s">
@@ -43300,7 +43334,7 @@
       </c>
     </row>
     <row r="707" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A707" s="8">
+      <c r="A707" s="7">
         <v>685</v>
       </c>
       <c r="D707" t="s">
@@ -43350,7 +43384,7 @@
       </c>
     </row>
     <row r="708" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A708" s="8">
+      <c r="A708" s="7">
         <v>689</v>
       </c>
       <c r="D708" t="s">
@@ -43397,7 +43431,7 @@
       </c>
     </row>
     <row r="709" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A709" s="8">
+      <c r="A709" s="7">
         <v>690</v>
       </c>
       <c r="D709" t="s">
@@ -43447,7 +43481,7 @@
       </c>
     </row>
     <row r="710" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A710" s="8">
+      <c r="A710" s="7">
         <v>691</v>
       </c>
       <c r="D710" t="s">
@@ -43494,7 +43528,7 @@
       </c>
     </row>
     <row r="711" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A711" s="8">
+      <c r="A711" s="7">
         <v>692</v>
       </c>
       <c r="D711" t="s">
@@ -43544,7 +43578,7 @@
       </c>
     </row>
     <row r="712" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A712" s="8">
+      <c r="A712" s="7">
         <v>686</v>
       </c>
       <c r="D712" t="s">
@@ -43589,12 +43623,12 @@
       <c r="T712" t="b">
         <v>0</v>
       </c>
-      <c r="V712" t="s">
+      <c r="V712" s="13" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="713" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A713" s="8">
+      <c r="A713" s="7">
         <v>694</v>
       </c>
       <c r="D713" t="s">
@@ -43641,7 +43675,7 @@
       </c>
     </row>
     <row r="714" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A714" s="8">
+      <c r="A714" s="7">
         <v>601</v>
       </c>
       <c r="D714" t="s">
@@ -43691,7 +43725,7 @@
       </c>
     </row>
     <row r="715" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A715" s="8">
+      <c r="A715" s="7">
         <v>657</v>
       </c>
       <c r="D715" t="s">
@@ -43738,7 +43772,7 @@
       </c>
     </row>
     <row r="716" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A716" s="8">
+      <c r="A716" s="7">
         <v>695</v>
       </c>
       <c r="D716" t="s">
@@ -43788,7 +43822,7 @@
       </c>
     </row>
     <row r="717" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A717" s="8">
+      <c r="A717" s="7">
         <v>696</v>
       </c>
       <c r="D717" t="s">
@@ -43838,7 +43872,7 @@
       </c>
     </row>
     <row r="718" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A718" s="8">
+      <c r="A718" s="7">
         <v>698</v>
       </c>
       <c r="D718" t="s">
@@ -43888,7 +43922,7 @@
       </c>
     </row>
     <row r="719" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A719" s="8">
+      <c r="A719" s="7">
         <v>699</v>
       </c>
       <c r="D719" t="s">
@@ -43938,7 +43972,7 @@
       </c>
     </row>
     <row r="720" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A720" s="8">
+      <c r="A720" s="7">
         <v>584</v>
       </c>
       <c r="D720" t="s">
@@ -43985,7 +44019,7 @@
       </c>
     </row>
     <row r="721" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A721" s="8">
+      <c r="A721" s="7">
         <v>531</v>
       </c>
       <c r="D721" t="s">
@@ -44035,7 +44069,7 @@
       </c>
     </row>
     <row r="722" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A722" s="8">
+      <c r="A722" s="7">
         <v>563</v>
       </c>
       <c r="D722" t="s">
@@ -44085,7 +44119,7 @@
       </c>
     </row>
     <row r="723" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A723" s="8">
+      <c r="A723" s="7">
         <v>564</v>
       </c>
       <c r="D723" t="s">
@@ -44135,7 +44169,7 @@
       </c>
     </row>
     <row r="724" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A724" s="8">
+      <c r="A724" s="7">
         <v>651</v>
       </c>
       <c r="D724" t="s">
@@ -44185,7 +44219,7 @@
       </c>
     </row>
     <row r="725" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A725" s="8">
+      <c r="A725" s="7">
         <v>653</v>
       </c>
       <c r="D725" t="s">
@@ -44232,7 +44266,7 @@
       </c>
     </row>
     <row r="726" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A726" s="8">
+      <c r="A726" s="7">
         <v>479</v>
       </c>
       <c r="D726" t="s">
@@ -44282,7 +44316,7 @@
       </c>
     </row>
     <row r="727" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A727" s="8">
+      <c r="A727" s="7">
         <v>517</v>
       </c>
       <c r="D727" t="s">
@@ -44332,7 +44366,7 @@
       </c>
     </row>
     <row r="728" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A728" s="8">
+      <c r="A728" s="7">
         <v>547</v>
       </c>
       <c r="D728" t="s">
@@ -44382,7 +44416,7 @@
       </c>
     </row>
     <row r="729" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A729" s="8">
+      <c r="A729" s="7">
         <v>565</v>
       </c>
       <c r="D729" t="s">
@@ -44432,7 +44466,7 @@
       </c>
     </row>
     <row r="730" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A730" s="8">
+      <c r="A730" s="7">
         <v>705</v>
       </c>
       <c r="D730" t="s">
@@ -44482,7 +44516,7 @@
       </c>
     </row>
     <row r="731" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A731" s="8">
+      <c r="A731" s="7">
         <v>546</v>
       </c>
       <c r="D731" t="s">
@@ -44532,7 +44566,7 @@
       </c>
     </row>
     <row r="732" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A732" s="8">
+      <c r="A732" s="7">
         <v>544</v>
       </c>
       <c r="D732" t="s">
@@ -44579,7 +44613,7 @@
       </c>
     </row>
     <row r="733" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A733" s="8">
+      <c r="A733" s="7">
         <v>571</v>
       </c>
       <c r="D733" t="s">
@@ -44629,7 +44663,7 @@
       </c>
     </row>
     <row r="734" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A734" s="8">
+      <c r="A734" s="7">
         <v>597</v>
       </c>
       <c r="D734" t="s">
@@ -44676,7 +44710,7 @@
       </c>
     </row>
     <row r="735" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A735" s="8">
+      <c r="A735" s="7">
         <v>599</v>
       </c>
       <c r="D735" t="s">
@@ -44723,7 +44757,7 @@
       </c>
     </row>
     <row r="736" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A736" s="8">
+      <c r="A736" s="7">
         <v>700</v>
       </c>
       <c r="D736" t="s">
@@ -44773,7 +44807,7 @@
       </c>
     </row>
     <row r="737" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A737" s="8">
+      <c r="A737" s="7">
         <v>596</v>
       </c>
       <c r="D737" t="s">
@@ -44823,7 +44857,7 @@
       </c>
     </row>
     <row r="738" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A738" s="8">
+      <c r="A738" s="7">
         <v>598</v>
       </c>
       <c r="D738" t="s">
@@ -44873,7 +44907,7 @@
       </c>
     </row>
     <row r="739" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A739" s="8">
+      <c r="A739" s="7">
         <v>624</v>
       </c>
       <c r="D739" t="s">
@@ -44923,7 +44957,7 @@
       </c>
     </row>
     <row r="740" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A740" s="8">
+      <c r="A740" s="7">
         <v>625</v>
       </c>
       <c r="D740" t="s">
@@ -44973,7 +45007,7 @@
       </c>
     </row>
     <row r="741" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A741" s="8">
+      <c r="A741" s="7">
         <v>628</v>
       </c>
       <c r="D741" t="s">
@@ -45023,7 +45057,7 @@
       </c>
     </row>
     <row r="742" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A742" s="8">
+      <c r="A742" s="7">
         <v>652</v>
       </c>
       <c r="D742" t="s">
@@ -45073,7 +45107,7 @@
       </c>
     </row>
     <row r="743" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A743" s="8">
+      <c r="A743" s="7">
         <v>702</v>
       </c>
       <c r="D743" t="s">
@@ -45123,7 +45157,7 @@
       </c>
     </row>
     <row r="744" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A744" s="8">
+      <c r="A744" s="7">
         <v>604</v>
       </c>
       <c r="D744" t="s">
@@ -45173,7 +45207,7 @@
       </c>
     </row>
     <row r="745" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A745" s="8">
+      <c r="A745" s="7">
         <v>618</v>
       </c>
       <c r="D745" t="s">
@@ -45220,7 +45254,7 @@
       </c>
     </row>
     <row r="746" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A746" s="8">
+      <c r="A746" s="7">
         <v>701</v>
       </c>
       <c r="D746" t="s">
@@ -45267,7 +45301,7 @@
       </c>
     </row>
     <row r="747" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A747" s="8">
+      <c r="A747" s="7">
         <v>484</v>
       </c>
       <c r="D747" t="s">
@@ -45314,7 +45348,7 @@
       </c>
     </row>
     <row r="748" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A748" s="8">
+      <c r="A748" s="7">
         <v>548</v>
       </c>
       <c r="D748" t="s">
@@ -45364,7 +45398,7 @@
       </c>
     </row>
     <row r="749" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A749" s="8">
+      <c r="A749" s="7">
         <v>515</v>
       </c>
       <c r="D749" t="s">
@@ -45414,7 +45448,7 @@
       </c>
     </row>
     <row r="750" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A750" s="8">
+      <c r="A750" s="7">
         <v>527</v>
       </c>
       <c r="D750" t="s">
@@ -45464,7 +45498,7 @@
       </c>
     </row>
     <row r="751" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A751" s="8">
+      <c r="A751" s="7">
         <v>482</v>
       </c>
       <c r="D751" t="s">
@@ -45514,7 +45548,7 @@
       </c>
     </row>
     <row r="752" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A752" s="8">
+      <c r="A752" s="7">
         <v>485</v>
       </c>
       <c r="D752" t="s">
@@ -45564,7 +45598,7 @@
       </c>
     </row>
     <row r="753" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A753" s="8">
+      <c r="A753" s="7">
         <v>680</v>
       </c>
       <c r="D753" t="s">
@@ -45614,7 +45648,7 @@
       </c>
     </row>
     <row r="754" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A754" s="8">
+      <c r="A754" s="7">
         <v>483</v>
       </c>
       <c r="D754" t="s">
@@ -45661,7 +45695,7 @@
       </c>
     </row>
     <row r="755" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A755" s="8">
+      <c r="A755" s="7">
         <v>684</v>
       </c>
       <c r="D755" t="s">
@@ -45711,7 +45745,7 @@
       </c>
     </row>
     <row r="756" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A756" s="8">
+      <c r="A756" s="7">
         <v>753</v>
       </c>
       <c r="D756" t="s">
@@ -45758,7 +45792,7 @@
       </c>
     </row>
     <row r="757" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A757" s="8">
+      <c r="A757" s="7">
         <v>754</v>
       </c>
       <c r="D757" t="s">
@@ -45805,7 +45839,7 @@
       </c>
     </row>
     <row r="758" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A758" s="8">
+      <c r="A758" s="7">
         <v>755</v>
       </c>
       <c r="D758" t="s">
@@ -45852,7 +45886,7 @@
       </c>
     </row>
     <row r="759" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A759" s="8">
+      <c r="A759" s="7">
         <v>758</v>
       </c>
       <c r="D759" t="s">
@@ -45899,7 +45933,7 @@
       </c>
     </row>
     <row r="760" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A760" s="8">
+      <c r="A760" s="7">
         <v>800</v>
       </c>
       <c r="D760" t="s">
@@ -45946,7 +45980,7 @@
       </c>
     </row>
     <row r="761" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A761" s="8">
+      <c r="A761" s="7">
         <v>791</v>
       </c>
       <c r="D761" t="s">
@@ -45993,7 +46027,7 @@
       </c>
     </row>
     <row r="762" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A762" s="8">
+      <c r="A762" s="7">
         <v>769</v>
       </c>
       <c r="D762" t="s">
@@ -46040,7 +46074,7 @@
       </c>
     </row>
     <row r="763" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A763" s="8">
+      <c r="A763" s="7">
         <v>770</v>
       </c>
       <c r="D763" t="s">
@@ -46087,7 +46121,7 @@
       </c>
     </row>
     <row r="764" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A764" s="8">
+      <c r="A764" s="7">
         <v>756</v>
       </c>
       <c r="D764" t="s">
@@ -46134,7 +46168,7 @@
       </c>
     </row>
     <row r="765" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A765" s="8">
+      <c r="A765" s="7">
         <v>757</v>
       </c>
       <c r="D765" t="s">
@@ -46181,7 +46215,7 @@
       </c>
     </row>
     <row r="766" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A766" s="8">
+      <c r="A766" s="7">
         <v>759</v>
       </c>
       <c r="D766" t="s">
@@ -46228,7 +46262,7 @@
       </c>
     </row>
     <row r="767" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A767" s="8">
+      <c r="A767" s="7">
         <v>761</v>
       </c>
       <c r="D767" t="s">
@@ -46275,7 +46309,7 @@
       </c>
     </row>
     <row r="768" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A768" s="8">
+      <c r="A768" s="7">
         <v>763</v>
       </c>
       <c r="D768" t="s">
@@ -46322,7 +46356,7 @@
       </c>
     </row>
     <row r="769" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A769" s="8">
+      <c r="A769" s="7">
         <v>764</v>
       </c>
       <c r="D769" t="s">
@@ -46369,7 +46403,7 @@
       </c>
     </row>
     <row r="770" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A770" s="8">
+      <c r="A770" s="7">
         <v>767</v>
       </c>
       <c r="D770" t="s">
@@ -46416,7 +46450,7 @@
       </c>
     </row>
     <row r="771" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A771" s="8">
+      <c r="A771" s="7">
         <v>771</v>
       </c>
       <c r="D771" t="s">
@@ -46463,7 +46497,7 @@
       </c>
     </row>
     <row r="772" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A772" s="8">
+      <c r="A772" s="7">
         <v>772</v>
       </c>
       <c r="D772" t="s">
@@ -46510,7 +46544,7 @@
       </c>
     </row>
     <row r="773" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A773" s="8">
+      <c r="A773" s="7">
         <v>774</v>
       </c>
       <c r="D773" t="s">
@@ -46557,7 +46591,7 @@
       </c>
     </row>
     <row r="774" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A774" s="8">
+      <c r="A774" s="7">
         <v>775</v>
       </c>
       <c r="D774" t="s">
@@ -46604,7 +46638,7 @@
       </c>
     </row>
     <row r="775" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A775" s="8">
+      <c r="A775" s="7">
         <v>777</v>
       </c>
       <c r="D775" t="s">
@@ -46651,7 +46685,7 @@
       </c>
     </row>
     <row r="776" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A776" s="8">
+      <c r="A776" s="7">
         <v>778</v>
       </c>
       <c r="D776" t="s">
@@ -46698,7 +46732,7 @@
       </c>
     </row>
     <row r="777" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A777" s="8">
+      <c r="A777" s="7">
         <v>760</v>
       </c>
       <c r="D777" t="s">
@@ -46745,7 +46779,7 @@
       </c>
     </row>
     <row r="778" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A778" s="8">
+      <c r="A778" s="7">
         <v>776</v>
       </c>
       <c r="D778" t="s">
@@ -46792,7 +46826,7 @@
       </c>
     </row>
     <row r="779" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A779" s="8">
+      <c r="A779" s="7">
         <v>779</v>
       </c>
       <c r="D779" t="s">
@@ -46839,7 +46873,7 @@
       </c>
     </row>
     <row r="780" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A780" s="8">
+      <c r="A780" s="7">
         <v>765</v>
       </c>
       <c r="D780" t="s">
@@ -46886,7 +46920,7 @@
       </c>
     </row>
     <row r="781" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A781" s="8">
+      <c r="A781" s="7">
         <v>783</v>
       </c>
       <c r="D781" t="s">
@@ -46933,7 +46967,7 @@
       </c>
     </row>
     <row r="782" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A782" s="8">
+      <c r="A782" s="7">
         <v>798</v>
       </c>
       <c r="D782" t="s">
@@ -46980,7 +47014,7 @@
       </c>
     </row>
     <row r="783" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A783" s="8">
+      <c r="A783" s="7">
         <v>785</v>
       </c>
       <c r="D783" t="s">
@@ -47027,7 +47061,7 @@
       </c>
     </row>
     <row r="784" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A784" s="8">
+      <c r="A784" s="7">
         <v>786</v>
       </c>
       <c r="D784" t="s">
@@ -47074,7 +47108,7 @@
       </c>
     </row>
     <row r="785" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A785" s="8">
+      <c r="A785" s="7">
         <v>790</v>
       </c>
       <c r="D785" t="s">
@@ -47121,7 +47155,7 @@
       </c>
     </row>
     <row r="786" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A786" s="8">
+      <c r="A786" s="7">
         <v>792</v>
       </c>
       <c r="D786" t="s">
@@ -47168,7 +47202,7 @@
       </c>
     </row>
     <row r="787" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A787" s="8">
+      <c r="A787" s="7">
         <v>796</v>
       </c>
       <c r="D787" t="s">
@@ -47215,7 +47249,7 @@
       </c>
     </row>
     <row r="788" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A788" s="8">
+      <c r="A788" s="7">
         <v>797</v>
       </c>
       <c r="D788" t="s">
@@ -47262,7 +47296,7 @@
       </c>
     </row>
     <row r="789" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A789" s="8">
+      <c r="A789" s="7">
         <v>799</v>
       </c>
       <c r="D789" t="s">
@@ -47309,7 +47343,7 @@
       </c>
     </row>
     <row r="790" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A790" s="8">
+      <c r="A790" s="7">
         <v>782</v>
       </c>
       <c r="D790" t="s">
@@ -47356,7 +47390,7 @@
       </c>
     </row>
     <row r="791" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A791" s="8">
+      <c r="A791" s="7">
         <v>795</v>
       </c>
       <c r="D791" t="s">
@@ -47403,7 +47437,7 @@
       </c>
     </row>
     <row r="792" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A792" s="8">
+      <c r="A792" s="7">
         <v>789</v>
       </c>
       <c r="D792" t="s">
@@ -47450,7 +47484,7 @@
       </c>
     </row>
     <row r="793" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A793" s="8">
+      <c r="A793" s="7">
         <v>787</v>
       </c>
       <c r="D793" t="s">
@@ -47497,7 +47531,7 @@
       </c>
     </row>
     <row r="794" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A794" s="8">
+      <c r="A794" s="7">
         <v>762</v>
       </c>
       <c r="D794" t="s">
@@ -47542,12 +47576,12 @@
       <c r="T794" t="b">
         <v>0</v>
       </c>
-      <c r="V794" t="s">
+      <c r="V794" s="13" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="795" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A795" s="8">
+      <c r="A795" s="7">
         <v>784</v>
       </c>
       <c r="D795" t="s">
@@ -47594,7 +47628,7 @@
       </c>
     </row>
     <row r="796" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A796" s="8">
+      <c r="A796" s="7">
         <v>794</v>
       </c>
       <c r="D796" t="s">
@@ -47641,7 +47675,7 @@
       </c>
     </row>
     <row r="797" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A797" s="8">
+      <c r="A797" s="7">
         <v>780</v>
       </c>
       <c r="D797" t="s">
@@ -47688,7 +47722,7 @@
       </c>
     </row>
     <row r="798" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A798" s="8">
+      <c r="A798" s="7">
         <v>781</v>
       </c>
       <c r="D798" t="s">
@@ -47735,7 +47769,7 @@
       </c>
     </row>
     <row r="799" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A799" s="8">
+      <c r="A799" s="7">
         <v>766</v>
       </c>
       <c r="D799" t="s">
@@ -47782,7 +47816,7 @@
       </c>
     </row>
     <row r="800" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A800" s="8">
+      <c r="A800" s="7">
         <v>768</v>
       </c>
       <c r="D800" t="s">
@@ -47829,7 +47863,7 @@
       </c>
     </row>
     <row r="801" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A801" s="8">
+      <c r="A801" s="7">
         <v>773</v>
       </c>
       <c r="D801" t="s">
@@ -47876,7 +47910,7 @@
       </c>
     </row>
     <row r="802" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A802" s="8">
+      <c r="A802" s="7">
         <v>793</v>
       </c>
       <c r="D802" t="s">
@@ -47923,7 +47957,7 @@
       </c>
     </row>
     <row r="803" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A803" s="8">
+      <c r="A803" s="7">
         <v>788</v>
       </c>
       <c r="D803" t="s">
@@ -47970,7 +48004,7 @@
       </c>
     </row>
     <row r="804" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A804" s="8">
+      <c r="A804" s="7">
         <v>821</v>
       </c>
       <c r="D804" t="s">
@@ -48014,7 +48048,7 @@
       </c>
     </row>
     <row r="805" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A805" s="8">
+      <c r="A805" s="7">
         <v>807</v>
       </c>
       <c r="D805" t="s">
@@ -48058,7 +48092,7 @@
       </c>
     </row>
     <row r="806" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A806" s="8">
+      <c r="A806" s="7">
         <v>808</v>
       </c>
       <c r="D806" t="s">
@@ -48102,7 +48136,7 @@
       </c>
     </row>
     <row r="807" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A807" s="8">
+      <c r="A807" s="7">
         <v>809</v>
       </c>
       <c r="D807" t="s">
@@ -48146,7 +48180,7 @@
       </c>
     </row>
     <row r="808" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A808" s="8">
+      <c r="A808" s="7">
         <v>804</v>
       </c>
       <c r="D808" t="s">
@@ -48190,7 +48224,7 @@
       </c>
     </row>
     <row r="809" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A809" s="8">
+      <c r="A809" s="7">
         <v>805</v>
       </c>
       <c r="D809" t="s">
@@ -48234,7 +48268,7 @@
       </c>
     </row>
     <row r="810" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A810" s="8">
+      <c r="A810" s="7">
         <v>806</v>
       </c>
       <c r="D810" t="s">
@@ -48278,7 +48312,7 @@
       </c>
     </row>
     <row r="811" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A811" s="8">
+      <c r="A811" s="7">
         <v>814</v>
       </c>
       <c r="D811" t="s">
@@ -48322,7 +48356,7 @@
       </c>
     </row>
     <row r="812" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A812" s="8">
+      <c r="A812" s="7">
         <v>815</v>
       </c>
       <c r="D812" t="s">
@@ -48366,7 +48400,7 @@
       </c>
     </row>
     <row r="813" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A813" s="8">
+      <c r="A813" s="7">
         <v>816</v>
       </c>
       <c r="D813" t="s">
@@ -48410,7 +48444,7 @@
       </c>
     </row>
     <row r="814" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A814" s="8">
+      <c r="A814" s="7">
         <v>817</v>
       </c>
       <c r="D814" t="s">
@@ -48454,7 +48488,7 @@
       </c>
     </row>
     <row r="815" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A815" s="8">
+      <c r="A815" s="7">
         <v>810</v>
       </c>
       <c r="D815" t="s">
@@ -48498,7 +48532,7 @@
       </c>
     </row>
     <row r="816" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A816" s="8">
+      <c r="A816" s="7">
         <v>811</v>
       </c>
       <c r="D816" t="s">
@@ -48542,7 +48576,7 @@
       </c>
     </row>
     <row r="817" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A817" s="8">
+      <c r="A817" s="7">
         <v>812</v>
       </c>
       <c r="D817" t="s">
@@ -48586,7 +48620,7 @@
       </c>
     </row>
     <row r="818" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A818" s="8">
+      <c r="A818" s="7">
         <v>813</v>
       </c>
       <c r="D818" t="s">
@@ -48630,7 +48664,7 @@
       </c>
     </row>
     <row r="819" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A819" s="8">
+      <c r="A819" s="7">
         <v>818</v>
       </c>
       <c r="D819" t="s">
@@ -48674,7 +48708,7 @@
       </c>
     </row>
     <row r="820" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A820" s="8">
+      <c r="A820" s="7">
         <v>819</v>
       </c>
       <c r="D820" t="s">
@@ -48718,7 +48752,7 @@
       </c>
     </row>
     <row r="821" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A821" s="8">
+      <c r="A821" s="7">
         <v>803</v>
       </c>
       <c r="D821" t="s">
@@ -48762,7 +48796,7 @@
       </c>
     </row>
     <row r="822" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A822" s="8">
+      <c r="A822" s="7">
         <v>820</v>
       </c>
       <c r="D822" t="s">
@@ -48806,7 +48840,7 @@
       </c>
     </row>
     <row r="823" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A823" s="8">
+      <c r="A823" s="7">
         <v>833</v>
       </c>
       <c r="D823" t="s">
@@ -48850,7 +48884,7 @@
       </c>
     </row>
     <row r="824" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A824" s="8">
+      <c r="A824" s="7">
         <v>834</v>
       </c>
       <c r="D824" t="s">
@@ -48894,7 +48928,7 @@
       </c>
     </row>
     <row r="825" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A825" s="8">
+      <c r="A825" s="7">
         <v>899</v>
       </c>
       <c r="D825" t="s">
@@ -48938,7 +48972,7 @@
       </c>
     </row>
     <row r="826" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A826" s="8">
+      <c r="A826" s="7">
         <v>900</v>
       </c>
       <c r="D826" t="s">
@@ -48982,7 +49016,7 @@
       </c>
     </row>
     <row r="827" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A827" s="8">
+      <c r="A827" s="7">
         <v>835</v>
       </c>
       <c r="D827" t="s">
@@ -49026,7 +49060,7 @@
       </c>
     </row>
     <row r="828" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A828" s="8">
+      <c r="A828" s="7">
         <v>836</v>
       </c>
       <c r="D828" t="s">
@@ -49070,7 +49104,7 @@
       </c>
     </row>
     <row r="829" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A829" s="8">
+      <c r="A829" s="7">
         <v>837</v>
       </c>
       <c r="D829" t="s">
@@ -49114,7 +49148,7 @@
       </c>
     </row>
     <row r="830" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A830" s="8">
+      <c r="A830" s="7">
         <v>822</v>
       </c>
       <c r="D830" t="s">
@@ -49158,7 +49192,7 @@
       </c>
     </row>
     <row r="831" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A831" s="8">
+      <c r="A831" s="7">
         <v>823</v>
       </c>
       <c r="D831" t="s">
@@ -49202,7 +49236,7 @@
       </c>
     </row>
     <row r="832" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A832" s="8">
+      <c r="A832" s="7">
         <v>825</v>
       </c>
       <c r="D832" t="s">
@@ -49246,7 +49280,7 @@
       </c>
     </row>
     <row r="833" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A833" s="8">
+      <c r="A833" s="7">
         <v>829</v>
       </c>
       <c r="D833" t="s">
@@ -49290,7 +49324,7 @@
       </c>
     </row>
     <row r="834" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A834" s="8">
+      <c r="A834" s="7">
         <v>830</v>
       </c>
       <c r="D834" t="s">
@@ -49334,7 +49368,7 @@
       </c>
     </row>
     <row r="835" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A835" s="8">
+      <c r="A835" s="7">
         <v>831</v>
       </c>
       <c r="D835" t="s">
@@ -49378,7 +49412,7 @@
       </c>
     </row>
     <row r="836" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A836" s="8">
+      <c r="A836" s="7">
         <v>832</v>
       </c>
       <c r="D836" t="s">
@@ -49422,7 +49456,7 @@
       </c>
     </row>
     <row r="837" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A837" s="8">
+      <c r="A837" s="7">
         <v>824</v>
       </c>
       <c r="D837" t="s">
@@ -49466,7 +49500,7 @@
       </c>
     </row>
     <row r="838" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A838" s="8">
+      <c r="A838" s="7">
         <v>826</v>
       </c>
       <c r="D838" t="s">
@@ -49510,7 +49544,7 @@
       </c>
     </row>
     <row r="839" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A839" s="8">
+      <c r="A839" s="7">
         <v>827</v>
       </c>
       <c r="D839" t="s">
@@ -49554,7 +49588,7 @@
       </c>
     </row>
     <row r="840" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A840" s="8">
+      <c r="A840" s="7">
         <v>828</v>
       </c>
       <c r="D840" t="s">
@@ -49598,7 +49632,7 @@
       </c>
     </row>
     <row r="841" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A841" s="8">
+      <c r="A841" s="7">
         <v>883</v>
       </c>
       <c r="D841" t="s">
@@ -49642,7 +49676,7 @@
       </c>
     </row>
     <row r="842" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A842" s="8">
+      <c r="A842" s="7">
         <v>847</v>
       </c>
       <c r="D842" t="s">
@@ -49686,7 +49720,7 @@
       </c>
     </row>
     <row r="843" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A843" s="8">
+      <c r="A843" s="7">
         <v>886</v>
       </c>
       <c r="D843" t="s">
@@ -49730,7 +49764,7 @@
       </c>
     </row>
     <row r="844" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A844" s="8">
+      <c r="A844" s="7">
         <v>844</v>
       </c>
       <c r="D844" t="s">
@@ -49774,7 +49808,7 @@
       </c>
     </row>
     <row r="845" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A845" s="8">
+      <c r="A845" s="7">
         <v>845</v>
       </c>
       <c r="D845" t="s">
@@ -49818,7 +49852,7 @@
       </c>
     </row>
     <row r="846" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A846" s="8">
+      <c r="A846" s="7">
         <v>854</v>
       </c>
       <c r="D846" t="s">
@@ -49862,7 +49896,7 @@
       </c>
     </row>
     <row r="847" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A847" s="8">
+      <c r="A847" s="7">
         <v>860</v>
       </c>
       <c r="D847" t="s">
@@ -49906,7 +49940,7 @@
       </c>
     </row>
     <row r="848" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A848" s="8">
+      <c r="A848" s="7">
         <v>861</v>
       </c>
       <c r="D848" t="s">
@@ -49950,7 +49984,7 @@
       </c>
     </row>
     <row r="849" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A849" s="8">
+      <c r="A849" s="7">
         <v>865</v>
       </c>
       <c r="D849" t="s">
@@ -49994,7 +50028,7 @@
       </c>
     </row>
     <row r="850" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A850" s="8">
+      <c r="A850" s="7">
         <v>866</v>
       </c>
       <c r="D850" t="s">
@@ -50038,7 +50072,7 @@
       </c>
     </row>
     <row r="851" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A851" s="8">
+      <c r="A851" s="7">
         <v>867</v>
       </c>
       <c r="D851" t="s">
@@ -50082,7 +50116,7 @@
       </c>
     </row>
     <row r="852" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A852" s="8">
+      <c r="A852" s="7">
         <v>868</v>
       </c>
       <c r="D852" t="s">
@@ -50126,7 +50160,7 @@
       </c>
     </row>
     <row r="853" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A853" s="8">
+      <c r="A853" s="7">
         <v>873</v>
       </c>
       <c r="D853" t="s">
@@ -50170,7 +50204,7 @@
       </c>
     </row>
     <row r="854" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A854" s="8">
+      <c r="A854" s="7">
         <v>888</v>
       </c>
       <c r="D854" t="s">
@@ -50214,7 +50248,7 @@
       </c>
     </row>
     <row r="855" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A855" s="8">
+      <c r="A855" s="7">
         <v>842</v>
       </c>
       <c r="D855" t="s">
@@ -50258,7 +50292,7 @@
       </c>
     </row>
     <row r="856" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A856" s="8">
+      <c r="A856" s="7">
         <v>872</v>
       </c>
       <c r="D856" t="s">
@@ -50302,7 +50336,7 @@
       </c>
     </row>
     <row r="857" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A857" s="8">
+      <c r="A857" s="7">
         <v>877</v>
       </c>
       <c r="D857" t="s">
@@ -50346,7 +50380,7 @@
       </c>
     </row>
     <row r="858" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A858" s="8">
+      <c r="A858" s="7">
         <v>891</v>
       </c>
       <c r="D858" t="s">
@@ -50390,7 +50424,7 @@
       </c>
     </row>
     <row r="859" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A859" s="8">
+      <c r="A859" s="7">
         <v>890</v>
       </c>
       <c r="D859" t="s">
@@ -50434,7 +50468,7 @@
       </c>
     </row>
     <row r="860" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A860" s="8">
+      <c r="A860" s="7">
         <v>848</v>
       </c>
       <c r="D860" t="s">
@@ -50478,7 +50512,7 @@
       </c>
     </row>
     <row r="861" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A861" s="8">
+      <c r="A861" s="7">
         <v>846</v>
       </c>
       <c r="D861" t="s">
@@ -50522,7 +50556,7 @@
       </c>
     </row>
     <row r="862" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A862" s="8">
+      <c r="A862" s="7">
         <v>838</v>
       </c>
       <c r="D862" t="s">
@@ -50566,7 +50600,7 @@
       </c>
     </row>
     <row r="863" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A863" s="8">
+      <c r="A863" s="7">
         <v>839</v>
       </c>
       <c r="D863" t="s">
@@ -50610,7 +50644,7 @@
       </c>
     </row>
     <row r="864" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A864" s="8">
+      <c r="A864" s="7">
         <v>843</v>
       </c>
       <c r="D864" t="s">
@@ -50654,7 +50688,7 @@
       </c>
     </row>
     <row r="865" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A865" s="8">
+      <c r="A865" s="7">
         <v>850</v>
       </c>
       <c r="D865" t="s">
@@ -50698,7 +50732,7 @@
       </c>
     </row>
     <row r="866" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A866" s="8">
+      <c r="A866" s="7">
         <v>851</v>
       </c>
       <c r="D866" t="s">
@@ -50742,7 +50776,7 @@
       </c>
     </row>
     <row r="867" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A867" s="8">
+      <c r="A867" s="7">
         <v>855</v>
       </c>
       <c r="D867" t="s">
@@ -50786,7 +50820,7 @@
       </c>
     </row>
     <row r="868" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A868" s="8">
+      <c r="A868" s="7">
         <v>856</v>
       </c>
       <c r="D868" t="s">
@@ -50830,7 +50864,7 @@
       </c>
     </row>
     <row r="869" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A869" s="8">
+      <c r="A869" s="7">
         <v>859</v>
       </c>
       <c r="D869" t="s">
@@ -50874,7 +50908,7 @@
       </c>
     </row>
     <row r="870" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A870" s="8">
+      <c r="A870" s="7">
         <v>863</v>
       </c>
       <c r="D870" t="s">
@@ -50918,7 +50952,7 @@
       </c>
     </row>
     <row r="871" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A871" s="8">
+      <c r="A871" s="7">
         <v>870</v>
       </c>
       <c r="D871" t="s">
@@ -50962,7 +50996,7 @@
       </c>
     </row>
     <row r="872" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A872" s="8">
+      <c r="A872" s="7">
         <v>879</v>
       </c>
       <c r="D872" t="s">
@@ -51006,7 +51040,7 @@
       </c>
     </row>
     <row r="873" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A873" s="8">
+      <c r="A873" s="7">
         <v>880</v>
       </c>
       <c r="D873" t="s">
@@ -51050,7 +51084,7 @@
       </c>
     </row>
     <row r="874" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A874" s="8">
+      <c r="A874" s="7">
         <v>881</v>
       </c>
       <c r="D874" t="s">
@@ -51094,7 +51128,7 @@
       </c>
     </row>
     <row r="875" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A875" s="8">
+      <c r="A875" s="7">
         <v>882</v>
       </c>
       <c r="D875" t="s">
@@ -51138,7 +51172,7 @@
       </c>
     </row>
     <row r="876" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A876" s="8">
+      <c r="A876" s="7">
         <v>887</v>
       </c>
       <c r="D876" t="s">
@@ -51182,7 +51216,7 @@
       </c>
     </row>
     <row r="877" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A877" s="8">
+      <c r="A877" s="7">
         <v>892</v>
       </c>
       <c r="D877" t="s">
@@ -51226,7 +51260,7 @@
       </c>
     </row>
     <row r="878" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A878" s="8">
+      <c r="A878" s="7">
         <v>857</v>
       </c>
       <c r="D878" t="s">
@@ -51270,7 +51304,7 @@
       </c>
     </row>
     <row r="879" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A879" s="8">
+      <c r="A879" s="7">
         <v>858</v>
       </c>
       <c r="D879" t="s">
@@ -51314,7 +51348,7 @@
       </c>
     </row>
     <row r="880" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A880" s="8">
+      <c r="A880" s="7">
         <v>862</v>
       </c>
       <c r="D880" t="s">
@@ -51358,7 +51392,7 @@
       </c>
     </row>
     <row r="881" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A881" s="8">
+      <c r="A881" s="7">
         <v>852</v>
       </c>
       <c r="D881" t="s">
@@ -51402,7 +51436,7 @@
       </c>
     </row>
     <row r="882" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A882" s="8">
+      <c r="A882" s="7">
         <v>841</v>
       </c>
       <c r="D882" t="s">
@@ -51446,7 +51480,7 @@
       </c>
     </row>
     <row r="883" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A883" s="8">
+      <c r="A883" s="7">
         <v>869</v>
       </c>
       <c r="D883" t="s">
@@ -51490,7 +51524,7 @@
       </c>
     </row>
     <row r="884" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A884" s="8">
+      <c r="A884" s="7">
         <v>871</v>
       </c>
       <c r="D884" t="s">
@@ -51534,7 +51568,7 @@
       </c>
     </row>
     <row r="885" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A885" s="8">
+      <c r="A885" s="7">
         <v>885</v>
       </c>
       <c r="D885" t="s">
@@ -51578,7 +51612,7 @@
       </c>
     </row>
     <row r="886" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A886" s="8">
+      <c r="A886" s="7">
         <v>876</v>
       </c>
       <c r="D886" t="s">
@@ -51622,7 +51656,7 @@
       </c>
     </row>
     <row r="887" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A887" s="8">
+      <c r="A887" s="7">
         <v>840</v>
       </c>
       <c r="D887" t="s">
@@ -51666,7 +51700,7 @@
       </c>
     </row>
     <row r="888" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A888" s="8">
+      <c r="A888" s="7">
         <v>853</v>
       </c>
       <c r="D888" t="s">
@@ -51710,7 +51744,7 @@
       </c>
     </row>
     <row r="889" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A889" s="8">
+      <c r="A889" s="7">
         <v>864</v>
       </c>
       <c r="D889" t="s">
@@ -51754,7 +51788,7 @@
       </c>
     </row>
     <row r="890" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A890" s="8">
+      <c r="A890" s="7">
         <v>874</v>
       </c>
       <c r="D890" t="s">
@@ -51798,7 +51832,7 @@
       </c>
     </row>
     <row r="891" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A891" s="8">
+      <c r="A891" s="7">
         <v>875</v>
       </c>
       <c r="D891" t="s">
@@ -51842,7 +51876,7 @@
       </c>
     </row>
     <row r="892" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A892" s="8">
+      <c r="A892" s="7">
         <v>849</v>
       </c>
       <c r="D892" t="s">
@@ -51886,7 +51920,7 @@
       </c>
     </row>
     <row r="893" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A893" s="8">
+      <c r="A893" s="7">
         <v>884</v>
       </c>
       <c r="D893" t="s">
@@ -51930,7 +51964,7 @@
       </c>
     </row>
     <row r="894" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A894" s="8">
+      <c r="A894" s="7">
         <v>878</v>
       </c>
       <c r="D894" t="s">
@@ -51974,7 +52008,7 @@
       </c>
     </row>
     <row r="895" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A895" s="8">
+      <c r="A895" s="7">
         <v>893</v>
       </c>
       <c r="D895" t="s">
@@ -52018,7 +52052,7 @@
       </c>
     </row>
     <row r="896" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A896" s="8">
+      <c r="A896" s="7">
         <v>894</v>
       </c>
       <c r="D896" t="s">
@@ -52062,7 +52096,7 @@
       </c>
     </row>
     <row r="897" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A897" s="8">
+      <c r="A897" s="7">
         <v>895</v>
       </c>
       <c r="D897" t="s">
@@ -52106,7 +52140,7 @@
       </c>
     </row>
     <row r="898" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A898" s="8">
+      <c r="A898" s="7">
         <v>896</v>
       </c>
       <c r="D898" t="s">
@@ -52150,7 +52184,7 @@
       </c>
     </row>
     <row r="899" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A899" s="8">
+      <c r="A899" s="7">
         <v>897</v>
       </c>
       <c r="D899" t="s">
@@ -52194,7 +52228,7 @@
       </c>
     </row>
     <row r="900" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A900" s="8">
+      <c r="A900" s="7">
         <v>889</v>
       </c>
       <c r="D900" t="s">
@@ -52238,7 +52272,7 @@
       </c>
     </row>
     <row r="901" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A901" s="8">
+      <c r="A901" s="7">
         <v>898</v>
       </c>
       <c r="D901" t="s">
@@ -52282,7 +52316,7 @@
       </c>
     </row>
     <row r="902" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A902" s="8">
+      <c r="A902" s="7">
         <v>916</v>
       </c>
       <c r="D902" t="s">
@@ -52324,12 +52358,12 @@
       <c r="U902" t="s">
         <v>2005</v>
       </c>
-      <c r="V902" t="s">
+      <c r="V902" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="903" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A903" s="8">
+      <c r="A903" s="7">
         <v>925</v>
       </c>
       <c r="D903" t="s">
@@ -52371,18 +52405,18 @@
       <c r="U903" t="s">
         <v>2005</v>
       </c>
-      <c r="V903" t="s">
+      <c r="V903" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="904" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A904" s="8">
+      <c r="A904" s="7">
         <v>917</v>
       </c>
-      <c r="B904" s="8" t="s">
+      <c r="B904" s="7" t="s">
         <v>2054</v>
       </c>
-      <c r="C904" s="10" t="s">
+      <c r="C904" s="9" t="s">
         <v>2060</v>
       </c>
       <c r="D904" t="s">
@@ -52424,12 +52458,12 @@
       <c r="U904" t="s">
         <v>2005</v>
       </c>
-      <c r="V904" t="s">
+      <c r="V904" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="905" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A905" s="8">
+      <c r="A905" s="7">
         <v>926</v>
       </c>
       <c r="D905" t="s">
@@ -52471,12 +52505,12 @@
       <c r="U905" t="s">
         <v>2005</v>
       </c>
-      <c r="V905" t="s">
+      <c r="V905" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="906" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A906" s="8">
+      <c r="A906" s="7">
         <v>921</v>
       </c>
       <c r="D906" t="s">
@@ -52518,12 +52552,12 @@
       <c r="U906" t="s">
         <v>2005</v>
       </c>
-      <c r="V906" t="s">
+      <c r="V906" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="907" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A907" s="8">
+      <c r="A907" s="7">
         <v>918</v>
       </c>
       <c r="D907" t="s">
@@ -52565,12 +52599,12 @@
       <c r="U907" t="s">
         <v>2005</v>
       </c>
-      <c r="V907" t="s">
+      <c r="V907" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="908" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A908" s="8">
+      <c r="A908" s="7">
         <v>923</v>
       </c>
       <c r="D908" t="s">
@@ -52612,12 +52646,12 @@
       <c r="U908" t="s">
         <v>2005</v>
       </c>
-      <c r="V908" t="s">
+      <c r="V908" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="909" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A909" s="8">
+      <c r="A909" s="7">
         <v>924</v>
       </c>
       <c r="D909" t="s">
@@ -52659,12 +52693,12 @@
       <c r="U909" t="s">
         <v>2005</v>
       </c>
-      <c r="V909" t="s">
+      <c r="V909" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="910" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A910" s="8">
+      <c r="A910" s="7">
         <v>914</v>
       </c>
       <c r="D910" t="s">
@@ -52706,12 +52740,12 @@
       <c r="U910" t="s">
         <v>2005</v>
       </c>
-      <c r="V910" t="s">
+      <c r="V910" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="911" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A911" s="8">
+      <c r="A911" s="7">
         <v>927</v>
       </c>
       <c r="D911" t="s">
@@ -52753,18 +52787,18 @@
       <c r="U911" t="s">
         <v>2005</v>
       </c>
-      <c r="V911" t="s">
+      <c r="V911" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="912" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A912" s="8">
+      <c r="A912" s="7">
         <v>920</v>
       </c>
-      <c r="B912" s="8" t="s">
+      <c r="B912" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C912" s="10" t="s">
+      <c r="C912" s="9" t="s">
         <v>2058</v>
       </c>
       <c r="D912" t="s">
@@ -52806,12 +52840,12 @@
       <c r="U912" t="s">
         <v>2005</v>
       </c>
-      <c r="V912" t="s">
+      <c r="V912" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="913" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A913" s="8">
+      <c r="A913" s="7">
         <v>929</v>
       </c>
       <c r="D913" t="s">
@@ -52853,12 +52887,12 @@
       <c r="U913" t="s">
         <v>2005</v>
       </c>
-      <c r="V913" t="s">
+      <c r="V913" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="914" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A914" s="8">
+      <c r="A914" s="7">
         <v>922</v>
       </c>
       <c r="D914" t="s">
@@ -52900,12 +52934,12 @@
       <c r="U914" t="s">
         <v>2005</v>
       </c>
-      <c r="V914" t="s">
+      <c r="V914" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="915" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A915" s="8">
+      <c r="A915" s="7">
         <v>912</v>
       </c>
       <c r="D915" t="s">
@@ -52947,12 +52981,12 @@
       <c r="U915" t="s">
         <v>2005</v>
       </c>
-      <c r="V915" t="s">
+      <c r="V915" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="916" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A916" s="8">
+      <c r="A916" s="7">
         <v>911</v>
       </c>
       <c r="D916" t="s">
@@ -52994,12 +53028,12 @@
       <c r="U916" t="s">
         <v>2005</v>
       </c>
-      <c r="V916" t="s">
+      <c r="V916" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="917" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A917" s="8">
+      <c r="A917" s="7">
         <v>901</v>
       </c>
       <c r="D917" t="s">
@@ -53041,12 +53075,12 @@
       <c r="U917" t="s">
         <v>2005</v>
       </c>
-      <c r="V917" t="s">
+      <c r="V917" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="918" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A918" s="8">
+      <c r="A918" s="7">
         <v>902</v>
       </c>
       <c r="D918" t="s">
@@ -53088,12 +53122,12 @@
       <c r="U918" t="s">
         <v>2005</v>
       </c>
-      <c r="V918" t="s">
+      <c r="V918" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="919" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A919" s="8">
+      <c r="A919" s="7">
         <v>903</v>
       </c>
       <c r="D919" t="s">
@@ -53135,12 +53169,12 @@
       <c r="U919" t="s">
         <v>2005</v>
       </c>
-      <c r="V919" t="s">
+      <c r="V919" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="920" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A920" s="8">
+      <c r="A920" s="7">
         <v>904</v>
       </c>
       <c r="D920" t="s">
@@ -53182,12 +53216,12 @@
       <c r="U920" t="s">
         <v>2005</v>
       </c>
-      <c r="V920" t="s">
+      <c r="V920" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="921" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A921" s="8">
+      <c r="A921" s="7">
         <v>905</v>
       </c>
       <c r="D921" t="s">
@@ -53229,12 +53263,12 @@
       <c r="U921" t="s">
         <v>2005</v>
       </c>
-      <c r="V921" t="s">
+      <c r="V921" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="922" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A922" s="8">
+      <c r="A922" s="7">
         <v>906</v>
       </c>
       <c r="D922" t="s">
@@ -53276,12 +53310,12 @@
       <c r="U922" t="s">
         <v>2005</v>
       </c>
-      <c r="V922" t="s">
+      <c r="V922" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="923" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A923" s="8">
+      <c r="A923" s="7">
         <v>907</v>
       </c>
       <c r="D923" t="s">
@@ -53323,12 +53357,12 @@
       <c r="U923" t="s">
         <v>2005</v>
       </c>
-      <c r="V923" t="s">
+      <c r="V923" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="924" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A924" s="8">
+      <c r="A924" s="7">
         <v>908</v>
       </c>
       <c r="D924" t="s">
@@ -53370,15 +53404,15 @@
       <c r="U924" t="s">
         <v>2005</v>
       </c>
-      <c r="V924" t="s">
+      <c r="V924" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="925" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A925" s="8">
+      <c r="A925" s="7">
         <v>909</v>
       </c>
-      <c r="B925" s="8" t="s">
+      <c r="B925" s="7" t="s">
         <v>2053</v>
       </c>
       <c r="D925" t="s">
@@ -53420,12 +53454,12 @@
       <c r="U925" t="s">
         <v>2005</v>
       </c>
-      <c r="V925" t="s">
+      <c r="V925" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="926" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A926" s="8">
+      <c r="A926" s="7">
         <v>910</v>
       </c>
       <c r="D926" t="s">
@@ -53467,12 +53501,12 @@
       <c r="U926" t="s">
         <v>2005</v>
       </c>
-      <c r="V926" t="s">
+      <c r="V926" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="927" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A927" s="8">
+      <c r="A927" s="7">
         <v>913</v>
       </c>
       <c r="D927" t="s">
@@ -53514,12 +53548,12 @@
       <c r="U927" t="s">
         <v>2005</v>
       </c>
-      <c r="V927" t="s">
+      <c r="V927" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="928" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A928" s="8">
+      <c r="A928" s="7">
         <v>915</v>
       </c>
       <c r="D928" t="s">
@@ -53561,12 +53595,12 @@
       <c r="U928" t="s">
         <v>2005</v>
       </c>
-      <c r="V928" t="s">
+      <c r="V928" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="929" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A929" s="8">
+      <c r="A929" s="7">
         <v>919</v>
       </c>
       <c r="D929" t="s">
@@ -53608,12 +53642,12 @@
       <c r="U929" t="s">
         <v>2005</v>
       </c>
-      <c r="V929" t="s">
+      <c r="V929" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="930" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A930" s="8">
+      <c r="A930" s="7">
         <v>928</v>
       </c>
       <c r="D930" t="s">
@@ -53655,12 +53689,12 @@
       <c r="U930" t="s">
         <v>2005</v>
       </c>
-      <c r="V930" t="s">
+      <c r="V930" s="13" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="931" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A931" s="8">
+      <c r="A931" s="7">
         <v>928</v>
       </c>
     </row>
@@ -53769,22 +53803,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>2053</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>2054</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>2055</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>2057</v>
       </c>
     </row>

--- a/aFullReport.xlsx
+++ b/aFullReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_tpp\code-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B283ED1-DC5C-4A3C-936E-D0CBA14FB397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704395A6-1270-4E30-8A4E-4C963BA77377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1395" yWindow="1335" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4595" uniqueCount="2077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4596" uniqueCount="2077">
   <si>
     <t>DocumentName</t>
   </si>
@@ -6201,9 +6201,6 @@
   </si>
   <si>
     <t>Added nuget CodeInSanityTest. Rhino.</t>
-  </si>
-  <si>
-    <t>Dep on TestHelper. Added code to make GetObject return null (from V1). Don't know if needed, but doesn't hurt. Added using Nsubstitute.</t>
   </si>
   <si>
     <t>Rhino.</t>
@@ -6272,7 +6269,35 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>See notes.</t>
+    <r>
+      <t xml:space="preserve">Dep on TestHelper. Added code to make GetObject return null (from V1). Don't know if needed, but doesn't hurt. Added using Nsubstitute.
+One issue was that state in NeoDesignerProperties and DataItemProxyFactory.Instance remained between tests. This is normal, but it does not persist the statics in iX. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Have not found out why.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Added code to TearDown clean up state.</t>
+    </r>
+  </si>
+  <si>
+    <t>See Notes -&gt;</t>
   </si>
 </sst>
 </file>
@@ -6928,7 +6953,74 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6954,6 +7046,62 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E6B8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7023,6 +7171,20 @@
           <color rgb="FF9C0006"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -7383,27 +7545,27 @@
   <dimension ref="A1:V931"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" customWidth="1"/>
-    <col min="5" max="5" width="33.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="80.5546875" customWidth="1"/>
-    <col min="8" max="8" width="68.44140625" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="2"/>
-    <col min="21" max="21" width="30.6640625" customWidth="1"/>
-    <col min="22" max="22" width="67.21875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="80.5703125" customWidth="1"/>
+    <col min="8" max="8" width="68.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="21" max="21" width="30.7109375" customWidth="1"/>
+    <col min="22" max="22" width="67.28515625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>2051</v>
       </c>
@@ -7468,10 +7630,10 @@
         <v>17</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>15</v>
       </c>
@@ -7530,7 +7692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>23</v>
       </c>
@@ -7589,7 +7751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>26</v>
       </c>
@@ -7648,7 +7810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>40</v>
       </c>
@@ -7707,7 +7869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>10</v>
       </c>
@@ -7715,7 +7877,7 @@
         <v>2057</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
@@ -7766,7 +7928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>32</v>
       </c>
@@ -7825,7 +7987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>35</v>
       </c>
@@ -7884,7 +8046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>51</v>
       </c>
@@ -7943,7 +8105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>60</v>
       </c>
@@ -8002,7 +8164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>67</v>
       </c>
@@ -8061,7 +8223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
@@ -8120,7 +8282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>21</v>
       </c>
@@ -8179,15 +8341,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>2057</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>2059</v>
+      <c r="C14" s="15" t="s">
+        <v>2076</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -8237,8 +8399,11 @@
       <c r="U14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V14" s="13" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>19</v>
       </c>
@@ -8297,10 +8462,10 @@
         <v>48</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>28</v>
       </c>
@@ -8308,7 +8473,7 @@
         <v>2055</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
@@ -8359,7 +8524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>29</v>
       </c>
@@ -8367,7 +8532,7 @@
         <v>2055</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D17" t="s">
         <v>79</v>
@@ -8418,7 +8583,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>48</v>
       </c>
@@ -8477,7 +8642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>49</v>
       </c>
@@ -8536,7 +8701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>52</v>
       </c>
@@ -8544,7 +8709,7 @@
         <v>2055</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D20" t="s">
         <v>124</v>
@@ -8595,7 +8760,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>53</v>
       </c>
@@ -8654,7 +8819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>22</v>
       </c>
@@ -8713,7 +8878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>30</v>
       </c>
@@ -8721,7 +8886,7 @@
         <v>2055</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
@@ -8772,7 +8937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44</v>
       </c>
@@ -8831,7 +8996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45</v>
       </c>
@@ -8839,7 +9004,7 @@
         <v>2055</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D25" t="s">
         <v>111</v>
@@ -8890,7 +9055,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>1</v>
       </c>
@@ -8949,7 +9114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>39</v>
       </c>
@@ -9008,7 +9173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>38</v>
       </c>
@@ -9067,7 +9232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>31</v>
       </c>
@@ -9126,7 +9291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>62</v>
       </c>
@@ -9185,7 +9350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>11</v>
       </c>
@@ -9244,7 +9409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>34</v>
       </c>
@@ -9252,7 +9417,7 @@
         <v>2055</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D32" t="s">
         <v>89</v>
@@ -9303,7 +9468,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>2</v>
       </c>
@@ -9311,7 +9476,7 @@
         <v>2055</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
@@ -9362,7 +9527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>5</v>
       </c>
@@ -9370,7 +9535,7 @@
         <v>2055</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D34" t="s">
         <v>30</v>
@@ -9421,7 +9586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>43</v>
       </c>
@@ -9429,7 +9594,7 @@
         <v>2055</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D35" t="s">
         <v>107</v>
@@ -9480,7 +9645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>3</v>
       </c>
@@ -9539,7 +9704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>63</v>
       </c>
@@ -9598,7 +9763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>50</v>
       </c>
@@ -9657,7 +9822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>14</v>
       </c>
@@ -9665,7 +9830,7 @@
         <v>2055</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D39" t="s">
         <v>49</v>
@@ -9716,7 +9881,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>36</v>
       </c>
@@ -9724,7 +9889,7 @@
         <v>2055</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D40" t="s">
         <v>93</v>
@@ -9775,7 +9940,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>57</v>
       </c>
@@ -9783,7 +9948,7 @@
         <v>2055</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D41" t="s">
         <v>134</v>
@@ -9834,7 +9999,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>54</v>
       </c>
@@ -9893,7 +10058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>55</v>
       </c>
@@ -9952,7 +10117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>56</v>
       </c>
@@ -10011,7 +10176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -10070,7 +10235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>42</v>
       </c>
@@ -10129,7 +10294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>9</v>
       </c>
@@ -10188,7 +10353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>16</v>
       </c>
@@ -10247,7 +10412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>4</v>
       </c>
@@ -10255,7 +10420,7 @@
         <v>2055</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D49" t="s">
         <v>28</v>
@@ -10306,7 +10471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>6</v>
       </c>
@@ -10365,7 +10530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>12</v>
       </c>
@@ -10424,7 +10589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>13</v>
       </c>
@@ -10432,7 +10597,7 @@
         <v>2055</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D52" t="s">
         <v>46</v>
@@ -10483,7 +10648,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>17</v>
       </c>
@@ -10491,7 +10656,7 @@
         <v>2055</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
@@ -10542,7 +10707,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>24</v>
       </c>
@@ -10550,7 +10715,7 @@
         <v>2055</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D54" t="s">
         <v>69</v>
@@ -10601,7 +10766,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>7</v>
       </c>
@@ -10660,7 +10825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>20</v>
       </c>
@@ -10719,7 +10884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>25</v>
       </c>
@@ -10727,7 +10892,7 @@
         <v>2055</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D57" t="s">
         <v>71</v>
@@ -10778,7 +10943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>27</v>
       </c>
@@ -10837,7 +11002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>41</v>
       </c>
@@ -10896,7 +11061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -10955,7 +11120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -11014,7 +11179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -11073,7 +11238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>33</v>
       </c>
@@ -11132,7 +11297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>46</v>
       </c>
@@ -11191,7 +11356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>47</v>
       </c>
@@ -11250,7 +11415,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>64</v>
       </c>
@@ -11258,7 +11423,7 @@
         <v>2055</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D66" t="s">
         <v>148</v>
@@ -11309,7 +11474,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -11317,7 +11482,7 @@
         <v>2055</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D67" t="s">
         <v>152</v>
@@ -11368,7 +11533,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>65</v>
       </c>
@@ -11427,7 +11592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -11486,7 +11651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>91</v>
       </c>
@@ -11536,7 +11701,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>101</v>
       </c>
@@ -11586,7 +11751,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>69</v>
       </c>
@@ -11639,7 +11804,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>92</v>
       </c>
@@ -11692,7 +11857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>117</v>
       </c>
@@ -11745,7 +11910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>118</v>
       </c>
@@ -11798,7 +11963,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>119</v>
       </c>
@@ -11851,7 +12016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>120</v>
       </c>
@@ -11904,7 +12069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>72</v>
       </c>
@@ -11957,7 +12122,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>73</v>
       </c>
@@ -12010,7 +12175,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>80</v>
       </c>
@@ -12063,7 +12228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>82</v>
       </c>
@@ -12116,7 +12281,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>84</v>
       </c>
@@ -12169,7 +12334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>85</v>
       </c>
@@ -12222,7 +12387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>86</v>
       </c>
@@ -12275,7 +12440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>87</v>
       </c>
@@ -12328,7 +12493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>88</v>
       </c>
@@ -12381,7 +12546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>89</v>
       </c>
@@ -12434,7 +12599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>95</v>
       </c>
@@ -12487,7 +12652,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>96</v>
       </c>
@@ -12540,7 +12705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>97</v>
       </c>
@@ -12593,7 +12758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>98</v>
       </c>
@@ -12646,7 +12811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>99</v>
       </c>
@@ -12699,7 +12864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>102</v>
       </c>
@@ -12752,7 +12917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>103</v>
       </c>
@@ -12805,7 +12970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>105</v>
       </c>
@@ -12858,7 +13023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>110</v>
       </c>
@@ -12911,7 +13076,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>112</v>
       </c>
@@ -12964,7 +13129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>70</v>
       </c>
@@ -13017,7 +13182,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>71</v>
       </c>
@@ -13070,7 +13235,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>111</v>
       </c>
@@ -13123,7 +13288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>126</v>
       </c>
@@ -13176,7 +13341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>83</v>
       </c>
@@ -13229,7 +13394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>79</v>
       </c>
@@ -13285,7 +13450,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>75</v>
       </c>
@@ -13338,7 +13503,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>76</v>
       </c>
@@ -13391,7 +13556,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>77</v>
       </c>
@@ -13444,7 +13609,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>81</v>
       </c>
@@ -13497,7 +13662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>93</v>
       </c>
@@ -13550,7 +13715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>94</v>
       </c>
@@ -13603,7 +13768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>113</v>
       </c>
@@ -13656,7 +13821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>104</v>
       </c>
@@ -13709,7 +13874,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>107</v>
       </c>
@@ -13762,7 +13927,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>108</v>
       </c>
@@ -13815,7 +13980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>90</v>
       </c>
@@ -13868,7 +14033,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>100</v>
       </c>
@@ -13918,7 +14083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>106</v>
       </c>
@@ -13971,7 +14136,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>109</v>
       </c>
@@ -14024,7 +14189,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>78</v>
       </c>
@@ -14077,7 +14242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>74</v>
       </c>
@@ -14130,7 +14295,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>114</v>
       </c>
@@ -14183,7 +14348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>115</v>
       </c>
@@ -14236,7 +14401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>116</v>
       </c>
@@ -14289,7 +14454,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>121</v>
       </c>
@@ -14342,7 +14507,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>122</v>
       </c>
@@ -14395,7 +14560,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>123</v>
       </c>
@@ -14448,7 +14613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>124</v>
       </c>
@@ -14501,7 +14666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>125</v>
       </c>
@@ -14554,7 +14719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>127</v>
       </c>
@@ -14607,7 +14772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>129</v>
       </c>
@@ -14660,7 +14825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>128</v>
       </c>
@@ -14713,7 +14878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>130</v>
       </c>
@@ -14766,7 +14931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>131</v>
       </c>
@@ -14819,7 +14984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>143</v>
       </c>
@@ -14872,7 +15037,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>133</v>
       </c>
@@ -14925,7 +15090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>134</v>
       </c>
@@ -14978,7 +15143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>150</v>
       </c>
@@ -15031,7 +15196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>135</v>
       </c>
@@ -15084,7 +15249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>136</v>
       </c>
@@ -15137,7 +15302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>137</v>
       </c>
@@ -15190,7 +15355,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>138</v>
       </c>
@@ -15243,7 +15408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>139</v>
       </c>
@@ -15296,7 +15461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>140</v>
       </c>
@@ -15349,7 +15514,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>141</v>
       </c>
@@ -15402,7 +15567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>142</v>
       </c>
@@ -15455,7 +15620,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>160</v>
       </c>
@@ -15508,7 +15673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>185</v>
       </c>
@@ -15561,7 +15726,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>218</v>
       </c>
@@ -15614,7 +15779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>184</v>
       </c>
@@ -15667,7 +15832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>192</v>
       </c>
@@ -15720,7 +15885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>145</v>
       </c>
@@ -15773,7 +15938,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>146</v>
       </c>
@@ -15826,7 +15991,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>221</v>
       </c>
@@ -15879,7 +16044,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <v>154</v>
       </c>
@@ -15932,7 +16097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>155</v>
       </c>
@@ -15985,7 +16150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>159</v>
       </c>
@@ -16038,7 +16203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <v>217</v>
       </c>
@@ -16091,7 +16256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>162</v>
       </c>
@@ -16144,7 +16309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>166</v>
       </c>
@@ -16191,7 +16356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>171</v>
       </c>
@@ -16244,7 +16409,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>167</v>
       </c>
@@ -16297,7 +16462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>172</v>
       </c>
@@ -16350,7 +16515,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>191</v>
       </c>
@@ -16403,7 +16568,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>220</v>
       </c>
@@ -16456,7 +16621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <v>132</v>
       </c>
@@ -16509,7 +16674,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <v>147</v>
       </c>
@@ -16562,7 +16727,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>212</v>
       </c>
@@ -16615,7 +16780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>213</v>
       </c>
@@ -16668,7 +16833,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>149</v>
       </c>
@@ -16721,7 +16886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>153</v>
       </c>
@@ -16774,7 +16939,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>156</v>
       </c>
@@ -16827,7 +16992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>157</v>
       </c>
@@ -16880,7 +17045,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <v>158</v>
       </c>
@@ -16933,7 +17098,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>164</v>
       </c>
@@ -16986,7 +17151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>165</v>
       </c>
@@ -17039,7 +17204,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <v>168</v>
       </c>
@@ -17092,7 +17257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>214</v>
       </c>
@@ -17145,7 +17310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>210</v>
       </c>
@@ -17198,7 +17363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>222</v>
       </c>
@@ -17251,7 +17416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <v>199</v>
       </c>
@@ -17304,7 +17469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>174</v>
       </c>
@@ -17357,7 +17522,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>175</v>
       </c>
@@ -17410,7 +17575,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>178</v>
       </c>
@@ -17463,7 +17628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>179</v>
       </c>
@@ -17516,7 +17681,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <v>144</v>
       </c>
@@ -17572,7 +17737,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>181</v>
       </c>
@@ -17625,7 +17790,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <v>182</v>
       </c>
@@ -17678,7 +17843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>183</v>
       </c>
@@ -17728,7 +17893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <v>161</v>
       </c>
@@ -17781,7 +17946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>163</v>
       </c>
@@ -17834,7 +17999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <v>186</v>
       </c>
@@ -17887,7 +18052,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>205</v>
       </c>
@@ -17940,7 +18105,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>187</v>
       </c>
@@ -17993,7 +18158,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <v>188</v>
       </c>
@@ -18046,7 +18211,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>189</v>
       </c>
@@ -18099,7 +18264,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <v>190</v>
       </c>
@@ -18152,7 +18317,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>193</v>
       </c>
@@ -18205,7 +18370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <v>194</v>
       </c>
@@ -18258,7 +18423,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <v>195</v>
       </c>
@@ -18311,7 +18476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <v>196</v>
       </c>
@@ -18364,7 +18529,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>169</v>
       </c>
@@ -18417,7 +18582,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <v>170</v>
       </c>
@@ -18470,7 +18635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>173</v>
       </c>
@@ -18523,7 +18688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <v>180</v>
       </c>
@@ -18576,7 +18741,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <v>197</v>
       </c>
@@ -18629,7 +18794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <v>198</v>
       </c>
@@ -18682,7 +18847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>176</v>
       </c>
@@ -18735,7 +18900,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <v>177</v>
       </c>
@@ -18788,7 +18953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <v>200</v>
       </c>
@@ -18841,7 +19006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <v>201</v>
       </c>
@@ -18894,7 +19059,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>202</v>
       </c>
@@ -18947,7 +19112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <v>203</v>
       </c>
@@ -19000,7 +19165,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>204</v>
       </c>
@@ -19053,7 +19218,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <v>206</v>
       </c>
@@ -19106,7 +19271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>207</v>
       </c>
@@ -19159,7 +19324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <v>208</v>
       </c>
@@ -19212,7 +19377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>209</v>
       </c>
@@ -19265,7 +19430,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <v>211</v>
       </c>
@@ -19318,7 +19483,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>215</v>
       </c>
@@ -19371,7 +19536,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>216</v>
       </c>
@@ -19424,7 +19589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>148</v>
       </c>
@@ -19477,7 +19642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <v>151</v>
       </c>
@@ -19530,7 +19695,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <v>152</v>
       </c>
@@ -19583,7 +19748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <v>219</v>
       </c>
@@ -19636,7 +19801,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>223</v>
       </c>
@@ -19689,7 +19854,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
         <v>392</v>
       </c>
@@ -19736,7 +19901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <v>393</v>
       </c>
@@ -19783,7 +19948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
         <v>394</v>
       </c>
@@ -19830,7 +19995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <v>238</v>
       </c>
@@ -19880,7 +20045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
         <v>239</v>
       </c>
@@ -19927,7 +20092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <v>252</v>
       </c>
@@ -19977,7 +20142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
         <v>253</v>
       </c>
@@ -20027,7 +20192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <v>258</v>
       </c>
@@ -20074,7 +20239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
         <v>262</v>
       </c>
@@ -20121,7 +20286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <v>268</v>
       </c>
@@ -20168,7 +20333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <v>269</v>
       </c>
@@ -20215,7 +20380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <v>270</v>
       </c>
@@ -20262,7 +20427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
         <v>272</v>
       </c>
@@ -20309,7 +20474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <v>226</v>
       </c>
@@ -20356,7 +20521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
         <v>230</v>
       </c>
@@ -20403,7 +20568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <v>237</v>
       </c>
@@ -20450,7 +20615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <v>240</v>
       </c>
@@ -20497,7 +20662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
         <v>228</v>
       </c>
@@ -20544,7 +20709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
         <v>235</v>
       </c>
@@ -20591,7 +20756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <v>244</v>
       </c>
@@ -20638,7 +20803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <v>245</v>
       </c>
@@ -20685,7 +20850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <v>260</v>
       </c>
@@ -20732,7 +20897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <v>265</v>
       </c>
@@ -20779,7 +20944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
         <v>271</v>
       </c>
@@ -20826,7 +20991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <v>256</v>
       </c>
@@ -20873,7 +21038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
         <v>248</v>
       </c>
@@ -20923,7 +21088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="7">
         <v>249</v>
       </c>
@@ -20973,7 +21138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="7">
         <v>250</v>
       </c>
@@ -21020,7 +21185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
         <v>251</v>
       </c>
@@ -21070,7 +21235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="7">
         <v>234</v>
       </c>
@@ -21120,7 +21285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
         <v>242</v>
       </c>
@@ -21128,7 +21293,7 @@
         <v>2055</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D255" t="s">
         <v>513</v>
@@ -21176,7 +21341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <v>241</v>
       </c>
@@ -21226,7 +21391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A257" s="7">
         <v>247</v>
       </c>
@@ -21276,7 +21441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
         <v>225</v>
       </c>
@@ -21326,7 +21491,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
         <v>257</v>
       </c>
@@ -21376,7 +21541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
         <v>229</v>
       </c>
@@ -21426,7 +21591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
         <v>254</v>
       </c>
@@ -21476,7 +21641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A262" s="7">
         <v>255</v>
       </c>
@@ -21523,7 +21688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
         <v>259</v>
       </c>
@@ -21570,7 +21735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264" s="7">
         <v>279</v>
       </c>
@@ -21617,7 +21782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A265" s="7">
         <v>263</v>
       </c>
@@ -21664,7 +21829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
         <v>264</v>
       </c>
@@ -21711,7 +21876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
         <v>243</v>
       </c>
@@ -21758,7 +21923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A268" s="7">
         <v>261</v>
       </c>
@@ -21805,7 +21970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A269" s="7">
         <v>273</v>
       </c>
@@ -21852,7 +22017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A270" s="7">
         <v>224</v>
       </c>
@@ -21899,7 +22064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
         <v>227</v>
       </c>
@@ -21946,7 +22111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A272" s="7">
         <v>231</v>
       </c>
@@ -21993,7 +22158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="7">
         <v>233</v>
       </c>
@@ -22001,7 +22166,7 @@
         <v>2055</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D273" t="s">
         <v>495</v>
@@ -22049,7 +22214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
         <v>236</v>
       </c>
@@ -22096,7 +22261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
         <v>266</v>
       </c>
@@ -22143,7 +22308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
         <v>267</v>
       </c>
@@ -22193,7 +22358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A277" s="7">
         <v>274</v>
       </c>
@@ -22240,7 +22405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
         <v>232</v>
       </c>
@@ -22287,7 +22452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A279" s="7">
         <v>246</v>
       </c>
@@ -22334,7 +22499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
         <v>275</v>
       </c>
@@ -22381,7 +22546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
         <v>276</v>
       </c>
@@ -22431,7 +22596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="282" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
         <v>277</v>
       </c>
@@ -22478,7 +22643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A283" s="7">
         <v>278</v>
       </c>
@@ -22528,7 +22693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="7">
         <v>280</v>
       </c>
@@ -22575,7 +22740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" s="7">
         <v>282</v>
       </c>
@@ -22622,7 +22787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A286" s="7">
         <v>281</v>
       </c>
@@ -22672,7 +22837,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="287" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A287" s="7">
         <v>283</v>
       </c>
@@ -22719,7 +22884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A288" s="7">
         <v>345</v>
       </c>
@@ -22769,7 +22934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289" s="7">
         <v>339</v>
       </c>
@@ -22819,7 +22984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" s="7">
         <v>288</v>
       </c>
@@ -22869,7 +23034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291" s="7">
         <v>300</v>
       </c>
@@ -22919,7 +23084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292" s="7">
         <v>301</v>
       </c>
@@ -22969,7 +23134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293" s="7">
         <v>309</v>
       </c>
@@ -23019,7 +23184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294" s="7">
         <v>290</v>
       </c>
@@ -23069,7 +23234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" s="7">
         <v>303</v>
       </c>
@@ -23119,7 +23284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296" s="7">
         <v>305</v>
       </c>
@@ -23169,7 +23334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297" s="7">
         <v>306</v>
       </c>
@@ -23219,7 +23384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" s="7">
         <v>310</v>
       </c>
@@ -23269,7 +23434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299" s="7">
         <v>322</v>
       </c>
@@ -23319,7 +23484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300" s="7">
         <v>328</v>
       </c>
@@ -23369,7 +23534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301" s="7">
         <v>333</v>
       </c>
@@ -23419,7 +23584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302" s="7">
         <v>337</v>
       </c>
@@ -23469,7 +23634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303" s="7">
         <v>341</v>
       </c>
@@ -23519,7 +23684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304" s="7">
         <v>342</v>
       </c>
@@ -23569,7 +23734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305" s="7">
         <v>346</v>
       </c>
@@ -23619,7 +23784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306" s="7">
         <v>348</v>
       </c>
@@ -23669,7 +23834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307" s="7">
         <v>352</v>
       </c>
@@ -23719,7 +23884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308" s="7">
         <v>370</v>
       </c>
@@ -23769,7 +23934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309" s="7">
         <v>298</v>
       </c>
@@ -23819,7 +23984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310" s="7">
         <v>304</v>
       </c>
@@ -23869,7 +24034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311" s="7">
         <v>307</v>
       </c>
@@ -23919,7 +24084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312" s="7">
         <v>308</v>
       </c>
@@ -23969,7 +24134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313" s="7">
         <v>334</v>
       </c>
@@ -24019,7 +24184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314" s="7">
         <v>319</v>
       </c>
@@ -24069,7 +24234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315" s="7">
         <v>284</v>
       </c>
@@ -24119,7 +24284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316" s="7">
         <v>329</v>
       </c>
@@ -24166,7 +24331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317" s="7">
         <v>360</v>
       </c>
@@ -24213,7 +24378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318" s="7">
         <v>330</v>
       </c>
@@ -24260,7 +24425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319" s="7">
         <v>331</v>
       </c>
@@ -24307,7 +24472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320" s="7">
         <v>332</v>
       </c>
@@ -24354,7 +24519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321" s="7">
         <v>323</v>
       </c>
@@ -24401,7 +24566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322" s="7">
         <v>311</v>
       </c>
@@ -24451,7 +24616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323" s="7">
         <v>289</v>
       </c>
@@ -24501,7 +24666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324" s="7">
         <v>291</v>
       </c>
@@ -24551,7 +24716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325" s="7">
         <v>292</v>
       </c>
@@ -24601,7 +24766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326" s="7">
         <v>327</v>
       </c>
@@ -24651,7 +24816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A327" s="7">
         <v>335</v>
       </c>
@@ -24701,7 +24866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328" s="7">
         <v>343</v>
       </c>
@@ -24751,7 +24916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329" s="7">
         <v>350</v>
       </c>
@@ -24801,7 +24966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330" s="7">
         <v>357</v>
       </c>
@@ -24851,7 +25016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331" s="7">
         <v>361</v>
       </c>
@@ -24901,7 +25066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332" s="7">
         <v>371</v>
       </c>
@@ -24951,7 +25116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333" s="7">
         <v>369</v>
       </c>
@@ -25001,7 +25166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334" s="7">
         <v>312</v>
       </c>
@@ -25048,7 +25213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335" s="7">
         <v>340</v>
       </c>
@@ -25098,7 +25263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336" s="7">
         <v>362</v>
       </c>
@@ -25145,7 +25310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337" s="7">
         <v>359</v>
       </c>
@@ -25195,7 +25360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338" s="7">
         <v>295</v>
       </c>
@@ -25245,7 +25410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339" s="7">
         <v>296</v>
       </c>
@@ -25295,7 +25460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340" s="7">
         <v>294</v>
       </c>
@@ -25345,7 +25510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341" s="7">
         <v>321</v>
       </c>
@@ -25395,7 +25560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342" s="7">
         <v>302</v>
       </c>
@@ -25445,7 +25610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343" s="7">
         <v>313</v>
       </c>
@@ -25495,7 +25660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344" s="7">
         <v>314</v>
       </c>
@@ -25545,7 +25710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345" s="7">
         <v>315</v>
       </c>
@@ -25595,7 +25760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346" s="7">
         <v>320</v>
       </c>
@@ -25645,7 +25810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347" s="7">
         <v>285</v>
       </c>
@@ -25695,7 +25860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348" s="7">
         <v>316</v>
       </c>
@@ -25745,7 +25910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349" s="7">
         <v>324</v>
       </c>
@@ -25795,7 +25960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350" s="7">
         <v>355</v>
       </c>
@@ -25845,7 +26010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351" s="7">
         <v>326</v>
       </c>
@@ -25895,7 +26060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352" s="7">
         <v>318</v>
       </c>
@@ -25945,7 +26110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353" s="7">
         <v>368</v>
       </c>
@@ -25995,7 +26160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354" s="7">
         <v>297</v>
       </c>
@@ -26045,7 +26210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355" s="7">
         <v>293</v>
       </c>
@@ -26095,7 +26260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356" s="7">
         <v>372</v>
       </c>
@@ -26145,7 +26310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357" s="7">
         <v>336</v>
       </c>
@@ -26195,7 +26360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358" s="7">
         <v>349</v>
       </c>
@@ -26245,7 +26410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359" s="7">
         <v>325</v>
       </c>
@@ -26295,7 +26460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360" s="7">
         <v>286</v>
       </c>
@@ -26345,7 +26510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A361" s="7">
         <v>287</v>
       </c>
@@ -26395,7 +26560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362" s="7">
         <v>317</v>
       </c>
@@ -26445,7 +26610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A363" s="7">
         <v>347</v>
       </c>
@@ -26495,7 +26660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364" s="7">
         <v>299</v>
       </c>
@@ -26545,7 +26710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A365" s="7">
         <v>344</v>
       </c>
@@ -26595,7 +26760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A366" s="7">
         <v>353</v>
       </c>
@@ -26645,7 +26810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A367" s="7">
         <v>354</v>
       </c>
@@ -26695,7 +26860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A368" s="7">
         <v>356</v>
       </c>
@@ -26745,7 +26910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A369" s="7">
         <v>358</v>
       </c>
@@ -26795,7 +26960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A370" s="7">
         <v>363</v>
       </c>
@@ -26845,7 +27010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A371" s="7">
         <v>364</v>
       </c>
@@ -26895,7 +27060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A372" s="7">
         <v>365</v>
       </c>
@@ -26945,7 +27110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A373" s="7">
         <v>366</v>
       </c>
@@ -26995,7 +27160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A374" s="7">
         <v>367</v>
       </c>
@@ -27045,7 +27210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A375" s="7">
         <v>338</v>
       </c>
@@ -27095,7 +27260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A376" s="7">
         <v>351</v>
       </c>
@@ -27145,7 +27310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A377" s="7">
         <v>374</v>
       </c>
@@ -27192,7 +27357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A378" s="7">
         <v>376</v>
       </c>
@@ -27239,7 +27404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A379" s="7">
         <v>373</v>
       </c>
@@ -27289,7 +27454,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A380" s="7">
         <v>375</v>
       </c>
@@ -27336,7 +27501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A381" s="7">
         <v>377</v>
       </c>
@@ -27386,7 +27551,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="382" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="7">
         <v>380</v>
       </c>
@@ -27436,7 +27601,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="383" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A383" s="7">
         <v>378</v>
       </c>
@@ -27483,7 +27648,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="384" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="7">
         <v>381</v>
       </c>
@@ -27533,7 +27698,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="385" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" s="7">
         <v>379</v>
       </c>
@@ -27583,7 +27748,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="386" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A386" s="7">
         <v>382</v>
       </c>
@@ -27633,7 +27798,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="387" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" s="7">
         <v>383</v>
       </c>
@@ -27683,7 +27848,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="388" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A388" s="7">
         <v>461</v>
       </c>
@@ -27733,7 +27898,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="389" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A389" s="7">
         <v>384</v>
       </c>
@@ -27783,7 +27948,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="390" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="7">
         <v>386</v>
       </c>
@@ -27833,7 +27998,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="391" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A391" s="7">
         <v>388</v>
       </c>
@@ -27883,7 +28048,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="392" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A392" s="7">
         <v>389</v>
       </c>
@@ -27933,7 +28098,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="393" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="7">
         <v>390</v>
       </c>
@@ -27983,7 +28148,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="394" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A394" s="7">
         <v>391</v>
       </c>
@@ -28033,7 +28198,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="395" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A395" s="7">
         <v>387</v>
       </c>
@@ -28083,7 +28248,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="396" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A396" s="7">
         <v>404</v>
       </c>
@@ -28133,7 +28298,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="397" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A397" s="7">
         <v>410</v>
       </c>
@@ -28183,7 +28348,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="398" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A398" s="7">
         <v>416</v>
       </c>
@@ -28233,7 +28398,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="399" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A399" s="7">
         <v>403</v>
       </c>
@@ -28280,7 +28445,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="400" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A400" s="7">
         <v>395</v>
       </c>
@@ -28330,7 +28495,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="401" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A401" s="7">
         <v>396</v>
       </c>
@@ -28380,7 +28545,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="402" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A402" s="7">
         <v>397</v>
       </c>
@@ -28430,7 +28595,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="403" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A403" s="7">
         <v>398</v>
       </c>
@@ -28480,7 +28645,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="404" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A404" s="7">
         <v>407</v>
       </c>
@@ -28530,7 +28695,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="405" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A405" s="7">
         <v>408</v>
       </c>
@@ -28580,7 +28745,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="406" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A406" s="7">
         <v>409</v>
       </c>
@@ -28630,7 +28795,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="407" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A407" s="7">
         <v>399</v>
       </c>
@@ -28680,7 +28845,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="408" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A408" s="7">
         <v>402</v>
       </c>
@@ -28730,7 +28895,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="409" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A409" s="7">
         <v>405</v>
       </c>
@@ -28780,7 +28945,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="410" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A410" s="7">
         <v>412</v>
       </c>
@@ -28830,7 +28995,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="411" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A411" s="7">
         <v>415</v>
       </c>
@@ -28880,7 +29045,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="412" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A412" s="7">
         <v>413</v>
       </c>
@@ -28930,7 +29095,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="413" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="7">
         <v>414</v>
       </c>
@@ -28980,7 +29145,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="414" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A414" s="7">
         <v>423</v>
       </c>
@@ -29030,7 +29195,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="415" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A415" s="7">
         <v>424</v>
       </c>
@@ -29080,7 +29245,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="416" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A416" s="7">
         <v>406</v>
       </c>
@@ -29130,7 +29295,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="417" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="7">
         <v>426</v>
       </c>
@@ -29180,7 +29345,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="418" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A418" s="7">
         <v>427</v>
       </c>
@@ -29230,7 +29395,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="419" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A419" s="7">
         <v>430</v>
       </c>
@@ -29280,7 +29445,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="420" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="7">
         <v>433</v>
       </c>
@@ -29330,7 +29495,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="421" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A421" s="7">
         <v>441</v>
       </c>
@@ -29380,7 +29545,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="422" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A422" s="7">
         <v>429</v>
       </c>
@@ -29430,7 +29595,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="423" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A423" s="7">
         <v>431</v>
       </c>
@@ -29480,7 +29645,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="424" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A424" s="7">
         <v>432</v>
       </c>
@@ -29530,7 +29695,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="425" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A425" s="7">
         <v>417</v>
       </c>
@@ -29580,7 +29745,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="426" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A426" s="7">
         <v>419</v>
       </c>
@@ -29630,7 +29795,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="427" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A427" s="7">
         <v>434</v>
       </c>
@@ -29680,7 +29845,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="428" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A428" s="7">
         <v>435</v>
       </c>
@@ -29730,7 +29895,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="429" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A429" s="7">
         <v>436</v>
       </c>
@@ -29780,7 +29945,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="430" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A430" s="7">
         <v>437</v>
       </c>
@@ -29830,7 +29995,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="431" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A431" s="7">
         <v>420</v>
       </c>
@@ -29880,7 +30045,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="432" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A432" s="7">
         <v>438</v>
       </c>
@@ -29930,7 +30095,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="433" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A433" s="7">
         <v>439</v>
       </c>
@@ -29980,7 +30145,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="434" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A434" s="7">
         <v>440</v>
       </c>
@@ -30030,7 +30195,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="435" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A435" s="7">
         <v>400</v>
       </c>
@@ -30080,7 +30245,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="436" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A436" s="7">
         <v>401</v>
       </c>
@@ -30130,7 +30295,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="437" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A437" s="7">
         <v>411</v>
       </c>
@@ -30180,7 +30345,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="438" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A438" s="7">
         <v>421</v>
       </c>
@@ -30230,7 +30395,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="439" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A439" s="7">
         <v>442</v>
       </c>
@@ -30280,7 +30445,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="440" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A440" s="7">
         <v>443</v>
       </c>
@@ -30330,7 +30495,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="441" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A441" s="7">
         <v>422</v>
       </c>
@@ -30380,7 +30545,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="442" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A442" s="7">
         <v>444</v>
       </c>
@@ -30430,7 +30595,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="443" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A443" s="7">
         <v>445</v>
       </c>
@@ -30480,7 +30645,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="444" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A444" s="7">
         <v>446</v>
       </c>
@@ -30530,7 +30695,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="445" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A445" s="7">
         <v>447</v>
       </c>
@@ -30580,7 +30745,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="446" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A446" s="7">
         <v>425</v>
       </c>
@@ -30630,7 +30795,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="447" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A447" s="7">
         <v>428</v>
       </c>
@@ -30680,7 +30845,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="448" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A448" s="7">
         <v>418</v>
       </c>
@@ -30730,7 +30895,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="449" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A449" s="7">
         <v>448</v>
       </c>
@@ -30777,7 +30942,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="450" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A450" s="7">
         <v>801</v>
       </c>
@@ -30827,7 +30992,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="451" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A451" s="7">
         <v>802</v>
       </c>
@@ -30877,7 +31042,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="452" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A452" s="7">
         <v>385</v>
       </c>
@@ -30924,7 +31089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A453" s="7">
         <v>454</v>
       </c>
@@ -30974,7 +31139,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="454" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="7">
         <v>455</v>
       </c>
@@ -31024,7 +31189,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="455" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A455" s="7">
         <v>456</v>
       </c>
@@ -31074,7 +31239,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="456" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A456" s="7">
         <v>457</v>
       </c>
@@ -31124,7 +31289,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="457" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A457" s="7">
         <v>449</v>
       </c>
@@ -31171,7 +31336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A458" s="7">
         <v>450</v>
       </c>
@@ -31218,7 +31383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A459" s="7">
         <v>451</v>
       </c>
@@ -31265,7 +31430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A460" s="7">
         <v>452</v>
       </c>
@@ -31312,7 +31477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A461" s="7">
         <v>453</v>
       </c>
@@ -31359,7 +31524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A462" s="7">
         <v>458</v>
       </c>
@@ -31406,7 +31571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A463" s="7">
         <v>459</v>
       </c>
@@ -31453,7 +31618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A464" s="7">
         <v>460</v>
       </c>
@@ -31500,7 +31665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A465" s="7">
         <v>462</v>
       </c>
@@ -31547,7 +31712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A466" s="7">
         <v>463</v>
       </c>
@@ -31594,7 +31759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A467" s="7">
         <v>532</v>
       </c>
@@ -31641,7 +31806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A468" s="7">
         <v>525</v>
       </c>
@@ -31691,7 +31856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A469" s="7">
         <v>526</v>
       </c>
@@ -31741,7 +31906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A470" s="7">
         <v>520</v>
       </c>
@@ -31791,7 +31956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A471" s="7">
         <v>534</v>
       </c>
@@ -31841,7 +32006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A472" s="7">
         <v>487</v>
       </c>
@@ -31891,7 +32056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A473" s="7">
         <v>545</v>
       </c>
@@ -31941,7 +32106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A474" s="7">
         <v>480</v>
       </c>
@@ -31991,7 +32156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A475" s="7">
         <v>649</v>
       </c>
@@ -32041,7 +32206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A476" s="7">
         <v>622</v>
       </c>
@@ -32091,7 +32256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A477" s="7">
         <v>477</v>
       </c>
@@ -32141,7 +32306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A478" s="7">
         <v>496</v>
       </c>
@@ -32191,7 +32356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A479" s="7">
         <v>498</v>
       </c>
@@ -32241,7 +32406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A480" s="7">
         <v>509</v>
       </c>
@@ -32291,7 +32456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="481" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A481" s="7">
         <v>617</v>
       </c>
@@ -32341,7 +32506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="482" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A482" s="7">
         <v>633</v>
       </c>
@@ -32391,7 +32556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="483" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A483" s="7">
         <v>681</v>
       </c>
@@ -32441,7 +32606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="484" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A484" s="7">
         <v>703</v>
       </c>
@@ -32488,7 +32653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A485" s="7">
         <v>503</v>
       </c>
@@ -32535,7 +32700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A486" s="7">
         <v>650</v>
       </c>
@@ -32585,7 +32750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="487" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A487" s="7">
         <v>613</v>
       </c>
@@ -32632,7 +32797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A488" s="7">
         <v>688</v>
       </c>
@@ -32679,7 +32844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A489" s="7">
         <v>491</v>
       </c>
@@ -32729,7 +32894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="490" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A490" s="7">
         <v>581</v>
       </c>
@@ -32779,7 +32944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="491" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A491" s="7">
         <v>664</v>
       </c>
@@ -32826,7 +32991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A492" s="7">
         <v>493</v>
       </c>
@@ -32876,7 +33041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="493" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A493" s="7">
         <v>494</v>
       </c>
@@ -32926,7 +33091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="494" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A494" s="7">
         <v>495</v>
       </c>
@@ -32976,7 +33141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="495" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A495" s="7">
         <v>501</v>
       </c>
@@ -33026,7 +33191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="496" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A496" s="7">
         <v>506</v>
       </c>
@@ -33076,7 +33241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="497" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A497" s="7">
         <v>641</v>
       </c>
@@ -33126,7 +33291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="498" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A498" s="7">
         <v>502</v>
       </c>
@@ -33173,7 +33338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A499" s="7">
         <v>481</v>
       </c>
@@ -33220,7 +33385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A500" s="7">
         <v>499</v>
       </c>
@@ -33270,7 +33435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="501" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A501" s="7">
         <v>500</v>
       </c>
@@ -33320,7 +33485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="502" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A502" s="7">
         <v>540</v>
       </c>
@@ -33367,7 +33532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A503" s="7">
         <v>507</v>
       </c>
@@ -33417,7 +33582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="504" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A504" s="7">
         <v>687</v>
       </c>
@@ -33467,7 +33632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="505" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A505" s="7">
         <v>562</v>
       </c>
@@ -33517,7 +33682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="506" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A506" s="7">
         <v>488</v>
       </c>
@@ -33564,7 +33729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A507" s="7">
         <v>511</v>
       </c>
@@ -33614,7 +33779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="508" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A508" s="7">
         <v>519</v>
       </c>
@@ -33664,7 +33829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="509" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A509" s="7">
         <v>508</v>
       </c>
@@ -33711,7 +33876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A510" s="7">
         <v>518</v>
       </c>
@@ -33761,7 +33926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="511" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A511" s="7">
         <v>528</v>
       </c>
@@ -33811,7 +33976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="512" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A512" s="7">
         <v>529</v>
       </c>
@@ -33861,7 +34026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="513" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A513" s="7">
         <v>512</v>
       </c>
@@ -33911,7 +34076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="514" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A514" s="7">
         <v>522</v>
       </c>
@@ -33958,7 +34123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A515" s="7">
         <v>538</v>
       </c>
@@ -34005,7 +34170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A516" s="7">
         <v>642</v>
       </c>
@@ -34052,7 +34217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A517" s="7">
         <v>746</v>
       </c>
@@ -34099,7 +34264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A518" s="7">
         <v>470</v>
       </c>
@@ -34149,7 +34314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="519" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A519" s="7">
         <v>474</v>
       </c>
@@ -34196,7 +34361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A520" s="7">
         <v>504</v>
       </c>
@@ -34246,7 +34411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="521" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A521" s="7">
         <v>560</v>
       </c>
@@ -34296,7 +34461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="522" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A522" s="7">
         <v>568</v>
       </c>
@@ -34343,7 +34508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A523" s="7">
         <v>469</v>
       </c>
@@ -34390,7 +34555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A524" s="7">
         <v>478</v>
       </c>
@@ -34440,7 +34605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="525" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A525" s="7">
         <v>543</v>
       </c>
@@ -34490,7 +34655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="526" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A526" s="7">
         <v>541</v>
       </c>
@@ -34537,7 +34702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A527" s="7">
         <v>542</v>
       </c>
@@ -34587,7 +34752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="528" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A528" s="7">
         <v>561</v>
       </c>
@@ -34634,7 +34799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A529" s="7">
         <v>580</v>
       </c>
@@ -34684,7 +34849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="530" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A530" s="7">
         <v>567</v>
       </c>
@@ -34734,7 +34899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="531" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A531" s="7">
         <v>569</v>
       </c>
@@ -34784,7 +34949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="532" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A532" s="7">
         <v>570</v>
       </c>
@@ -34834,7 +34999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="533" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A533" s="7">
         <v>572</v>
       </c>
@@ -34881,7 +35046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A534" s="7">
         <v>551</v>
       </c>
@@ -34931,7 +35096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="535" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A535" s="7">
         <v>574</v>
       </c>
@@ -34981,7 +35146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="536" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A536" s="7">
         <v>575</v>
       </c>
@@ -35031,7 +35196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="537" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A537" s="7">
         <v>576</v>
       </c>
@@ -35081,7 +35246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="538" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A538" s="7">
         <v>577</v>
       </c>
@@ -35131,7 +35296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="539" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A539" s="7">
         <v>578</v>
       </c>
@@ -35181,7 +35346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="540" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A540" s="7">
         <v>579</v>
       </c>
@@ -35231,7 +35396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="541" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A541" s="7">
         <v>582</v>
       </c>
@@ -35281,7 +35446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="542" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A542" s="7">
         <v>514</v>
       </c>
@@ -35331,7 +35496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="543" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A543" s="7">
         <v>585</v>
       </c>
@@ -35381,7 +35546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="544" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A544" s="7">
         <v>678</v>
       </c>
@@ -35431,7 +35596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="545" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A545" s="7">
         <v>505</v>
       </c>
@@ -35481,7 +35646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="546" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A546" s="7">
         <v>521</v>
       </c>
@@ -35531,7 +35696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="547" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A547" s="7">
         <v>535</v>
       </c>
@@ -35581,7 +35746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="548" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A548" s="7">
         <v>558</v>
       </c>
@@ -35631,7 +35796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="549" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A549" s="7">
         <v>605</v>
       </c>
@@ -35681,7 +35846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="550" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A550" s="7">
         <v>666</v>
       </c>
@@ -35731,7 +35896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="551" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A551" s="7">
         <v>670</v>
       </c>
@@ -35781,7 +35946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="552" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A552" s="7">
         <v>671</v>
       </c>
@@ -35831,7 +35996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="553" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A553" s="7">
         <v>674</v>
       </c>
@@ -35881,7 +36046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="554" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A554" s="7">
         <v>679</v>
       </c>
@@ -35931,7 +36096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="555" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A555" s="7">
         <v>682</v>
       </c>
@@ -35981,7 +36146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="556" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A556" s="7">
         <v>591</v>
       </c>
@@ -36031,7 +36196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="557" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A557" s="7">
         <v>592</v>
       </c>
@@ -36081,7 +36246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="558" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A558" s="7">
         <v>593</v>
       </c>
@@ -36131,7 +36296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="559" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A559" s="7">
         <v>594</v>
       </c>
@@ -36181,7 +36346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="560" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A560" s="7">
         <v>595</v>
       </c>
@@ -36231,7 +36396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="561" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A561" s="7">
         <v>588</v>
       </c>
@@ -36281,7 +36446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="562" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A562" s="7">
         <v>590</v>
       </c>
@@ -36331,7 +36496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="563" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A563" s="7">
         <v>602</v>
       </c>
@@ -36381,7 +36546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="564" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A564" s="7">
         <v>539</v>
       </c>
@@ -36431,7 +36596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="565" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A565" s="7">
         <v>600</v>
       </c>
@@ -36481,7 +36646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="566" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A566" s="7">
         <v>486</v>
       </c>
@@ -36531,7 +36696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="567" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A567" s="7">
         <v>490</v>
       </c>
@@ -36581,7 +36746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="568" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A568" s="7">
         <v>510</v>
       </c>
@@ -36631,7 +36796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="569" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A569" s="7">
         <v>523</v>
       </c>
@@ -36681,7 +36846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="570" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A570" s="7">
         <v>524</v>
       </c>
@@ -36731,7 +36896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="571" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A571" s="7">
         <v>537</v>
       </c>
@@ -36781,7 +36946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="572" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A572" s="7">
         <v>489</v>
       </c>
@@ -36831,7 +36996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="573" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A573" s="7">
         <v>566</v>
       </c>
@@ -36881,7 +37046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="574" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A574" s="7">
         <v>631</v>
       </c>
@@ -36931,7 +37096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="575" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A575" s="7">
         <v>607</v>
       </c>
@@ -36981,7 +37146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="576" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A576" s="7">
         <v>608</v>
       </c>
@@ -37031,7 +37196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="577" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A577" s="7">
         <v>609</v>
       </c>
@@ -37081,7 +37246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="578" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A578" s="7">
         <v>610</v>
       </c>
@@ -37131,7 +37296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="579" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A579" s="7">
         <v>611</v>
       </c>
@@ -37181,7 +37346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="580" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A580" s="7">
         <v>612</v>
       </c>
@@ -37231,7 +37396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="581" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A581" s="7">
         <v>630</v>
       </c>
@@ -37281,7 +37446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="582" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A582" s="7">
         <v>586</v>
       </c>
@@ -37331,7 +37496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="583" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A583" s="7">
         <v>615</v>
       </c>
@@ -37381,7 +37546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="584" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A584" s="7">
         <v>533</v>
       </c>
@@ -37431,7 +37596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="585" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A585" s="7">
         <v>616</v>
       </c>
@@ -37481,7 +37646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="586" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A586" s="7">
         <v>550</v>
       </c>
@@ -37531,7 +37696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="587" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A587" s="7">
         <v>573</v>
       </c>
@@ -37581,7 +37746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="588" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A588" s="7">
         <v>623</v>
       </c>
@@ -37631,7 +37796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="589" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A589" s="7">
         <v>536</v>
       </c>
@@ -37681,7 +37846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="590" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A590" s="7">
         <v>626</v>
       </c>
@@ -37731,7 +37896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="591" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A591" s="7">
         <v>627</v>
       </c>
@@ -37781,7 +37946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="592" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A592" s="7">
         <v>656</v>
       </c>
@@ -37831,7 +37996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="593" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A593" s="7">
         <v>471</v>
       </c>
@@ -37881,7 +38046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="594" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A594" s="7">
         <v>472</v>
       </c>
@@ -37931,7 +38096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="595" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A595" s="7">
         <v>473</v>
       </c>
@@ -37981,7 +38146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="596" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A596" s="7">
         <v>475</v>
       </c>
@@ -38031,7 +38196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="597" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A597" s="7">
         <v>476</v>
       </c>
@@ -38081,7 +38246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="598" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A598" s="7">
         <v>549</v>
       </c>
@@ -38131,7 +38296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="599" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A599" s="7">
         <v>629</v>
       </c>
@@ -38181,7 +38346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="600" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A600" s="7">
         <v>467</v>
       </c>
@@ -38231,7 +38396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="601" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A601" s="7">
         <v>468</v>
       </c>
@@ -38281,7 +38446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="602" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A602" s="7">
         <v>513</v>
       </c>
@@ -38331,7 +38496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="603" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A603" s="7">
         <v>552</v>
       </c>
@@ -38381,7 +38546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="604" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A604" s="7">
         <v>553</v>
       </c>
@@ -38431,7 +38596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="605" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A605" s="7">
         <v>554</v>
       </c>
@@ -38481,7 +38646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="606" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A606" s="7">
         <v>555</v>
       </c>
@@ -38531,7 +38696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="607" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A607" s="7">
         <v>556</v>
       </c>
@@ -38581,7 +38746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="608" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A608" s="7">
         <v>557</v>
       </c>
@@ -38631,7 +38796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="609" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A609" s="7">
         <v>559</v>
       </c>
@@ -38681,7 +38846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="610" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A610" s="7">
         <v>752</v>
       </c>
@@ -38728,7 +38893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A611" s="7">
         <v>583</v>
       </c>
@@ -38775,7 +38940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A612" s="7">
         <v>658</v>
       </c>
@@ -38822,7 +38987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A613" s="7">
         <v>659</v>
       </c>
@@ -38869,7 +39034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A614" s="7">
         <v>660</v>
       </c>
@@ -38916,7 +39081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A615" s="7">
         <v>661</v>
       </c>
@@ -38963,7 +39128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A616" s="7">
         <v>662</v>
       </c>
@@ -39010,7 +39175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A617" s="7">
         <v>530</v>
       </c>
@@ -39060,7 +39225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="618" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A618" s="7">
         <v>697</v>
       </c>
@@ -39110,7 +39275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="619" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A619" s="7">
         <v>632</v>
       </c>
@@ -39160,7 +39325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="620" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A620" s="7">
         <v>635</v>
       </c>
@@ -39210,7 +39375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="621" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A621" s="7">
         <v>497</v>
       </c>
@@ -39257,7 +39422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A622" s="7">
         <v>639</v>
       </c>
@@ -39307,7 +39472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="623" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A623" s="7">
         <v>603</v>
       </c>
@@ -39357,7 +39522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="624" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A624" s="7">
         <v>643</v>
       </c>
@@ -39407,7 +39572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="625" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A625" s="7">
         <v>646</v>
       </c>
@@ -39457,7 +39622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="626" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A626" s="7">
         <v>647</v>
       </c>
@@ -39507,7 +39672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="627" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A627" s="7">
         <v>648</v>
       </c>
@@ -39554,7 +39719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A628" s="7">
         <v>464</v>
       </c>
@@ -39604,7 +39769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="629" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A629" s="7">
         <v>465</v>
       </c>
@@ -39651,7 +39816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A630" s="7">
         <v>466</v>
       </c>
@@ -39698,7 +39863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A631" s="7">
         <v>606</v>
       </c>
@@ -39745,7 +39910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A632" s="7">
         <v>619</v>
       </c>
@@ -39792,7 +39957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A633" s="7">
         <v>620</v>
       </c>
@@ -39839,7 +40004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A634" s="7">
         <v>621</v>
       </c>
@@ -39886,7 +40051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A635" s="7">
         <v>634</v>
       </c>
@@ -39936,7 +40101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="636" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A636" s="7">
         <v>636</v>
       </c>
@@ -39986,7 +40151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="637" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A637" s="7">
         <v>637</v>
       </c>
@@ -40033,7 +40198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A638" s="7">
         <v>638</v>
       </c>
@@ -40080,7 +40245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A639" s="7">
         <v>640</v>
       </c>
@@ -40127,7 +40292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A640" s="7">
         <v>644</v>
       </c>
@@ -40174,7 +40339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A641" s="7">
         <v>645</v>
       </c>
@@ -40221,7 +40386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A642" s="7">
         <v>654</v>
       </c>
@@ -40268,7 +40433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A643" s="7">
         <v>655</v>
       </c>
@@ -40318,7 +40483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="644" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A644" s="7">
         <v>704</v>
       </c>
@@ -40365,7 +40530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A645" s="7">
         <v>706</v>
       </c>
@@ -40412,7 +40577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A646" s="7">
         <v>707</v>
       </c>
@@ -40459,7 +40624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A647" s="7">
         <v>708</v>
       </c>
@@ -40506,7 +40671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A648" s="7">
         <v>709</v>
       </c>
@@ -40553,7 +40718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A649" s="7">
         <v>710</v>
       </c>
@@ -40600,7 +40765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A650" s="7">
         <v>711</v>
       </c>
@@ -40647,7 +40812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A651" s="7">
         <v>712</v>
       </c>
@@ -40694,7 +40859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A652" s="7">
         <v>713</v>
       </c>
@@ -40741,7 +40906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A653" s="7">
         <v>714</v>
       </c>
@@ -40788,7 +40953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A654" s="7">
         <v>715</v>
       </c>
@@ -40838,7 +41003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="655" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A655" s="7">
         <v>716</v>
       </c>
@@ -40888,7 +41053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="656" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A656" s="7">
         <v>717</v>
       </c>
@@ -40935,7 +41100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A657" s="7">
         <v>718</v>
       </c>
@@ -40982,7 +41147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A658" s="7">
         <v>719</v>
       </c>
@@ -41029,7 +41194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A659" s="7">
         <v>720</v>
       </c>
@@ -41076,7 +41241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A660" s="7">
         <v>721</v>
       </c>
@@ -41123,7 +41288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A661" s="7">
         <v>722</v>
       </c>
@@ -41170,7 +41335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A662" s="7">
         <v>723</v>
       </c>
@@ -41217,7 +41382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A663" s="7">
         <v>724</v>
       </c>
@@ -41264,7 +41429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A664" s="7">
         <v>725</v>
       </c>
@@ -41311,7 +41476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A665" s="7">
         <v>726</v>
       </c>
@@ -41358,7 +41523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A666" s="7">
         <v>727</v>
       </c>
@@ -41405,7 +41570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A667" s="7">
         <v>728</v>
       </c>
@@ -41452,7 +41617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A668" s="7">
         <v>729</v>
       </c>
@@ -41499,7 +41664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A669" s="7">
         <v>730</v>
       </c>
@@ -41546,7 +41711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A670" s="7">
         <v>731</v>
       </c>
@@ -41593,7 +41758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A671" s="7">
         <v>732</v>
       </c>
@@ -41640,7 +41805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A672" s="7">
         <v>733</v>
       </c>
@@ -41687,7 +41852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A673" s="7">
         <v>734</v>
       </c>
@@ -41734,7 +41899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A674" s="7">
         <v>735</v>
       </c>
@@ -41781,7 +41946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A675" s="7">
         <v>736</v>
       </c>
@@ -41828,7 +41993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A676" s="7">
         <v>737</v>
       </c>
@@ -41875,7 +42040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A677" s="7">
         <v>738</v>
       </c>
@@ -41922,7 +42087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A678" s="7">
         <v>739</v>
       </c>
@@ -41969,7 +42134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A679" s="7">
         <v>740</v>
       </c>
@@ -42019,7 +42184,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="680" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A680" s="7">
         <v>741</v>
       </c>
@@ -42066,7 +42231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A681" s="7">
         <v>742</v>
       </c>
@@ -42113,7 +42278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A682" s="7">
         <v>743</v>
       </c>
@@ -42160,7 +42325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A683" s="7">
         <v>744</v>
       </c>
@@ -42207,7 +42372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A684" s="7">
         <v>745</v>
       </c>
@@ -42254,7 +42419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A685" s="7">
         <v>747</v>
       </c>
@@ -42304,7 +42469,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="686" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A686" s="7">
         <v>748</v>
       </c>
@@ -42354,7 +42519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="687" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A687" s="7">
         <v>749</v>
       </c>
@@ -42401,7 +42566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A688" s="7">
         <v>750</v>
       </c>
@@ -42448,7 +42613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A689" s="7">
         <v>751</v>
       </c>
@@ -42495,7 +42660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A690" s="7">
         <v>587</v>
       </c>
@@ -42545,7 +42710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="691" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A691" s="7">
         <v>614</v>
       </c>
@@ -42592,7 +42757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A692" s="7">
         <v>663</v>
       </c>
@@ -42642,7 +42807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="693" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A693" s="7">
         <v>668</v>
       </c>
@@ -42692,7 +42857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="694" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A694" s="7">
         <v>492</v>
       </c>
@@ -42742,7 +42907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="695" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A695" s="7">
         <v>516</v>
       </c>
@@ -42789,7 +42954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A696" s="7">
         <v>589</v>
       </c>
@@ -42836,7 +43001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A697" s="7">
         <v>665</v>
       </c>
@@ -42886,7 +43051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="698" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A698" s="7">
         <v>667</v>
       </c>
@@ -42936,7 +43101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="699" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A699" s="7">
         <v>669</v>
       </c>
@@ -42986,7 +43151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="700" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A700" s="7">
         <v>672</v>
       </c>
@@ -43036,7 +43201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="701" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A701" s="7">
         <v>673</v>
       </c>
@@ -43086,7 +43251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="702" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A702" s="7">
         <v>693</v>
       </c>
@@ -43133,7 +43298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A703" s="7">
         <v>675</v>
       </c>
@@ -43183,7 +43348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="704" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A704" s="7">
         <v>676</v>
       </c>
@@ -43233,7 +43398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="705" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A705" s="7">
         <v>677</v>
       </c>
@@ -43283,7 +43448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="706" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A706" s="7">
         <v>683</v>
       </c>
@@ -43333,7 +43498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="707" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A707" s="7">
         <v>685</v>
       </c>
@@ -43383,7 +43548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="708" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A708" s="7">
         <v>689</v>
       </c>
@@ -43430,7 +43595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A709" s="7">
         <v>690</v>
       </c>
@@ -43480,7 +43645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="710" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A710" s="7">
         <v>691</v>
       </c>
@@ -43527,7 +43692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="711" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A711" s="7">
         <v>692</v>
       </c>
@@ -43577,7 +43742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="712" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A712" s="7">
         <v>686</v>
       </c>
@@ -43627,7 +43792,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="713" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A713" s="7">
         <v>694</v>
       </c>
@@ -43674,7 +43839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A714" s="7">
         <v>601</v>
       </c>
@@ -43724,7 +43889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="715" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A715" s="7">
         <v>657</v>
       </c>
@@ -43771,7 +43936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A716" s="7">
         <v>695</v>
       </c>
@@ -43821,7 +43986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="717" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A717" s="7">
         <v>696</v>
       </c>
@@ -43871,7 +44036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="718" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A718" s="7">
         <v>698</v>
       </c>
@@ -43921,7 +44086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="719" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A719" s="7">
         <v>699</v>
       </c>
@@ -43971,7 +44136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="720" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A720" s="7">
         <v>584</v>
       </c>
@@ -44018,7 +44183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A721" s="7">
         <v>531</v>
       </c>
@@ -44068,7 +44233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="722" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A722" s="7">
         <v>563</v>
       </c>
@@ -44118,7 +44283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="723" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A723" s="7">
         <v>564</v>
       </c>
@@ -44168,7 +44333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="724" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A724" s="7">
         <v>651</v>
       </c>
@@ -44218,7 +44383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="725" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A725" s="7">
         <v>653</v>
       </c>
@@ -44265,7 +44430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A726" s="7">
         <v>479</v>
       </c>
@@ -44315,7 +44480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="727" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A727" s="7">
         <v>517</v>
       </c>
@@ -44365,7 +44530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="728" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A728" s="7">
         <v>547</v>
       </c>
@@ -44415,7 +44580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="729" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A729" s="7">
         <v>565</v>
       </c>
@@ -44465,7 +44630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="730" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A730" s="7">
         <v>705</v>
       </c>
@@ -44515,7 +44680,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="731" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A731" s="7">
         <v>546</v>
       </c>
@@ -44565,7 +44730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="732" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A732" s="7">
         <v>544</v>
       </c>
@@ -44612,7 +44777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A733" s="7">
         <v>571</v>
       </c>
@@ -44662,7 +44827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="734" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A734" s="7">
         <v>597</v>
       </c>
@@ -44709,7 +44874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A735" s="7">
         <v>599</v>
       </c>
@@ -44756,7 +44921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A736" s="7">
         <v>700</v>
       </c>
@@ -44806,7 +44971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="737" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A737" s="7">
         <v>596</v>
       </c>
@@ -44856,7 +45021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="738" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A738" s="7">
         <v>598</v>
       </c>
@@ -44906,7 +45071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="739" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A739" s="7">
         <v>624</v>
       </c>
@@ -44956,7 +45121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="740" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A740" s="7">
         <v>625</v>
       </c>
@@ -45006,7 +45171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="741" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A741" s="7">
         <v>628</v>
       </c>
@@ -45056,7 +45221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="742" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A742" s="7">
         <v>652</v>
       </c>
@@ -45106,7 +45271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="743" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A743" s="7">
         <v>702</v>
       </c>
@@ -45156,7 +45321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="744" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A744" s="7">
         <v>604</v>
       </c>
@@ -45206,7 +45371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="745" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A745" s="7">
         <v>618</v>
       </c>
@@ -45253,7 +45418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A746" s="7">
         <v>701</v>
       </c>
@@ -45300,7 +45465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A747" s="7">
         <v>484</v>
       </c>
@@ -45347,7 +45512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A748" s="7">
         <v>548</v>
       </c>
@@ -45397,7 +45562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="749" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A749" s="7">
         <v>515</v>
       </c>
@@ -45447,7 +45612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="750" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A750" s="7">
         <v>527</v>
       </c>
@@ -45497,7 +45662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="751" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A751" s="7">
         <v>482</v>
       </c>
@@ -45547,7 +45712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="752" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A752" s="7">
         <v>485</v>
       </c>
@@ -45597,7 +45762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="753" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A753" s="7">
         <v>680</v>
       </c>
@@ -45647,7 +45812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="754" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A754" s="7">
         <v>483</v>
       </c>
@@ -45694,7 +45859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A755" s="7">
         <v>684</v>
       </c>
@@ -45744,7 +45909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="756" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A756" s="7">
         <v>753</v>
       </c>
@@ -45791,7 +45956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A757" s="7">
         <v>754</v>
       </c>
@@ -45838,7 +46003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A758" s="7">
         <v>755</v>
       </c>
@@ -45885,7 +46050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A759" s="7">
         <v>758</v>
       </c>
@@ -45932,7 +46097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A760" s="7">
         <v>800</v>
       </c>
@@ -45979,7 +46144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A761" s="7">
         <v>791</v>
       </c>
@@ -46026,7 +46191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A762" s="7">
         <v>769</v>
       </c>
@@ -46073,7 +46238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A763" s="7">
         <v>770</v>
       </c>
@@ -46120,7 +46285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A764" s="7">
         <v>756</v>
       </c>
@@ -46167,7 +46332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A765" s="7">
         <v>757</v>
       </c>
@@ -46214,7 +46379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A766" s="7">
         <v>759</v>
       </c>
@@ -46261,7 +46426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A767" s="7">
         <v>761</v>
       </c>
@@ -46308,7 +46473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A768" s="7">
         <v>763</v>
       </c>
@@ -46355,7 +46520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A769" s="7">
         <v>764</v>
       </c>
@@ -46402,7 +46567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A770" s="7">
         <v>767</v>
       </c>
@@ -46449,7 +46614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A771" s="7">
         <v>771</v>
       </c>
@@ -46496,7 +46661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A772" s="7">
         <v>772</v>
       </c>
@@ -46543,7 +46708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A773" s="7">
         <v>774</v>
       </c>
@@ -46590,7 +46755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A774" s="7">
         <v>775</v>
       </c>
@@ -46637,7 +46802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A775" s="7">
         <v>777</v>
       </c>
@@ -46684,7 +46849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A776" s="7">
         <v>778</v>
       </c>
@@ -46731,7 +46896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A777" s="7">
         <v>760</v>
       </c>
@@ -46778,7 +46943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A778" s="7">
         <v>776</v>
       </c>
@@ -46825,7 +46990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A779" s="7">
         <v>779</v>
       </c>
@@ -46872,7 +47037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A780" s="7">
         <v>765</v>
       </c>
@@ -46919,7 +47084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A781" s="7">
         <v>783</v>
       </c>
@@ -46966,7 +47131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A782" s="7">
         <v>798</v>
       </c>
@@ -47013,7 +47178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A783" s="7">
         <v>785</v>
       </c>
@@ -47060,7 +47225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A784" s="7">
         <v>786</v>
       </c>
@@ -47107,7 +47272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A785" s="7">
         <v>790</v>
       </c>
@@ -47154,7 +47319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A786" s="7">
         <v>792</v>
       </c>
@@ -47201,7 +47366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A787" s="7">
         <v>796</v>
       </c>
@@ -47248,7 +47413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A788" s="7">
         <v>797</v>
       </c>
@@ -47295,7 +47460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A789" s="7">
         <v>799</v>
       </c>
@@ -47342,7 +47507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A790" s="7">
         <v>782</v>
       </c>
@@ -47389,7 +47554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A791" s="7">
         <v>795</v>
       </c>
@@ -47436,7 +47601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A792" s="7">
         <v>789</v>
       </c>
@@ -47483,7 +47648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A793" s="7">
         <v>787</v>
       </c>
@@ -47530,7 +47695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A794" s="7">
         <v>762</v>
       </c>
@@ -47580,7 +47745,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="795" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A795" s="7">
         <v>784</v>
       </c>
@@ -47627,7 +47792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A796" s="7">
         <v>794</v>
       </c>
@@ -47674,7 +47839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A797" s="7">
         <v>780</v>
       </c>
@@ -47721,7 +47886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A798" s="7">
         <v>781</v>
       </c>
@@ -47768,7 +47933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A799" s="7">
         <v>766</v>
       </c>
@@ -47815,7 +47980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A800" s="7">
         <v>768</v>
       </c>
@@ -47862,7 +48027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A801" s="7">
         <v>773</v>
       </c>
@@ -47909,7 +48074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A802" s="7">
         <v>793</v>
       </c>
@@ -47956,7 +48121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A803" s="7">
         <v>788</v>
       </c>
@@ -48003,7 +48168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A804" s="7">
         <v>821</v>
       </c>
@@ -48047,7 +48212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A805" s="7">
         <v>807</v>
       </c>
@@ -48091,7 +48256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A806" s="7">
         <v>808</v>
       </c>
@@ -48135,7 +48300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A807" s="7">
         <v>809</v>
       </c>
@@ -48179,7 +48344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A808" s="7">
         <v>804</v>
       </c>
@@ -48223,7 +48388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A809" s="7">
         <v>805</v>
       </c>
@@ -48267,7 +48432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A810" s="7">
         <v>806</v>
       </c>
@@ -48311,7 +48476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A811" s="7">
         <v>814</v>
       </c>
@@ -48355,7 +48520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A812" s="7">
         <v>815</v>
       </c>
@@ -48399,7 +48564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A813" s="7">
         <v>816</v>
       </c>
@@ -48443,7 +48608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A814" s="7">
         <v>817</v>
       </c>
@@ -48487,7 +48652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A815" s="7">
         <v>810</v>
       </c>
@@ -48531,7 +48696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A816" s="7">
         <v>811</v>
       </c>
@@ -48575,7 +48740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A817" s="7">
         <v>812</v>
       </c>
@@ -48619,7 +48784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A818" s="7">
         <v>813</v>
       </c>
@@ -48663,7 +48828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A819" s="7">
         <v>818</v>
       </c>
@@ -48707,7 +48872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A820" s="7">
         <v>819</v>
       </c>
@@ -48751,7 +48916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A821" s="7">
         <v>803</v>
       </c>
@@ -48795,7 +48960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A822" s="7">
         <v>820</v>
       </c>
@@ -48839,7 +49004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A823" s="7">
         <v>833</v>
       </c>
@@ -48883,7 +49048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A824" s="7">
         <v>834</v>
       </c>
@@ -48927,7 +49092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A825" s="7">
         <v>899</v>
       </c>
@@ -48971,7 +49136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A826" s="7">
         <v>900</v>
       </c>
@@ -49015,7 +49180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A827" s="7">
         <v>835</v>
       </c>
@@ -49059,7 +49224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A828" s="7">
         <v>836</v>
       </c>
@@ -49103,7 +49268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A829" s="7">
         <v>837</v>
       </c>
@@ -49147,7 +49312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A830" s="7">
         <v>822</v>
       </c>
@@ -49191,7 +49356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A831" s="7">
         <v>823</v>
       </c>
@@ -49235,7 +49400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A832" s="7">
         <v>825</v>
       </c>
@@ -49279,7 +49444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A833" s="7">
         <v>829</v>
       </c>
@@ -49323,7 +49488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A834" s="7">
         <v>830</v>
       </c>
@@ -49367,7 +49532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A835" s="7">
         <v>831</v>
       </c>
@@ -49411,7 +49576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A836" s="7">
         <v>832</v>
       </c>
@@ -49455,7 +49620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A837" s="7">
         <v>824</v>
       </c>
@@ -49499,7 +49664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A838" s="7">
         <v>826</v>
       </c>
@@ -49543,7 +49708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A839" s="7">
         <v>827</v>
       </c>
@@ -49587,7 +49752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A840" s="7">
         <v>828</v>
       </c>
@@ -49631,7 +49796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A841" s="7">
         <v>883</v>
       </c>
@@ -49675,7 +49840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A842" s="7">
         <v>847</v>
       </c>
@@ -49719,7 +49884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A843" s="7">
         <v>886</v>
       </c>
@@ -49763,7 +49928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A844" s="7">
         <v>844</v>
       </c>
@@ -49807,7 +49972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A845" s="7">
         <v>845</v>
       </c>
@@ -49851,7 +50016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A846" s="7">
         <v>854</v>
       </c>
@@ -49895,7 +50060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A847" s="7">
         <v>860</v>
       </c>
@@ -49939,7 +50104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A848" s="7">
         <v>861</v>
       </c>
@@ -49983,7 +50148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A849" s="7">
         <v>865</v>
       </c>
@@ -50027,7 +50192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A850" s="7">
         <v>866</v>
       </c>
@@ -50071,7 +50236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A851" s="7">
         <v>867</v>
       </c>
@@ -50115,7 +50280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A852" s="7">
         <v>868</v>
       </c>
@@ -50159,7 +50324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A853" s="7">
         <v>873</v>
       </c>
@@ -50203,7 +50368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A854" s="7">
         <v>888</v>
       </c>
@@ -50247,7 +50412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A855" s="7">
         <v>842</v>
       </c>
@@ -50291,7 +50456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A856" s="7">
         <v>872</v>
       </c>
@@ -50335,7 +50500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A857" s="7">
         <v>877</v>
       </c>
@@ -50379,7 +50544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A858" s="7">
         <v>891</v>
       </c>
@@ -50423,7 +50588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A859" s="7">
         <v>890</v>
       </c>
@@ -50467,7 +50632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A860" s="7">
         <v>848</v>
       </c>
@@ -50511,7 +50676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A861" s="7">
         <v>846</v>
       </c>
@@ -50555,7 +50720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A862" s="7">
         <v>838</v>
       </c>
@@ -50599,7 +50764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A863" s="7">
         <v>839</v>
       </c>
@@ -50643,7 +50808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A864" s="7">
         <v>843</v>
       </c>
@@ -50687,7 +50852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A865" s="7">
         <v>850</v>
       </c>
@@ -50731,7 +50896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A866" s="7">
         <v>851</v>
       </c>
@@ -50775,7 +50940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A867" s="7">
         <v>855</v>
       </c>
@@ -50819,7 +50984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A868" s="7">
         <v>856</v>
       </c>
@@ -50863,7 +51028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A869" s="7">
         <v>859</v>
       </c>
@@ -50907,7 +51072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A870" s="7">
         <v>863</v>
       </c>
@@ -50951,7 +51116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A871" s="7">
         <v>870</v>
       </c>
@@ -50995,7 +51160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A872" s="7">
         <v>879</v>
       </c>
@@ -51039,7 +51204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A873" s="7">
         <v>880</v>
       </c>
@@ -51083,7 +51248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A874" s="7">
         <v>881</v>
       </c>
@@ -51127,7 +51292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A875" s="7">
         <v>882</v>
       </c>
@@ -51171,7 +51336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A876" s="7">
         <v>887</v>
       </c>
@@ -51215,7 +51380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A877" s="7">
         <v>892</v>
       </c>
@@ -51259,7 +51424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A878" s="7">
         <v>857</v>
       </c>
@@ -51303,7 +51468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A879" s="7">
         <v>858</v>
       </c>
@@ -51347,7 +51512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A880" s="7">
         <v>862</v>
       </c>
@@ -51391,7 +51556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A881" s="7">
         <v>852</v>
       </c>
@@ -51435,7 +51600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A882" s="7">
         <v>841</v>
       </c>
@@ -51479,7 +51644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A883" s="7">
         <v>869</v>
       </c>
@@ -51523,7 +51688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A884" s="7">
         <v>871</v>
       </c>
@@ -51567,7 +51732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A885" s="7">
         <v>885</v>
       </c>
@@ -51611,7 +51776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A886" s="7">
         <v>876</v>
       </c>
@@ -51655,7 +51820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A887" s="7">
         <v>840</v>
       </c>
@@ -51699,7 +51864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A888" s="7">
         <v>853</v>
       </c>
@@ -51743,7 +51908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A889" s="7">
         <v>864</v>
       </c>
@@ -51787,7 +51952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A890" s="7">
         <v>874</v>
       </c>
@@ -51831,7 +51996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A891" s="7">
         <v>875</v>
       </c>
@@ -51875,7 +52040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A892" s="7">
         <v>849</v>
       </c>
@@ -51919,7 +52084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A893" s="7">
         <v>884</v>
       </c>
@@ -51963,7 +52128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A894" s="7">
         <v>878</v>
       </c>
@@ -52007,7 +52172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A895" s="7">
         <v>893</v>
       </c>
@@ -52051,7 +52216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A896" s="7">
         <v>894</v>
       </c>
@@ -52095,7 +52260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A897" s="7">
         <v>895</v>
       </c>
@@ -52139,7 +52304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A898" s="7">
         <v>896</v>
       </c>
@@ -52183,7 +52348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A899" s="7">
         <v>897</v>
       </c>
@@ -52227,7 +52392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A900" s="7">
         <v>889</v>
       </c>
@@ -52271,7 +52436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A901" s="7">
         <v>898</v>
       </c>
@@ -52315,7 +52480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A902" s="7">
         <v>916</v>
       </c>
@@ -52362,7 +52527,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="903" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A903" s="7">
         <v>925</v>
       </c>
@@ -52409,7 +52574,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="904" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A904" s="7">
         <v>917</v>
       </c>
@@ -52417,7 +52582,7 @@
         <v>2054</v>
       </c>
       <c r="C904" s="9" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D904" t="s">
         <v>2027</v>
@@ -52462,7 +52627,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="905" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A905" s="7">
         <v>926</v>
       </c>
@@ -52509,7 +52674,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="906" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A906" s="7">
         <v>921</v>
       </c>
@@ -52556,7 +52721,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="907" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A907" s="7">
         <v>918</v>
       </c>
@@ -52603,7 +52768,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="908" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A908" s="7">
         <v>923</v>
       </c>
@@ -52650,7 +52815,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="909" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A909" s="7">
         <v>924</v>
       </c>
@@ -52697,7 +52862,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="910" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A910" s="7">
         <v>914</v>
       </c>
@@ -52744,7 +52909,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="911" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A911" s="7">
         <v>927</v>
       </c>
@@ -52791,7 +52956,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="912" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A912" s="7">
         <v>920</v>
       </c>
@@ -52844,7 +53009,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="913" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A913" s="7">
         <v>929</v>
       </c>
@@ -52891,7 +53056,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="914" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A914" s="7">
         <v>922</v>
       </c>
@@ -52938,7 +53103,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="915" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A915" s="7">
         <v>912</v>
       </c>
@@ -52985,7 +53150,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="916" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A916" s="7">
         <v>911</v>
       </c>
@@ -53032,7 +53197,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="917" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A917" s="7">
         <v>901</v>
       </c>
@@ -53079,7 +53244,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="918" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A918" s="7">
         <v>902</v>
       </c>
@@ -53126,7 +53291,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="919" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A919" s="7">
         <v>903</v>
       </c>
@@ -53173,7 +53338,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="920" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A920" s="7">
         <v>904</v>
       </c>
@@ -53220,7 +53385,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="921" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A921" s="7">
         <v>905</v>
       </c>
@@ -53267,7 +53432,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="922" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A922" s="7">
         <v>906</v>
       </c>
@@ -53314,7 +53479,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="923" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A923" s="7">
         <v>907</v>
       </c>
@@ -53361,7 +53526,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="924" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A924" s="7">
         <v>908</v>
       </c>
@@ -53408,7 +53573,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="925" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A925" s="7">
         <v>909</v>
       </c>
@@ -53458,7 +53623,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="926" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A926" s="7">
         <v>910</v>
       </c>
@@ -53505,7 +53670,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="927" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A927" s="7">
         <v>913</v>
       </c>
@@ -53552,7 +53717,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="928" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A928" s="7">
         <v>915</v>
       </c>
@@ -53599,7 +53764,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="929" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A929" s="7">
         <v>919</v>
       </c>
@@ -53646,7 +53811,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="930" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A930" s="7">
         <v>928</v>
       </c>
@@ -53693,7 +53858,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="931" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A931" s="7">
         <v>928</v>
       </c>
@@ -53707,75 +53872,78 @@
     <sortCondition ref="D2:D930"/>
   </sortState>
   <conditionalFormatting sqref="B1:B69 B73:B1048576">
-    <cfRule type="containsText" dxfId="15" priority="2" stopIfTrue="1" operator="containsText" text="Issue">
+    <cfRule type="containsText" dxfId="32" priority="3" stopIfTrue="1" operator="containsText" text="Issue">
       <formula>NOT(ISERROR(SEARCH("Issue",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="11" stopIfTrue="1" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="31" priority="12" stopIfTrue="1" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B69 B73:B930">
-    <cfRule type="containsText" dxfId="13" priority="12" stopIfTrue="1" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="30" priority="13" stopIfTrue="1" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="13" stopIfTrue="1" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="29" priority="14" stopIfTrue="1" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",B2)))</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="11" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="15">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsBlanks" dxfId="3" priority="5">
+    <cfRule type="containsBlanks" dxfId="27" priority="6">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C999">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="21">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="NOTE:">
+    <cfRule type="containsText" dxfId="16" priority="2" stopIfTrue="1" operator="containsText" text="See Notes -&gt;">
+      <formula>NOT(ISERROR(SEARCH("See Notes -&gt;",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="NO CHANGE">
+      <formula>NOT(ISERROR(SEARCH("NO CHANGE",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="1" stopIfTrue="1" operator="containsText" text="NOTE:">
       <formula>NOT(ISERROR(SEARCH("NOTE:",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="NO CHANGE">
-      <formula>NOT(ISERROR(SEARCH("NO CHANGE",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:J1048576">
-    <cfRule type="containsBlanks" dxfId="9" priority="7">
+    <cfRule type="containsBlanks" dxfId="24" priority="8">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G999">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>$G2&lt;&gt;$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H999">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>$H2&lt;&gt;$J2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:Q1048576">
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="between">
       <formula>1</formula>
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53797,27 +53965,27 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2053</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2054</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>2055</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>2057</v>
       </c>

--- a/aFullReport.xlsx
+++ b/aFullReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_tpp\code-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704395A6-1270-4E30-8A4E-4C963BA77377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819EDF96-F78F-4B26-8F85-32439BC81F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="1335" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="1200" windowWidth="23640" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4596" uniqueCount="2077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4598" uniqueCount="2078">
   <si>
     <t>DocumentName</t>
   </si>
@@ -6204,9 +6204,6 @@
   </si>
   <si>
     <t>Rhino.</t>
-  </si>
-  <si>
-    <t>Only added ClearServices to teardown.</t>
   </si>
   <si>
     <t>#if !VNEXT_TARGET. Rhino.</t>
@@ -6298,6 +6295,27 @@
   </si>
   <si>
     <t>See Notes -&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DataItemProxy mock had to additionally inherit INotifyPropertyChanged.
+Call to raise event changed to:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m_DataItemProxy.PropertyChanged += Raise.Event&lt;PropertyChangedEventHandler&gt;(m_DataItemProxy, new PropertyChangedEventArgs(member.Member.Name));</t>
+    </r>
+  </si>
+  <si>
+    <t>Added ClearServices to teardown.</t>
   </si>
 </sst>
 </file>
@@ -6953,7 +6971,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7038,139 +7056,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFCCCC00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E6B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -7545,8 +7433,8 @@
   <dimension ref="A1:V931"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7630,7 +7518,7 @@
         <v>17</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -7877,7 +7765,7 @@
         <v>2057</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
@@ -8349,7 +8237,7 @@
         <v>2057</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -8400,7 +8288,7 @@
         <v>25</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="60" x14ac:dyDescent="0.25">
@@ -8411,7 +8299,7 @@
         <v>2055</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -8462,18 +8350,18 @@
         <v>48</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>2059</v>
+      <c r="C16" s="15" t="s">
+        <v>2075</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
@@ -8523,8 +8411,11 @@
       <c r="U16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="13" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>29</v>
       </c>
@@ -8583,7 +8474,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>48</v>
       </c>
@@ -8642,7 +8533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>49</v>
       </c>
@@ -8701,7 +8592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>52</v>
       </c>
@@ -8760,7 +8651,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>53</v>
       </c>
@@ -8819,7 +8710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>22</v>
       </c>
@@ -8878,15 +8769,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>2060</v>
+      <c r="C23" s="15" t="s">
+        <v>2075</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
@@ -8936,8 +8827,11 @@
       <c r="U23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="13" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44</v>
       </c>
@@ -8996,7 +8890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45</v>
       </c>
@@ -9055,7 +8949,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>1</v>
       </c>
@@ -9114,7 +9008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>39</v>
       </c>
@@ -9173,7 +9067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>38</v>
       </c>
@@ -9232,7 +9126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>31</v>
       </c>
@@ -9291,7 +9185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>62</v>
       </c>
@@ -9350,7 +9244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>11</v>
       </c>
@@ -9409,7 +9303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>34</v>
       </c>
@@ -9417,7 +9311,7 @@
         <v>2055</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D32" t="s">
         <v>89</v>
@@ -9476,7 +9370,7 @@
         <v>2055</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
@@ -9535,7 +9429,7 @@
         <v>2055</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D34" t="s">
         <v>30</v>
@@ -9594,7 +9488,7 @@
         <v>2055</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D35" t="s">
         <v>107</v>
@@ -10420,7 +10314,7 @@
         <v>2055</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D49" t="s">
         <v>28</v>
@@ -10597,7 +10491,7 @@
         <v>2055</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D52" t="s">
         <v>46</v>
@@ -10656,7 +10550,7 @@
         <v>2055</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
@@ -10715,7 +10609,7 @@
         <v>2055</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D54" t="s">
         <v>69</v>
@@ -10892,7 +10786,7 @@
         <v>2055</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D57" t="s">
         <v>71</v>
@@ -21293,7 +21187,7 @@
         <v>2055</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D255" t="s">
         <v>513</v>
@@ -22166,7 +22060,7 @@
         <v>2055</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D273" t="s">
         <v>495</v>
@@ -53872,78 +53766,78 @@
     <sortCondition ref="D2:D930"/>
   </sortState>
   <conditionalFormatting sqref="B1:B69 B73:B1048576">
-    <cfRule type="containsText" dxfId="32" priority="3" stopIfTrue="1" operator="containsText" text="Issue">
+    <cfRule type="containsText" dxfId="16" priority="3" stopIfTrue="1" operator="containsText" text="Issue">
       <formula>NOT(ISERROR(SEARCH("Issue",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="12" stopIfTrue="1" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="15" priority="12" stopIfTrue="1" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B69 B73:B930">
-    <cfRule type="containsText" dxfId="30" priority="13" stopIfTrue="1" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="14" priority="13" stopIfTrue="1" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH("Planned",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="14" stopIfTrue="1" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="13" priority="14" stopIfTrue="1" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",B2)))</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="28" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="15">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsBlanks" dxfId="27" priority="6">
+    <cfRule type="containsBlanks" dxfId="11" priority="6">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C999">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="21">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="containsText" dxfId="16" priority="2" stopIfTrue="1" operator="containsText" text="See Notes -&gt;">
+    <cfRule type="containsText" dxfId="9" priority="1" stopIfTrue="1" operator="containsText" text="NOTE:">
+      <formula>NOT(ISERROR(SEARCH("NOTE:",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" stopIfTrue="1" operator="containsText" text="See Notes -&gt;">
       <formula>NOT(ISERROR(SEARCH("See Notes -&gt;",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="NO CHANGE">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="NO CHANGE">
       <formula>NOT(ISERROR(SEARCH("NO CHANGE",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="1" stopIfTrue="1" operator="containsText" text="NOTE:">
-      <formula>NOT(ISERROR(SEARCH("NOTE:",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:J1048576">
-    <cfRule type="containsBlanks" dxfId="24" priority="8">
+    <cfRule type="containsBlanks" dxfId="5" priority="8">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G999">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>$G2&lt;&gt;$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H999">
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula>$H2&lt;&gt;$J2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:Q1048576">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="between">
       <formula>1</formula>
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
